--- a/matchCodes/Match_Modules.xlsx
+++ b/matchCodes/Match_Modules.xlsx
@@ -19,15 +19,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Match!$A$1:$I$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">match2.0!$A$3:$X$137</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$95</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">match2.1!$A$1:$H$139</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$111</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">match2.1!$A$1:$H$155</definedName>
   </definedNames>
   <calcPr calcId="152511" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="643">
   <si>
     <t>дата</t>
   </si>
@@ -1969,6 +1969,21 @@
   </si>
   <si>
     <t>продолжение работы WP_Adapt после нажатия кнопки Button</t>
+  </si>
+  <si>
+    <t>CheckRepDate(Rep1,[Rep2],[Rep3],[Rep4],[Rep5])</t>
+  </si>
+  <si>
+    <t>проверка дат:все даты Дос-параметров д.б.ПОЗЖЕ осн.Документа</t>
+  </si>
+  <si>
+    <t>RepDateSub(Rep, Name, Dat)</t>
+  </si>
+  <si>
+    <t>подпрограмма CheckRepDate. TRUE, если дата Rep позже даты Name</t>
+  </si>
+  <si>
+    <t>проверки консистентности базы</t>
   </si>
 </sst>
 </file>
@@ -2589,10 +2604,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X1901"/>
+  <dimension ref="A1:X1917"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2613,7 +2628,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>41520</v>
+        <v>41531</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>478</v>
@@ -2667,7 +2682,7 @@
       </c>
       <c r="E5"/>
     </row>
-    <row r="6" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
         <v>41511</v>
       </c>
@@ -2684,7 +2699,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="7" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>41137</v>
       </c>
@@ -2701,7 +2716,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
         <v>41153</v>
       </c>
@@ -2718,7 +2733,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
         <v>41153</v>
       </c>
@@ -2735,7 +2750,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>41497</v>
       </c>
@@ -2752,7 +2767,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>41497</v>
       </c>
@@ -2769,7 +2784,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="12" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>41182</v>
       </c>
@@ -2786,7 +2801,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="13" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>41182</v>
       </c>
@@ -2803,7 +2818,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>41224</v>
       </c>
@@ -2820,7 +2835,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
         <v>41183</v>
       </c>
@@ -2837,7 +2852,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="16" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
         <v>41510</v>
       </c>
@@ -2854,25 +2869,26 @@
         <v>614</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <f>MAX(A6:A16)</f>
-        <v>41511</v>
-      </c>
-      <c r="B17" t="s">
-        <v>422</v>
-      </c>
-      <c r="C17" t="s">
-        <v>423</v>
-      </c>
-      <c r="D17">
-        <v>445</v>
-      </c>
-      <c r="E17" s="7"/>
+    <row r="17" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>41531</v>
+      </c>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>639</v>
+      </c>
     </row>
     <row r="18" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
-        <v>41395</v>
+        <v>41531</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -2881,66 +2897,65 @@
         <v>74</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>571</v>
+        <v>640</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="34" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
-        <v>41520</v>
-      </c>
-      <c r="B19" s="32"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>635</v>
-      </c>
-      <c r="G19" s="34" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="34" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
-        <v>41520</v>
-      </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="35" t="s">
-        <v>636</v>
-      </c>
-      <c r="G20" s="34" t="s">
-        <v>637</v>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <f>MAX(A6:A16)</f>
+        <v>41511</v>
+      </c>
+      <c r="B19" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" t="s">
+        <v>642</v>
+      </c>
+      <c r="D19">
+        <v>445</v>
+      </c>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>41511</v>
+      </c>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="F20" s="17" t="s">
+        <v>424</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
-        <v>41510</v>
+        <v>41137</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" s="7" t="s">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>615</v>
+        <v>426</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>616</v>
+        <v>427</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
-        <v>41497</v>
+        <v>41153</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -2949,32 +2964,32 @@
         <v>74</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>574</v>
+        <v>428</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="40" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="36">
-        <v>41279</v>
-      </c>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>576</v>
-      </c>
-      <c r="G23" s="40" t="s">
-        <v>577</v>
+        <v>429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>41153</v>
+      </c>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" s="17" t="s">
+        <v>464</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
-        <v>41278</v>
+        <v>41497</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
@@ -2983,15 +2998,15 @@
         <v>74</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>578</v>
+        <v>561</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>579</v>
+        <v>562</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
-        <v>41228</v>
+        <v>41497</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -3000,32 +3015,32 @@
         <v>74</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>580</v>
+        <v>430</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="34" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="31">
-        <v>41520</v>
-      </c>
-      <c r="B26" s="32"/>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F26" s="35" t="s">
-        <v>470</v>
-      </c>
-      <c r="G26" s="34" t="s">
-        <v>471</v>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>41182</v>
+      </c>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F26" s="17" t="s">
+        <v>563</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
-        <v>41260</v>
+        <v>41182</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -3034,82 +3049,80 @@
         <v>74</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>582</v>
+        <v>565</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
-        <f>MAX(A18:A27)</f>
-        <v>41520</v>
-      </c>
-      <c r="B28" t="s">
-        <v>569</v>
-      </c>
-      <c r="C28" t="s">
-        <v>570</v>
-      </c>
-      <c r="D28">
-        <v>1061</v>
-      </c>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="25">
+        <v>41224</v>
+      </c>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F28" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
-        <v>41504</v>
-      </c>
-      <c r="B29" s="30"/>
+        <v>41183</v>
+      </c>
+      <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>433</v>
+        <v>452</v>
+      </c>
+      <c r="F29" s="17" t="s">
+        <v>567</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
-        <v>41130</v>
-      </c>
+        <v>41510</v>
+      </c>
+      <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
-      <c r="E30" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F30" s="8" t="s">
-        <v>447</v>
+      <c r="E30" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="F30" s="17" t="s">
+        <v>613</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25">
-        <v>41469</v>
-      </c>
+        <v>614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25"/>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31" s="7" t="s">
-        <v>74</v>
+        <v>452</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>487</v>
+        <v>638</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25">
-        <v>41116</v>
-      </c>
+        <v>639</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25"/>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
@@ -3117,185 +3130,184 @@
         <v>74</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>450</v>
+        <v>640</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="25">
-        <v>41504</v>
-      </c>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>626</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <f>MAX(A20:A30)</f>
+        <v>41511</v>
+      </c>
+      <c r="B33" t="s">
+        <v>422</v>
+      </c>
+      <c r="C33" t="s">
+        <v>423</v>
+      </c>
+      <c r="D33">
+        <v>445</v>
+      </c>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
-        <v>41511</v>
-      </c>
+        <v>41395</v>
+      </c>
+      <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
       <c r="E34" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>488</v>
+      <c r="F34" s="17" t="s">
+        <v>571</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3">
-        <f>MAX(A29:A34)</f>
-        <v>41511</v>
-      </c>
-      <c r="B35" t="s">
-        <v>624</v>
-      </c>
-      <c r="C35" t="s">
-        <v>625</v>
-      </c>
-      <c r="D35">
-        <v>342</v>
-      </c>
-      <c r="E35"/>
-    </row>
-    <row r="36" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="25">
-        <v>41162</v>
-      </c>
-      <c r="B36"/>
-      <c r="C36"/>
-      <c r="D36"/>
-      <c r="E36" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>419</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="34" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="31">
+        <v>41520</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="35" t="s">
+        <v>635</v>
+      </c>
+      <c r="G35" s="34" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="34" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="31">
+        <v>41520</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="32"/>
+      <c r="E36" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="35" t="s">
+        <v>636</v>
+      </c>
+      <c r="G36" s="34" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25">
-        <v>41062</v>
+        <v>41510</v>
       </c>
       <c r="B37"/>
       <c r="C37"/>
       <c r="D37"/>
       <c r="E37" s="7" t="s">
-        <v>301</v>
+        <v>452</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>420</v>
+        <v>615</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="3">
-        <f>MAX(A36:A37)</f>
-        <v>41162</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C38" t="s">
-        <v>445</v>
-      </c>
-      <c r="D38">
-        <v>99</v>
-      </c>
-      <c r="E38" s="7"/>
-      <c r="F38" s="8" t="s">
-        <v>444</v>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="25">
+        <v>41497</v>
+      </c>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" s="17" t="s">
+        <v>574</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="25">
-        <v>41302</v>
-      </c>
-      <c r="B39"/>
-      <c r="C39"/>
-      <c r="D39"/>
-      <c r="E39" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="G39" s="8" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="40" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="36">
+        <v>41279</v>
+      </c>
+      <c r="B39" s="37"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="39" t="s">
+        <v>576</v>
+      </c>
+      <c r="G39" s="40" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25">
-        <v>41286</v>
-      </c>
+        <v>41278</v>
+      </c>
+      <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
       <c r="E40" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F40" s="8" t="s">
-        <v>491</v>
+        <v>74</v>
+      </c>
+      <c r="F40" s="17" t="s">
+        <v>578</v>
       </c>
       <c r="G40" s="8" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
-        <v>41302</v>
-      </c>
+        <v>41228</v>
+      </c>
+      <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>493</v>
+      <c r="F41" s="17" t="s">
+        <v>580</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="25">
-        <v>41071</v>
-      </c>
-      <c r="B42"/>
-      <c r="C42"/>
-      <c r="D42"/>
-      <c r="E42" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="G42" s="8" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="34" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="31">
+        <v>41520</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" s="32"/>
+      <c r="D42" s="32"/>
+      <c r="E42" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G42" s="34" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25">
-        <v>41060</v>
+        <v>41260</v>
       </c>
       <c r="B43"/>
       <c r="C43"/>
@@ -3304,355 +3316,353 @@
         <v>74</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>459</v>
+        <v>582</v>
       </c>
       <c r="G43" s="8" t="s">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="25">
-        <v>41472</v>
-      </c>
-      <c r="B44"/>
-      <c r="C44"/>
-      <c r="D44"/>
-      <c r="E44" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="G44" s="8" t="s">
-        <v>84</v>
-      </c>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="3">
+        <f>MAX(A34:A43)</f>
+        <v>41520</v>
+      </c>
+      <c r="B44" t="s">
+        <v>569</v>
+      </c>
+      <c r="C44" t="s">
+        <v>570</v>
+      </c>
+      <c r="D44">
+        <v>1061</v>
+      </c>
+      <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
-        <v>40958</v>
-      </c>
-      <c r="B45"/>
+        <v>41504</v>
+      </c>
+      <c r="B45" s="30"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>461</v>
+        <v>74</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>433</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>86</v>
+        <v>446</v>
       </c>
     </row>
     <row r="46" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25">
-        <v>41511</v>
-      </c>
-      <c r="B46"/>
+        <v>41130</v>
+      </c>
       <c r="C46"/>
       <c r="D46"/>
-      <c r="E46" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>496</v>
+      <c r="E46" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="8" t="s">
+        <v>447</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>497</v>
+        <v>448</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
-        <v>40935</v>
+        <v>41469</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
       <c r="D47"/>
-      <c r="E47" s="23" t="s">
-        <v>498</v>
+      <c r="E47" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>499</v>
+        <v>487</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>500</v>
+        <v>435</v>
       </c>
     </row>
     <row r="48" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25">
-        <v>40934</v>
+        <v>41116</v>
       </c>
       <c r="B48"/>
       <c r="C48"/>
       <c r="D48"/>
-      <c r="E48" s="23" t="s">
+      <c r="E48" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>94</v>
+        <v>450</v>
       </c>
       <c r="G48" s="8" t="s">
-        <v>501</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
-        <v>40928</v>
-      </c>
-      <c r="B49"/>
+        <v>41504</v>
+      </c>
       <c r="C49"/>
       <c r="D49"/>
-      <c r="E49" s="23" t="s">
-        <v>502</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>95</v>
+      <c r="E49" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F49" s="8" t="s">
+        <v>626</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>503</v>
+        <v>486</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
-        <v>41156</v>
-      </c>
-      <c r="B50"/>
+        <v>41511</v>
+      </c>
       <c r="C50"/>
       <c r="D50"/>
-      <c r="E50" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>504</v>
+      <c r="E50" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F50" s="8" t="s">
+        <v>488</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="25">
-        <v>41171</v>
-      </c>
-      <c r="B51"/>
-      <c r="C51"/>
-      <c r="D51"/>
-      <c r="E51" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="G51" s="8" t="s">
-        <v>507</v>
-      </c>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3">
+        <f>MAX(A45:A50)</f>
+        <v>41511</v>
+      </c>
+      <c r="B51" t="s">
+        <v>624</v>
+      </c>
+      <c r="C51" t="s">
+        <v>625</v>
+      </c>
+      <c r="D51">
+        <v>342</v>
+      </c>
+      <c r="E51"/>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
-        <v>41267</v>
+        <v>41162</v>
       </c>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
-      <c r="E52" s="23" t="s">
-        <v>74</v>
+      <c r="E52" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>508</v>
+        <v>419</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>110</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25">
-        <v>41267</v>
+        <v>41062</v>
       </c>
       <c r="B53"/>
       <c r="C53"/>
       <c r="D53"/>
-      <c r="E53" s="23" t="s">
-        <v>74</v>
+      <c r="E53" s="7" t="s">
+        <v>301</v>
       </c>
       <c r="F53" s="17" t="s">
-        <v>509</v>
+        <v>420</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="25">
-        <v>41267</v>
-      </c>
-      <c r="B54"/>
-      <c r="C54"/>
-      <c r="D54"/>
-      <c r="E54" s="23" t="s">
-        <v>231</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>511</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3">
+        <f>MAX(A52:A53)</f>
+        <v>41162</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C54" t="s">
+        <v>445</v>
+      </c>
+      <c r="D54">
+        <v>99</v>
+      </c>
+      <c r="E54" s="7"/>
+      <c r="F54" s="8" t="s">
+        <v>444</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>512</v>
+        <v>442</v>
       </c>
     </row>
     <row r="55" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25">
-        <v>40953</v>
+        <v>41302</v>
       </c>
       <c r="B55"/>
       <c r="C55"/>
       <c r="D55"/>
-      <c r="E55" s="23" t="s">
-        <v>74</v>
+      <c r="E55" s="7" t="s">
+        <v>452</v>
       </c>
       <c r="F55" s="17" t="s">
-        <v>98</v>
+        <v>489</v>
       </c>
       <c r="G55" s="8" t="s">
-        <v>513</v>
+        <v>490</v>
       </c>
     </row>
     <row r="56" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
-        <v>41141</v>
-      </c>
-      <c r="B56"/>
+        <v>41286</v>
+      </c>
       <c r="C56"/>
       <c r="D56"/>
-      <c r="E56" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>514</v>
+      <c r="E56" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F56" s="8" t="s">
+        <v>491</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>515</v>
+        <v>492</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
-        <v>41146</v>
-      </c>
-      <c r="B57"/>
+        <v>41302</v>
+      </c>
       <c r="C57"/>
       <c r="D57"/>
-      <c r="E57" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>516</v>
+      <c r="E57" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F57" s="8" t="s">
+        <v>493</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>517</v>
+        <v>494</v>
       </c>
     </row>
     <row r="58" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25">
-        <v>41098</v>
+        <v>41071</v>
       </c>
       <c r="B58"/>
       <c r="C58"/>
       <c r="D58"/>
-      <c r="E58" s="23" t="s">
-        <v>231</v>
+      <c r="E58" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="F58" s="17" t="s">
-        <v>520</v>
+        <v>455</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>521</v>
+        <v>456</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
-        <v>41098</v>
+        <v>41060</v>
       </c>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
-      <c r="E59" s="23" t="s">
+      <c r="E59" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>518</v>
+        <v>459</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>519</v>
+        <v>460</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
-        <v>41248</v>
+        <v>41472</v>
       </c>
       <c r="B60"/>
       <c r="C60"/>
       <c r="D60"/>
-      <c r="E60" s="23" t="s">
+      <c r="E60" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F60" s="17" t="s">
-        <v>522</v>
+        <v>83</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>523</v>
+        <v>84</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
-        <v>41504</v>
+        <v>40958</v>
       </c>
       <c r="B61"/>
       <c r="C61"/>
       <c r="D61"/>
-      <c r="E61" s="23" t="s">
-        <v>74</v>
+      <c r="E61" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F61" s="17" t="s">
-        <v>524</v>
+        <v>461</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>525</v>
+        <v>86</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
-        <v>41072</v>
+        <v>41511</v>
       </c>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
       <c r="E62" s="23" t="s">
-        <v>502</v>
+        <v>74</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>187</v>
+        <v>496</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>527</v>
+        <v>497</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
-        <v>41018</v>
+        <v>40935</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
       <c r="E63" s="23" t="s">
-        <v>74</v>
+        <v>498</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>100</v>
+        <v>499</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>526</v>
+        <v>500</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
-        <v>41018</v>
+        <v>40934</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
@@ -3661,32 +3671,32 @@
         <v>74</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>529</v>
+        <v>501</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
-        <v>41236</v>
+        <v>40928</v>
       </c>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
       <c r="E65" s="23" t="s">
-        <v>74</v>
+        <v>502</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>528</v>
+        <v>95</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>530</v>
+        <v>503</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
-        <v>41511</v>
+        <v>41156</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
@@ -3695,15 +3705,15 @@
         <v>74</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>531</v>
+        <v>504</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>532</v>
+        <v>505</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
-        <v>41511</v>
+        <v>41171</v>
       </c>
       <c r="B67"/>
       <c r="C67"/>
@@ -3712,32 +3722,32 @@
         <v>74</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>533</v>
+        <v>506</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>534</v>
+        <v>507</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
-        <v>40943</v>
+        <v>41267</v>
       </c>
       <c r="B68"/>
       <c r="C68"/>
       <c r="D68"/>
       <c r="E68" s="23" t="s">
-        <v>535</v>
+        <v>74</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>536</v>
+        <v>508</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>537</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25">
-        <v>41152</v>
+        <v>41267</v>
       </c>
       <c r="B69"/>
       <c r="C69"/>
@@ -3746,30 +3756,32 @@
         <v>74</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>538</v>
+        <v>509</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>104</v>
+        <v>510</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="25"/>
+      <c r="A70" s="25">
+        <v>41267</v>
+      </c>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70" s="23" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>539</v>
+        <v>512</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
-        <v>41018</v>
+        <v>40953</v>
       </c>
       <c r="B71"/>
       <c r="C71"/>
@@ -3778,15 +3790,15 @@
         <v>74</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>541</v>
+        <v>98</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>195</v>
+        <v>513</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
-        <v>41067</v>
+        <v>41141</v>
       </c>
       <c r="B72"/>
       <c r="C72"/>
@@ -3795,83 +3807,83 @@
         <v>74</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>196</v>
+        <v>514</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>542</v>
+        <v>515</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
-        <v>41053</v>
+        <v>41146</v>
       </c>
       <c r="B73"/>
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73" s="23" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>543</v>
+        <v>516</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>544</v>
+        <v>517</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
-        <v>41053</v>
+        <v>41098</v>
       </c>
       <c r="B74"/>
       <c r="C74"/>
       <c r="D74"/>
       <c r="E74" s="23" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>545</v>
+        <v>520</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>546</v>
+        <v>521</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
-        <v>41036</v>
+        <v>41098</v>
       </c>
       <c r="B75"/>
       <c r="C75"/>
       <c r="D75"/>
       <c r="E75" s="23" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>242</v>
+        <v>518</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>547</v>
+        <v>519</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
-        <v>41053</v>
+        <v>41248</v>
       </c>
       <c r="B76"/>
       <c r="C76"/>
       <c r="D76"/>
       <c r="E76" s="23" t="s">
-        <v>549</v>
+        <v>74</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>548</v>
+        <v>522</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>550</v>
+        <v>523</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
-        <v>41036</v>
+        <v>41504</v>
       </c>
       <c r="B77"/>
       <c r="C77"/>
@@ -3880,47 +3892,49 @@
         <v>74</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>240</v>
+        <v>524</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>245</v>
+        <v>525</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25">
-        <v>41221</v>
+        <v>41072</v>
       </c>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78" s="23" t="s">
-        <v>74</v>
+        <v>502</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>551</v>
+        <v>187</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>552</v>
+        <v>527</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="25"/>
+      <c r="A79" s="25">
+        <v>41018</v>
+      </c>
       <c r="B79"/>
       <c r="C79"/>
       <c r="D79"/>
       <c r="E79" s="23" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>553</v>
+        <v>100</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>554</v>
+        <v>526</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25">
-        <v>41272</v>
+        <v>41018</v>
       </c>
       <c r="B80"/>
       <c r="C80"/>
@@ -3929,668 +3943,682 @@
         <v>74</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>555</v>
+        <v>174</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <f>MAX(A29:A80)</f>
-        <v>41511</v>
-      </c>
-      <c r="B81" t="s">
-        <v>6</v>
-      </c>
-      <c r="C81" t="s">
-        <v>303</v>
-      </c>
-      <c r="D81">
-        <v>981</v>
-      </c>
-      <c r="E81" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F81" s="17"/>
-      <c r="G81" s="24"/>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="25">
+        <v>41236</v>
+      </c>
+      <c r="B81"/>
+      <c r="C81"/>
+      <c r="D81"/>
+      <c r="E81" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F81" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="G81" s="8" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25">
-        <v>41510</v>
+        <v>41511</v>
       </c>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
-      <c r="E82" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="F82" s="8" t="s">
-        <v>559</v>
+      <c r="E82" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F82" s="17" t="s">
+        <v>531</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>560</v>
+        <v>532</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25">
-        <v>41165</v>
+        <v>41511</v>
       </c>
       <c r="B83"/>
       <c r="C83"/>
       <c r="D83"/>
-      <c r="E83" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>584</v>
+      <c r="E83" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F83" s="17" t="s">
+        <v>533</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <f>MAX(A82:A83)</f>
-        <v>41510</v>
-      </c>
-      <c r="B84" t="s">
-        <v>419</v>
-      </c>
-      <c r="C84" t="s">
-        <v>557</v>
-      </c>
-      <c r="D84">
-        <v>282</v>
-      </c>
-      <c r="E84" s="7"/>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="25">
+        <v>40943</v>
+      </c>
+      <c r="B84"/>
+      <c r="C84"/>
+      <c r="D84"/>
+      <c r="E84" s="23" t="s">
+        <v>535</v>
+      </c>
+      <c r="F84" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="G84" s="8" t="s">
+        <v>537</v>
+      </c>
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25">
-        <v>41509</v>
+        <v>41152</v>
       </c>
       <c r="B85"/>
       <c r="C85"/>
       <c r="D85"/>
-      <c r="E85" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>588</v>
+      <c r="E85" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F85" s="17" t="s">
+        <v>538</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>589</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="25">
-        <v>41401</v>
-      </c>
+      <c r="A86" s="25"/>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
-      <c r="E86" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="F86" s="8" t="s">
-        <v>590</v>
+      <c r="E86" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F86" s="17" t="s">
+        <v>540</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <f>MAX(A85:A86)</f>
-        <v>41509</v>
-      </c>
-      <c r="B87" t="s">
-        <v>586</v>
-      </c>
-      <c r="C87" t="s">
-        <v>587</v>
-      </c>
-      <c r="D87">
-        <v>307</v>
-      </c>
-      <c r="E87" s="7"/>
+        <v>539</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="25">
+        <v>41018</v>
+      </c>
+      <c r="B87"/>
+      <c r="C87"/>
+      <c r="D87"/>
+      <c r="E87" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" s="17" t="s">
+        <v>541</v>
+      </c>
+      <c r="G87" s="8" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="88" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25">
-        <v>41510</v>
+        <v>41067</v>
       </c>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
-      <c r="E88" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F88" s="8" t="s">
-        <v>617</v>
+      <c r="E88" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F88" s="17" t="s">
+        <v>196</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>618</v>
+        <v>542</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25">
-        <v>41217</v>
+        <v>41053</v>
       </c>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
-      <c r="E89" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F89" s="8" t="s">
-        <v>476</v>
+      <c r="E89" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F89" s="17" t="s">
+        <v>543</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>477</v>
+        <v>544</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A90" s="25">
-        <v>41166</v>
+        <v>41053</v>
       </c>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
-      <c r="E90" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F90" s="8" t="s">
-        <v>479</v>
+      <c r="E90" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F90" s="17" t="s">
+        <v>545</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>480</v>
+        <v>546</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25">
-        <v>41512</v>
+        <v>41036</v>
       </c>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
-      <c r="E91" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F91" s="8" t="s">
-        <v>481</v>
+      <c r="E91" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F91" s="17" t="s">
+        <v>242</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>482</v>
+        <v>547</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25">
-        <v>41152</v>
+        <v>41053</v>
       </c>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
-      <c r="E92" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F92" s="8" t="s">
-        <v>483</v>
+      <c r="E92" s="23" t="s">
+        <v>549</v>
+      </c>
+      <c r="F92" s="17" t="s">
+        <v>548</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>484</v>
+        <v>550</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25">
-        <v>41510</v>
+        <v>41036</v>
       </c>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
-      <c r="E93" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F93" s="8" t="s">
-        <v>620</v>
+      <c r="E93" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F93" s="17" t="s">
+        <v>240</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>621</v>
+        <v>245</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="25">
-        <v>41047</v>
+        <v>41221</v>
       </c>
       <c r="B94"/>
       <c r="C94"/>
       <c r="D94"/>
-      <c r="E94" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F94" s="8" t="s">
-        <v>299</v>
+      <c r="E94" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F94" s="17" t="s">
+        <v>551</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3">
-        <f>MAX(A88:A94)</f>
-        <v>41512</v>
-      </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" t="s">
-        <v>619</v>
-      </c>
-      <c r="D95">
-        <v>243</v>
-      </c>
-      <c r="E95" s="7" t="s">
-        <v>192</v>
+        <v>552</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="25"/>
+      <c r="B95"/>
+      <c r="C95"/>
+      <c r="D95"/>
+      <c r="E95" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F95" s="17" t="s">
+        <v>553</v>
+      </c>
+      <c r="G95" s="8" t="s">
+        <v>554</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="25">
-        <v>41515</v>
+        <v>41272</v>
       </c>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
-      <c r="E96" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="F96" s="8" t="s">
-        <v>627</v>
+      <c r="E96" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F96" s="17" t="s">
+        <v>555</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="25">
-        <v>40952</v>
-      </c>
-      <c r="B97"/>
-      <c r="C97"/>
-      <c r="D97"/>
+        <v>556</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3">
+        <f>MAX(A45:A96)</f>
+        <v>41511</v>
+      </c>
+      <c r="B97" t="s">
+        <v>6</v>
+      </c>
+      <c r="C97" t="s">
+        <v>303</v>
+      </c>
+      <c r="D97">
+        <v>981</v>
+      </c>
       <c r="E97" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F97" s="8" t="s">
-        <v>592</v>
-      </c>
-      <c r="G97" s="8" t="s">
-        <v>593</v>
-      </c>
+      <c r="F97" s="17"/>
+      <c r="G97" s="24"/>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="25">
-        <v>40980</v>
+        <v>41510</v>
       </c>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
       <c r="E98" s="7" t="s">
-        <v>192</v>
+        <v>558</v>
       </c>
       <c r="F98" s="8" t="s">
-        <v>594</v>
+        <v>559</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>115</v>
+        <v>560</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A99" s="25">
-        <v>40951</v>
+        <v>41165</v>
       </c>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
       <c r="E99" s="7" t="s">
-        <v>192</v>
+        <v>558</v>
       </c>
       <c r="F99" s="8" t="s">
-        <v>595</v>
+        <v>584</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
-      <c r="B100"/>
-      <c r="C100"/>
-      <c r="D100"/>
-      <c r="E100" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>596</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>598</v>
-      </c>
+        <v>585</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="3">
+        <f>MAX(A98:A99)</f>
+        <v>41510</v>
+      </c>
+      <c r="B100" t="s">
+        <v>419</v>
+      </c>
+      <c r="C100" t="s">
+        <v>557</v>
+      </c>
+      <c r="D100">
+        <v>282</v>
+      </c>
+      <c r="E100" s="7"/>
     </row>
     <row r="101" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="25"/>
+      <c r="A101" s="25">
+        <v>41509</v>
+      </c>
       <c r="B101"/>
       <c r="C101"/>
       <c r="D101"/>
       <c r="E101" s="7" t="s">
-        <v>192</v>
+        <v>472</v>
       </c>
       <c r="F101" s="8" t="s">
-        <v>599</v>
+        <v>588</v>
       </c>
       <c r="G101" s="8" t="s">
-        <v>600</v>
+        <v>589</v>
       </c>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="25"/>
+      <c r="A102" s="25">
+        <v>41401</v>
+      </c>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102" s="7" t="s">
-        <v>192</v>
+        <v>452</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="25"/>
-      <c r="B103"/>
-      <c r="C103"/>
-      <c r="D103"/>
-      <c r="E103" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>604</v>
-      </c>
-      <c r="G103" s="8" t="s">
-        <v>605</v>
-      </c>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="3">
+        <f>MAX(A101:A102)</f>
+        <v>41509</v>
+      </c>
+      <c r="B103" t="s">
+        <v>586</v>
+      </c>
+      <c r="C103" t="s">
+        <v>587</v>
+      </c>
+      <c r="D103">
+        <v>307</v>
+      </c>
+      <c r="E103" s="7"/>
     </row>
     <row r="104" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="25"/>
+      <c r="A104" s="25">
+        <v>41510</v>
+      </c>
       <c r="B104"/>
       <c r="C104"/>
       <c r="D104"/>
       <c r="E104" s="7" t="s">
-        <v>192</v>
+        <v>472</v>
       </c>
       <c r="F104" s="8" t="s">
-        <v>606</v>
+        <v>617</v>
       </c>
       <c r="G104" s="8" t="s">
-        <v>607</v>
+        <v>618</v>
       </c>
     </row>
     <row r="105" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="25"/>
+      <c r="A105" s="25">
+        <v>41217</v>
+      </c>
       <c r="B105"/>
       <c r="C105"/>
       <c r="D105"/>
       <c r="E105" s="7" t="s">
-        <v>74</v>
+        <v>472</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>608</v>
+        <v>476</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3">
-        <f>MAX(A96:A105)</f>
-        <v>41515</v>
-      </c>
-      <c r="B106" t="s">
-        <v>40</v>
-      </c>
-      <c r="C106" t="s">
-        <v>41</v>
-      </c>
-      <c r="D106">
-        <v>304</v>
-      </c>
+        <v>477</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="25">
+        <v>41166</v>
+      </c>
+      <c r="B106"/>
+      <c r="C106"/>
+      <c r="D106"/>
       <c r="E106" s="7" t="s">
-        <v>603</v>
+        <v>74</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="G106" s="8" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="107" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A107" s="25">
-        <v>41222</v>
+        <v>41512</v>
       </c>
       <c r="B107"/>
       <c r="C107"/>
       <c r="D107"/>
       <c r="E107" s="7" t="s">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="F107" s="8" t="s">
-        <v>629</v>
+        <v>481</v>
       </c>
       <c r="G107" s="8" t="s">
-        <v>630</v>
+        <v>482</v>
       </c>
     </row>
     <row r="108" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="25">
-        <v>41273</v>
+        <v>41152</v>
       </c>
       <c r="B108"/>
       <c r="C108"/>
       <c r="D108"/>
       <c r="E108" s="7" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>631</v>
+        <v>483</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>632</v>
+        <v>484</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="25"/>
+      <c r="A109" s="25">
+        <v>41510</v>
+      </c>
       <c r="B109"/>
       <c r="C109"/>
       <c r="D109"/>
-      <c r="E109" t="s">
-        <v>76</v>
+      <c r="E109" s="7" t="s">
+        <v>472</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>151</v>
+        <v>620</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>165</v>
+        <v>621</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="25"/>
+      <c r="A110" s="25">
+        <v>41047</v>
+      </c>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
-      <c r="E110" t="s">
-        <v>158</v>
+      <c r="E110" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>159</v>
+        <v>299</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="25"/>
-      <c r="B111"/>
-      <c r="C111"/>
-      <c r="D111"/>
-      <c r="E111" t="s">
-        <v>76</v>
-      </c>
-      <c r="F111" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="G111" s="8" t="s">
-        <v>162</v>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3">
+        <f>MAX(A104:A110)</f>
+        <v>41512</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111" t="s">
+        <v>619</v>
+      </c>
+      <c r="D111">
+        <v>243</v>
+      </c>
+      <c r="E111" s="7" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="25"/>
+      <c r="A112" s="25">
+        <v>41515</v>
+      </c>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
-      <c r="E112" t="s">
-        <v>158</v>
+      <c r="E112" s="7" t="s">
+        <v>452</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>163</v>
+        <v>627</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="3">
-        <v>40972</v>
-      </c>
-      <c r="B113" t="s">
-        <v>149</v>
-      </c>
-      <c r="C113" t="s">
-        <v>150</v>
-      </c>
-      <c r="D113">
-        <v>348</v>
-      </c>
-      <c r="E113"/>
-    </row>
-    <row r="114" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="31">
-        <v>41520</v>
-      </c>
-      <c r="B114" s="32"/>
-      <c r="C114" s="32"/>
-      <c r="D114" s="32"/>
-      <c r="E114" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="F114" s="34" t="s">
-        <v>633</v>
-      </c>
-      <c r="G114" s="34" t="s">
-        <v>634</v>
-      </c>
-      <c r="H114" s="34"/>
-    </row>
-    <row r="115" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="25"/>
+        <v>628</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="25">
+        <v>40952</v>
+      </c>
+      <c r="B113"/>
+      <c r="C113"/>
+      <c r="D113"/>
+      <c r="E113" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>592</v>
+      </c>
+      <c r="G113" s="8" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="25">
+        <v>40980</v>
+      </c>
+      <c r="B114"/>
+      <c r="C114"/>
+      <c r="D114"/>
+      <c r="E114" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="G114" s="8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="25">
+        <v>40951</v>
+      </c>
       <c r="B115"/>
       <c r="C115"/>
       <c r="D115"/>
       <c r="E115" s="7" t="s">
-        <v>610</v>
+        <v>192</v>
       </c>
       <c r="F115" s="8" t="s">
-        <v>78</v>
+        <v>595</v>
       </c>
       <c r="G115" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A116" s="25"/>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116" s="7" t="s">
-        <v>611</v>
+        <v>192</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>44</v>
+        <v>596</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A117" s="25"/>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
       <c r="E117" s="7" t="s">
-        <v>611</v>
+        <v>192</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>156</v>
+        <v>599</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A118" s="25"/>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
       <c r="E118" s="7" t="s">
-        <v>611</v>
+        <v>192</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>45</v>
+        <v>601</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A119" s="25"/>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
       <c r="E119" s="7" t="s">
-        <v>611</v>
+        <v>192</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>48</v>
+        <v>604</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="25">
-        <v>41268</v>
-      </c>
+        <v>605</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="25"/>
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
       <c r="E120" s="7" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>61</v>
+        <v>606</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="25">
-        <v>41308</v>
-      </c>
+        <v>607</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="25"/>
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
@@ -4598,401 +4626,607 @@
         <v>74</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="25"/>
-      <c r="B122"/>
-      <c r="C122"/>
-      <c r="D122"/>
-      <c r="E122" s="7"/>
-      <c r="F122" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="G122" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3">
-        <f>MAX(A114:A122)</f>
-        <v>41520</v>
-      </c>
-      <c r="B123" t="s">
-        <v>17</v>
-      </c>
-      <c r="C123" t="s">
-        <v>18</v>
-      </c>
-      <c r="D123">
-        <v>683</v>
-      </c>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3">
+        <f>MAX(A112:A121)</f>
+        <v>41515</v>
+      </c>
+      <c r="B122" t="s">
+        <v>40</v>
+      </c>
+      <c r="C122" t="s">
+        <v>41</v>
+      </c>
+      <c r="D122">
+        <v>304</v>
+      </c>
+      <c r="E122" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="25">
+        <v>41222</v>
+      </c>
+      <c r="B123"/>
+      <c r="C123"/>
+      <c r="D123"/>
       <c r="E123" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="3">
-        <v>41067</v>
+        <v>452</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="G123" s="8" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="25">
+        <v>41273</v>
       </c>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
-      <c r="E124" t="s">
-        <v>43</v>
+      <c r="E124" s="7" t="s">
+        <v>452</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>185</v>
+        <v>631</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="25"/>
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
       <c r="E125" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="25"/>
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
       <c r="E126" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="F126" s="8" t="s">
-        <v>225</v>
+        <v>159</v>
       </c>
       <c r="G126" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="25"/>
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
       <c r="E127" t="s">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>226</v>
+        <v>161</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="25"/>
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
       <c r="E128" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="F128" s="8" t="s">
-        <v>227</v>
+        <v>163</v>
       </c>
       <c r="G128" s="8" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129"/>
-      <c r="C129"/>
-      <c r="D129"/>
-      <c r="E129" t="s">
-        <v>74</v>
-      </c>
-      <c r="F129" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="G129" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" s="8" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="3">
-        <f>MAX(A124:A129)</f>
-        <v>41067</v>
-      </c>
-      <c r="B130" t="s">
-        <v>183</v>
-      </c>
-      <c r="C130" t="s">
-        <v>184</v>
-      </c>
-      <c r="D130">
-        <v>473</v>
-      </c>
-      <c r="E130" s="7" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="26"/>
-      <c r="B131" s="27"/>
-      <c r="C131" s="27"/>
-      <c r="D131" s="27">
-        <f>SUM(D4:D130)</f>
-        <v>6147</v>
-      </c>
-      <c r="E131" s="28"/>
-      <c r="F131" s="29"/>
-      <c r="G131" s="29"/>
-      <c r="H131" s="29"/>
-    </row>
-    <row r="132" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="3"/>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="E133" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="F133" s="11" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3">
+        <v>40972</v>
+      </c>
+      <c r="B129" t="s">
+        <v>149</v>
+      </c>
+      <c r="C129" t="s">
+        <v>150</v>
+      </c>
+      <c r="D129">
+        <v>348</v>
+      </c>
+      <c r="E129"/>
+    </row>
+    <row r="130" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="31">
+        <v>41520</v>
+      </c>
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="F130" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="G130" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="H130" s="34"/>
+    </row>
+    <row r="131" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="25"/>
+      <c r="B131"/>
+      <c r="C131"/>
+      <c r="D131"/>
+      <c r="E131" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="25"/>
+      <c r="B132"/>
+      <c r="C132"/>
+      <c r="D132"/>
+      <c r="E132" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="25"/>
+      <c r="B133"/>
+      <c r="C133"/>
+      <c r="D133"/>
+      <c r="E133" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A134" s="25"/>
       <c r="B134"/>
       <c r="C134"/>
       <c r="D134"/>
-      <c r="E134" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F134" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
+      <c r="E134" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="25"/>
       <c r="B135"/>
       <c r="C135"/>
-      <c r="D135" t="s">
-        <v>232</v>
-      </c>
-      <c r="E135" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="F135" s="13" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
+      <c r="D135"/>
+      <c r="E135" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="25">
+        <v>41268</v>
+      </c>
       <c r="B136"/>
       <c r="C136"/>
       <c r="D136"/>
-      <c r="E136" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F136" s="13" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
+      <c r="E136" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G136" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A137" s="25">
+        <v>41308</v>
+      </c>
       <c r="B137"/>
       <c r="C137"/>
       <c r="D137"/>
-      <c r="E137" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F137" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
+      <c r="E137" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>612</v>
+      </c>
+      <c r="G137" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="25"/>
       <c r="B138"/>
       <c r="C138"/>
       <c r="D138"/>
-      <c r="E138" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F138" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="3"/>
-      <c r="B139"/>
-      <c r="C139"/>
-      <c r="D139"/>
-      <c r="E139" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F139" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G138" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="3">
+        <f>MAX(A130:A138)</f>
+        <v>41520</v>
+      </c>
+      <c r="B139" t="s">
+        <v>17</v>
+      </c>
+      <c r="C139" t="s">
+        <v>18</v>
+      </c>
+      <c r="D139">
+        <v>683</v>
+      </c>
+      <c r="E139" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3">
+        <v>41067</v>
+      </c>
       <c r="B140"/>
       <c r="C140"/>
       <c r="D140"/>
-      <c r="E140" s="7"/>
-    </row>
-    <row r="141" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>43</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="G140" s="8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141"/>
       <c r="C141"/>
       <c r="D141"/>
-      <c r="E141" s="7"/>
-    </row>
-    <row r="142" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>74</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A142" s="3"/>
       <c r="B142"/>
       <c r="C142"/>
       <c r="D142"/>
-      <c r="E142" s="7"/>
-    </row>
-    <row r="143" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>74</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3"/>
       <c r="B143"/>
       <c r="C143"/>
       <c r="D143"/>
-      <c r="E143" s="7"/>
-    </row>
-    <row r="144" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>192</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A144" s="3"/>
       <c r="B144"/>
       <c r="C144"/>
       <c r="D144"/>
-      <c r="E144" s="7"/>
-    </row>
-    <row r="145" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>43</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
       <c r="B145"/>
       <c r="C145"/>
       <c r="D145"/>
-      <c r="E145" s="7"/>
-    </row>
-    <row r="146" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146"/>
-      <c r="C146"/>
-      <c r="D146"/>
-      <c r="E146" s="7"/>
-    </row>
-    <row r="147" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147"/>
-      <c r="C147"/>
-      <c r="D147"/>
-      <c r="E147" s="7"/>
-    </row>
-    <row r="148" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>74</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" s="8" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="3">
+        <f>MAX(A140:A145)</f>
+        <v>41067</v>
+      </c>
+      <c r="B146" t="s">
+        <v>183</v>
+      </c>
+      <c r="C146" t="s">
+        <v>184</v>
+      </c>
+      <c r="D146">
+        <v>473</v>
+      </c>
+      <c r="E146" s="7" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="26"/>
+      <c r="B147" s="27"/>
+      <c r="C147" s="27"/>
+      <c r="D147" s="27">
+        <f>SUM(D4:D146)</f>
+        <v>6592</v>
+      </c>
+      <c r="E147" s="28"/>
+      <c r="F147" s="29"/>
+      <c r="G147" s="29"/>
+      <c r="H147" s="29"/>
+    </row>
+    <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
-      <c r="B148"/>
-      <c r="C148"/>
-      <c r="D148"/>
-      <c r="E148" s="7"/>
-    </row>
-    <row r="149" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="3"/>
-      <c r="B149"/>
-      <c r="C149"/>
-      <c r="D149"/>
-      <c r="E149" s="7"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E149" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="F149" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B150"/>
+      <c r="C150"/>
+      <c r="D150"/>
+      <c r="E150" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F150" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A151" s="3"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B151"/>
+      <c r="C151"/>
+      <c r="D151" t="s">
+        <v>232</v>
+      </c>
+      <c r="E151" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F151" s="13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B152"/>
+      <c r="C152"/>
+      <c r="D152"/>
+      <c r="E152" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F152" s="13" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B153"/>
+      <c r="C153"/>
+      <c r="D153"/>
+      <c r="E153" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F153" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="3"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B154"/>
+      <c r="C154"/>
+      <c r="D154"/>
+      <c r="E154" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F154" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B155"/>
+      <c r="C155"/>
+      <c r="D155"/>
+      <c r="E155" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F155" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A156" s="3"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B156"/>
+      <c r="C156"/>
+      <c r="D156"/>
+      <c r="E156" s="7"/>
+    </row>
+    <row r="157" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B157"/>
+      <c r="C157"/>
+      <c r="D157"/>
+      <c r="E157" s="7"/>
+    </row>
+    <row r="158" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B158"/>
+      <c r="C158"/>
+      <c r="D158"/>
+      <c r="E158" s="7"/>
+    </row>
+    <row r="159" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A159" s="3"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B159"/>
+      <c r="C159"/>
+      <c r="D159"/>
+      <c r="E159" s="7"/>
+    </row>
+    <row r="160" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B160"/>
+      <c r="C160"/>
+      <c r="D160"/>
+      <c r="E160" s="7"/>
+    </row>
+    <row r="161" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A161" s="3"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B161"/>
+      <c r="C161"/>
+      <c r="D161"/>
+      <c r="E161" s="7"/>
+    </row>
+    <row r="162" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B162"/>
+      <c r="C162"/>
+      <c r="D162"/>
+      <c r="E162" s="7"/>
+    </row>
+    <row r="163" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A163" s="3"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B163"/>
+      <c r="C163"/>
+      <c r="D163"/>
+      <c r="E163" s="7"/>
+    </row>
+    <row r="164" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B164"/>
+      <c r="C164"/>
+      <c r="D164"/>
+      <c r="E164" s="7"/>
+    </row>
+    <row r="165" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A165" s="3"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B165"/>
+      <c r="C165"/>
+      <c r="D165"/>
+      <c r="E165" s="7"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="3"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="3"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="3"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="3"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="3"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
@@ -5004,942 +5238,66 @@
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
     </row>
-    <row r="1879" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1879" s="16"/>
-      <c r="B1879" s="16"/>
-      <c r="C1879" s="16" t="s">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" s="3"/>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3"/>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3"/>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3"/>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" s="3"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3"/>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" s="3"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3"/>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3"/>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" s="3"/>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3"/>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" s="3"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3"/>
+    </row>
+    <row r="1895" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1895" s="16"/>
+      <c r="B1895" s="16"/>
+      <c r="C1895" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D1879" s="16"/>
-      <c r="G1879" s="16">
+      <c r="D1895" s="16"/>
+      <c r="G1895" s="16">
         <v>23942.73</v>
       </c>
-      <c r="H1879" s="16">
+      <c r="H1895" s="16">
         <v>736016.15</v>
-      </c>
-      <c r="I1879" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1879" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1879" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1879" s="16"/>
-      <c r="M1879" s="16">
-        <v>736016.15</v>
-      </c>
-      <c r="N1879" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="O1879" s="16"/>
-      <c r="P1879" s="16"/>
-      <c r="Q1879" s="16"/>
-      <c r="R1879" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="S1879" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1879" s="16"/>
-      <c r="U1879" s="16"/>
-      <c r="V1879" s="16"/>
-      <c r="W1879" s="16"/>
-      <c r="X1879" s="16"/>
-    </row>
-    <row r="1880" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1880" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1880" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1880" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1880" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1880" s="16">
-        <v>2342.17</v>
-      </c>
-      <c r="H1880" s="16">
-        <v>72000</v>
-      </c>
-      <c r="I1880" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1880" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1880" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1880" s="16"/>
-      <c r="M1880" s="16">
-        <v>72000</v>
-      </c>
-      <c r="N1880" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="O1880" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1880" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q1880" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="R1880" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="S1880" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1880" s="16"/>
-      <c r="U1880" s="16"/>
-      <c r="V1880" s="16"/>
-      <c r="W1880" s="16"/>
-      <c r="X1880" s="16"/>
-    </row>
-    <row r="1881" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1881" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1881" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1881" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="D1881" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E1881" s="22">
-        <v>736016.15</v>
-      </c>
-      <c r="F1881" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1881" s="16">
-        <v>23519.38</v>
-      </c>
-      <c r="H1881" s="16">
-        <v>723002.17</v>
-      </c>
-      <c r="I1881" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1881" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1881" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1881" s="16"/>
-      <c r="M1881" s="16">
-        <v>723002.17</v>
-      </c>
-      <c r="N1881" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="O1881" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="P1881" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q1881" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="R1881" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="S1881" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1881" s="16"/>
-      <c r="U1881" s="16"/>
-      <c r="V1881" s="16"/>
-      <c r="W1881" s="16"/>
-      <c r="X1881" s="16"/>
-    </row>
-    <row r="1882" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1882" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1882" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1882" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1882" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1882" s="22">
-        <v>72000</v>
-      </c>
-      <c r="F1882" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1882" s="16">
-        <v>161.66999999999999</v>
-      </c>
-      <c r="H1882" s="16">
-        <v>4970</v>
-      </c>
-      <c r="I1882" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1882" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1882" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1882" s="16"/>
-      <c r="M1882" s="16">
-        <v>4970</v>
-      </c>
-      <c r="N1882" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="O1882" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1882" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1882" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1882" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="S1882" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1882" s="16"/>
-      <c r="U1882" s="16"/>
-      <c r="V1882" s="16"/>
-      <c r="W1882" s="16"/>
-      <c r="X1882" s="16"/>
-    </row>
-    <row r="1883" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1883" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1883" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1883" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1883" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1883" s="22">
-        <v>723002.17</v>
-      </c>
-      <c r="F1883" s="16">
-        <v>16900.55</v>
-      </c>
-      <c r="G1883" s="16">
-        <v>300.43</v>
-      </c>
-      <c r="H1883" s="16">
-        <v>9235.48</v>
-      </c>
-      <c r="I1883" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1883" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1883" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1883" s="16"/>
-      <c r="M1883" s="16">
-        <v>9235.48</v>
-      </c>
-      <c r="N1883" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="O1883" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1883" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1883" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="R1883" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="S1883" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1883" s="16"/>
-      <c r="U1883" s="16"/>
-      <c r="V1883" s="16"/>
-      <c r="W1883" s="16"/>
-      <c r="X1883" s="16"/>
-    </row>
-    <row r="1884" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1884" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1884" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1884" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="D1884" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="E1884" s="22">
-        <v>4970</v>
-      </c>
-      <c r="F1884" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1884" s="16">
-        <v>388.74</v>
-      </c>
-      <c r="H1884" s="16">
-        <v>11950</v>
-      </c>
-      <c r="I1884" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1884" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1884" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1884" s="16"/>
-      <c r="M1884" s="16">
-        <v>11950</v>
-      </c>
-      <c r="N1884" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="O1884" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1884" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1884" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1884" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="S1884" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1884" s="16"/>
-      <c r="U1884" s="16"/>
-      <c r="V1884" s="16"/>
-      <c r="W1884" s="16"/>
-      <c r="X1884" s="16"/>
-    </row>
-    <row r="1885" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1885" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B1885" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1885" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="D1885" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="E1885" s="22">
-        <v>9235.48</v>
-      </c>
-      <c r="F1885" s="16">
-        <v>161.84</v>
-      </c>
-      <c r="G1885" s="16">
-        <v>450.44</v>
-      </c>
-      <c r="H1885" s="16">
-        <v>13846.96</v>
-      </c>
-      <c r="I1885" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1885" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1885" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1885" s="16"/>
-      <c r="M1885" s="16">
-        <v>13846.96</v>
-      </c>
-      <c r="N1885" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="O1885" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1885" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1885" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="R1885" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="S1885" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1885" s="16"/>
-      <c r="U1885" s="16"/>
-      <c r="V1885" s="16"/>
-      <c r="W1885" s="16"/>
-      <c r="X1885" s="16"/>
-    </row>
-    <row r="1886" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1886" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="B1886" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1886" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="D1886" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="E1886" s="22">
-        <v>11950</v>
-      </c>
-      <c r="F1886" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1886" s="16">
-        <v>1997.29</v>
-      </c>
-      <c r="H1886" s="16">
-        <v>61398</v>
-      </c>
-      <c r="I1886" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1886" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1886" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1886" s="16"/>
-      <c r="M1886" s="16">
-        <v>61398</v>
-      </c>
-      <c r="N1886" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="O1886" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1886" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1886" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1886" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="S1886" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1886" s="16"/>
-      <c r="U1886" s="16"/>
-      <c r="V1886" s="16"/>
-      <c r="W1886" s="16"/>
-      <c r="X1886" s="16"/>
-    </row>
-    <row r="1887" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1887" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B1887" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1887" s="16"/>
-      <c r="D1887" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E1887" s="22">
-        <v>13846.96</v>
-      </c>
-      <c r="F1887" s="16">
-        <v>323.68</v>
-      </c>
-      <c r="G1887" s="16"/>
-      <c r="H1887" s="16">
-        <v>0</v>
-      </c>
-      <c r="I1887" s="16">
-        <v>14000</v>
-      </c>
-      <c r="J1887" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1887" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1887" s="16"/>
-      <c r="M1887" s="16">
-        <v>14000</v>
-      </c>
-      <c r="N1887" s="16"/>
-      <c r="O1887" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1887" s="16"/>
-      <c r="Q1887" s="16"/>
-      <c r="R1887" s="16"/>
-      <c r="S1887" s="16"/>
-      <c r="T1887" s="16"/>
-      <c r="U1887" s="16"/>
-      <c r="V1887" s="16"/>
-      <c r="W1887" s="16"/>
-      <c r="X1887" s="16"/>
-    </row>
-    <row r="1888" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1888" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B1888" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1888" s="16"/>
-      <c r="D1888" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="E1888" s="22">
-        <v>61398</v>
-      </c>
-      <c r="F1888" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1888" s="16"/>
-      <c r="H1888" s="16">
-        <v>0</v>
-      </c>
-      <c r="I1888" s="16">
-        <v>7150</v>
-      </c>
-      <c r="J1888" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1888" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1888" s="16"/>
-      <c r="M1888" s="16">
-        <v>7150</v>
-      </c>
-      <c r="N1888" s="16"/>
-      <c r="O1888" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1888" s="16"/>
-      <c r="Q1888" s="16"/>
-      <c r="R1888" s="16"/>
-      <c r="S1888" s="16"/>
-      <c r="T1888" s="16"/>
-      <c r="U1888" s="16"/>
-      <c r="V1888" s="16"/>
-      <c r="W1888" s="16"/>
-      <c r="X1888" s="16"/>
-    </row>
-    <row r="1889" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1889" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1889" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="C1889" s="16"/>
-      <c r="D1889" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="E1889" s="22"/>
-      <c r="F1889" s="16"/>
-      <c r="G1889" s="16"/>
-      <c r="H1889" s="16">
-        <v>0</v>
-      </c>
-      <c r="I1889" s="16">
-        <v>1100</v>
-      </c>
-      <c r="J1889" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1889" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1889" s="16"/>
-      <c r="M1889" s="16">
-        <v>1100</v>
-      </c>
-      <c r="N1889" s="16"/>
-      <c r="O1889" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1889" s="16"/>
-      <c r="Q1889" s="16"/>
-      <c r="R1889" s="16"/>
-      <c r="S1889" s="16"/>
-      <c r="T1889" s="16"/>
-      <c r="U1889" s="16"/>
-      <c r="V1889" s="16"/>
-      <c r="W1889" s="16"/>
-      <c r="X1889" s="16"/>
-    </row>
-    <row r="1890" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1890" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="B1890" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1890" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="D1890" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E1890" s="22"/>
-      <c r="F1890" s="16"/>
-      <c r="G1890" s="16">
-        <v>136.63</v>
-      </c>
-      <c r="H1890" s="16">
-        <v>4200</v>
-      </c>
-      <c r="I1890" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1890" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1890" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1890" s="16"/>
-      <c r="M1890" s="16">
-        <v>4200</v>
-      </c>
-      <c r="N1890" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="O1890" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1890" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1890" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1890" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="S1890" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1890" s="16"/>
-      <c r="U1890" s="16"/>
-      <c r="V1890" s="16"/>
-      <c r="W1890" s="16"/>
-      <c r="X1890" s="16"/>
-    </row>
-    <row r="1891" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1891" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="B1891" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1891" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="D1891" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="E1891" s="22"/>
-      <c r="F1891" s="16"/>
-      <c r="G1891" s="16">
-        <v>650.6</v>
-      </c>
-      <c r="H1891" s="16">
-        <v>20000</v>
-      </c>
-      <c r="I1891" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1891" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1891" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1891" s="16"/>
-      <c r="M1891" s="16">
-        <v>20000</v>
-      </c>
-      <c r="N1891" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="O1891" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1891" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q1891" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="R1891" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="S1891" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1891" s="16"/>
-      <c r="U1891" s="16"/>
-      <c r="V1891" s="16"/>
-      <c r="W1891" s="16"/>
-      <c r="X1891" s="16"/>
-    </row>
-    <row r="1892" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1892" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="B1892" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1892" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1892" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="E1892" s="22">
-        <v>4200</v>
-      </c>
-      <c r="F1892" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1892" s="16">
-        <v>78.37</v>
-      </c>
-      <c r="H1892" s="16">
-        <v>2409</v>
-      </c>
-      <c r="I1892" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1892" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1892" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1892" s="16"/>
-      <c r="M1892" s="16">
-        <v>2409</v>
-      </c>
-      <c r="N1892" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="O1892" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1892" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1892" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1892" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="S1892" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1892" s="16"/>
-      <c r="U1892" s="16"/>
-      <c r="V1892" s="16"/>
-      <c r="W1892" s="16"/>
-      <c r="X1892" s="16"/>
-    </row>
-    <row r="1893" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1893" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="B1893" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1893" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="D1893" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="E1893" s="22">
-        <v>320000</v>
-      </c>
-      <c r="F1893" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1893" s="16">
-        <v>11758.05</v>
-      </c>
-      <c r="H1893" s="16">
-        <v>361450.61</v>
-      </c>
-      <c r="I1893" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1893" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1893" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1893" s="16"/>
-      <c r="M1893" s="16">
-        <v>361450.61</v>
-      </c>
-      <c r="N1893" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="O1893" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1893" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q1893" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="R1893" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="S1893" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1893" s="16"/>
-      <c r="U1893" s="16"/>
-      <c r="V1893" s="16"/>
-      <c r="W1893" s="16"/>
-      <c r="X1893" s="16"/>
-    </row>
-    <row r="1894" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1894" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="B1894" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1894" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="D1894" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1894" s="22">
-        <v>2409</v>
-      </c>
-      <c r="F1894" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1894" s="16">
-        <v>1073.5</v>
-      </c>
-      <c r="H1894" s="16">
-        <v>33000</v>
-      </c>
-      <c r="I1894" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1894" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1894" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1894" s="16"/>
-      <c r="M1894" s="16">
-        <v>33000</v>
-      </c>
-      <c r="N1894" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="O1894" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1894" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q1894" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="R1894" s="16"/>
-      <c r="S1894" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1894" s="16"/>
-      <c r="U1894" s="16"/>
-      <c r="V1894" s="16"/>
-      <c r="W1894" s="16"/>
-      <c r="X1894" s="16"/>
-    </row>
-    <row r="1895" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1895" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1895" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1895" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="D1895" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1895" s="22">
-        <v>361450.61</v>
-      </c>
-      <c r="F1895" s="16">
-        <v>8828.5</v>
-      </c>
-      <c r="G1895" s="16">
-        <v>267.5</v>
-      </c>
-      <c r="H1895" s="16">
-        <v>8223</v>
       </c>
       <c r="I1895" s="16">
         <v>0</v>
@@ -5952,22 +5310,16 @@
       </c>
       <c r="L1895" s="16"/>
       <c r="M1895" s="16">
-        <v>8223</v>
+        <v>736016.15</v>
       </c>
       <c r="N1895" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="O1895" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1895" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1895" s="16" t="s">
-        <v>329</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O1895" s="16"/>
+      <c r="P1895" s="16"/>
+      <c r="Q1895" s="16"/>
       <c r="R1895" s="16" t="s">
-        <v>394</v>
+        <v>306</v>
       </c>
       <c r="S1895" s="16" t="s">
         <v>304</v>
@@ -5980,28 +5332,22 @@
     </row>
     <row r="1896" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1896" s="16" t="s">
-        <v>396</v>
+        <v>308</v>
       </c>
       <c r="B1896" s="16" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="C1896" s="16" t="s">
-        <v>398</v>
+        <v>314</v>
       </c>
       <c r="D1896" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="E1896" s="22">
-        <v>477000</v>
-      </c>
-      <c r="F1896" s="16">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="G1896" s="16">
-        <v>406.63</v>
+        <v>2342.17</v>
       </c>
       <c r="H1896" s="16">
-        <v>12500</v>
+        <v>72000</v>
       </c>
       <c r="I1896" s="16">
         <v>0</v>
@@ -6014,22 +5360,22 @@
       </c>
       <c r="L1896" s="16"/>
       <c r="M1896" s="16">
-        <v>12500</v>
+        <v>72000</v>
       </c>
       <c r="N1896" s="16" t="s">
-        <v>400</v>
+        <v>316</v>
       </c>
       <c r="O1896" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P1896" s="16" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="Q1896" s="16" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="R1896" s="16" t="s">
-        <v>399</v>
+        <v>315</v>
       </c>
       <c r="S1896" s="16" t="s">
         <v>304</v>
@@ -6042,28 +5388,28 @@
     </row>
     <row r="1897" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1897" s="16" t="s">
-        <v>401</v>
+        <v>317</v>
       </c>
       <c r="B1897" s="16" t="s">
-        <v>356</v>
+        <v>309</v>
       </c>
       <c r="C1897" s="16" t="s">
-        <v>403</v>
+        <v>322</v>
       </c>
       <c r="D1897" s="16" t="s">
-        <v>402</v>
+        <v>318</v>
       </c>
       <c r="E1897" s="22">
-        <v>8223</v>
+        <v>736016.15</v>
       </c>
       <c r="F1897" s="16">
         <v>0</v>
       </c>
       <c r="G1897" s="16">
-        <v>3366.87</v>
+        <v>23519.38</v>
       </c>
       <c r="H1897" s="16">
-        <v>103500</v>
+        <v>723002.17</v>
       </c>
       <c r="I1897" s="16">
         <v>0</v>
@@ -6076,22 +5422,22 @@
       </c>
       <c r="L1897" s="16"/>
       <c r="M1897" s="16">
-        <v>103500</v>
+        <v>723002.17</v>
       </c>
       <c r="N1897" s="16" t="s">
-        <v>405</v>
+        <v>324</v>
       </c>
       <c r="O1897" s="16" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P1897" s="16" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q1897" s="16" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="R1897" s="16" t="s">
-        <v>404</v>
+        <v>323</v>
       </c>
       <c r="S1897" s="16" t="s">
         <v>304</v>
@@ -6104,28 +5450,28 @@
     </row>
     <row r="1898" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1898" s="16" t="s">
-        <v>406</v>
+        <v>325</v>
       </c>
       <c r="B1898" s="16" t="s">
-        <v>407</v>
+        <v>309</v>
       </c>
       <c r="C1898" s="16" t="s">
-        <v>409</v>
+        <v>330</v>
       </c>
       <c r="D1898" s="16" t="s">
-        <v>408</v>
+        <v>326</v>
       </c>
       <c r="E1898" s="22">
-        <v>12500</v>
+        <v>72000</v>
       </c>
       <c r="F1898" s="16">
         <v>0</v>
       </c>
       <c r="G1898" s="16">
-        <v>44.95</v>
+        <v>161.66999999999999</v>
       </c>
       <c r="H1898" s="16">
-        <v>1381.79</v>
+        <v>4970</v>
       </c>
       <c r="I1898" s="16">
         <v>0</v>
@@ -6138,22 +5484,22 @@
       </c>
       <c r="L1898" s="16"/>
       <c r="M1898" s="16">
-        <v>1381.79</v>
+        <v>4970</v>
       </c>
       <c r="N1898" s="16" t="s">
-        <v>411</v>
+        <v>332</v>
       </c>
       <c r="O1898" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1898" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1898" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1898" s="16" t="s">
-        <v>410</v>
+        <v>331</v>
       </c>
       <c r="S1898" s="16" t="s">
         <v>304</v>
@@ -6166,28 +5512,28 @@
     </row>
     <row r="1899" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1899" s="16" t="s">
-        <v>412</v>
+        <v>333</v>
       </c>
       <c r="B1899" s="16" t="s">
-        <v>407</v>
+        <v>309</v>
       </c>
       <c r="C1899" s="16" t="s">
-        <v>414</v>
+        <v>337</v>
       </c>
       <c r="D1899" s="16" t="s">
-        <v>413</v>
+        <v>334</v>
       </c>
       <c r="E1899" s="22">
-        <v>103500</v>
+        <v>723002.17</v>
       </c>
       <c r="F1899" s="16">
-        <v>0</v>
+        <v>16900.55</v>
       </c>
       <c r="G1899" s="16">
-        <v>45.54</v>
+        <v>300.43</v>
       </c>
       <c r="H1899" s="16">
-        <v>1400</v>
+        <v>9235.48</v>
       </c>
       <c r="I1899" s="16">
         <v>0</v>
@@ -6200,22 +5546,22 @@
       </c>
       <c r="L1899" s="16"/>
       <c r="M1899" s="16">
-        <v>1400</v>
+        <v>9235.48</v>
       </c>
       <c r="N1899" s="16" t="s">
-        <v>416</v>
+        <v>339</v>
       </c>
       <c r="O1899" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1899" s="16" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="Q1899" s="16" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="R1899" s="16" t="s">
-        <v>415</v>
+        <v>338</v>
       </c>
       <c r="S1899" s="16" t="s">
         <v>304</v>
@@ -6227,41 +5573,977 @@
       <c r="X1899" s="16"/>
     </row>
     <row r="1900" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1900" t="s">
+      <c r="A1900" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1900" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1900" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1900" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1900" s="22">
+        <v>4970</v>
+      </c>
+      <c r="F1900" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1900" s="16">
+        <v>388.74</v>
+      </c>
+      <c r="H1900" s="16">
+        <v>11950</v>
+      </c>
+      <c r="I1900" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1900" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1900" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1900" s="16"/>
+      <c r="M1900" s="16">
+        <v>11950</v>
+      </c>
+      <c r="N1900" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="O1900" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1900" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1900" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1900" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="S1900" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1900" s="16"/>
+      <c r="U1900" s="16"/>
+      <c r="V1900" s="16"/>
+      <c r="W1900" s="16"/>
+      <c r="X1900" s="16"/>
+    </row>
+    <row r="1901" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1901" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1901" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1901" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1901" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1901" s="22">
+        <v>9235.48</v>
+      </c>
+      <c r="F1901" s="16">
+        <v>161.84</v>
+      </c>
+      <c r="G1901" s="16">
+        <v>450.44</v>
+      </c>
+      <c r="H1901" s="16">
+        <v>13846.96</v>
+      </c>
+      <c r="I1901" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1901" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1901" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1901" s="16"/>
+      <c r="M1901" s="16">
+        <v>13846.96</v>
+      </c>
+      <c r="N1901" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="O1901" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1901" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1901" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1901" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="S1901" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1901" s="16"/>
+      <c r="U1901" s="16"/>
+      <c r="V1901" s="16"/>
+      <c r="W1901" s="16"/>
+      <c r="X1901" s="16"/>
+    </row>
+    <row r="1902" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1902" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1902" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1902" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1902" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1902" s="22">
+        <v>11950</v>
+      </c>
+      <c r="F1902" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1902" s="16">
+        <v>1997.29</v>
+      </c>
+      <c r="H1902" s="16">
+        <v>61398</v>
+      </c>
+      <c r="I1902" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1902" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1902" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1902" s="16"/>
+      <c r="M1902" s="16">
+        <v>61398</v>
+      </c>
+      <c r="N1902" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="O1902" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1902" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1902" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1902" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="S1902" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1902" s="16"/>
+      <c r="U1902" s="16"/>
+      <c r="V1902" s="16"/>
+      <c r="W1902" s="16"/>
+      <c r="X1902" s="16"/>
+    </row>
+    <row r="1903" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1903" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1903" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1903" s="16"/>
+      <c r="D1903" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1903" s="22">
+        <v>13846.96</v>
+      </c>
+      <c r="F1903" s="16">
+        <v>323.68</v>
+      </c>
+      <c r="G1903" s="16"/>
+      <c r="H1903" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1903" s="16">
+        <v>14000</v>
+      </c>
+      <c r="J1903" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1903" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1903" s="16"/>
+      <c r="M1903" s="16">
+        <v>14000</v>
+      </c>
+      <c r="N1903" s="16"/>
+      <c r="O1903" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1903" s="16"/>
+      <c r="Q1903" s="16"/>
+      <c r="R1903" s="16"/>
+      <c r="S1903" s="16"/>
+      <c r="T1903" s="16"/>
+      <c r="U1903" s="16"/>
+      <c r="V1903" s="16"/>
+      <c r="W1903" s="16"/>
+      <c r="X1903" s="16"/>
+    </row>
+    <row r="1904" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1904" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1904" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1904" s="16"/>
+      <c r="D1904" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1904" s="22">
+        <v>61398</v>
+      </c>
+      <c r="F1904" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1904" s="16"/>
+      <c r="H1904" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1904" s="16">
+        <v>7150</v>
+      </c>
+      <c r="J1904" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1904" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1904" s="16"/>
+      <c r="M1904" s="16">
+        <v>7150</v>
+      </c>
+      <c r="N1904" s="16"/>
+      <c r="O1904" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1904" s="16"/>
+      <c r="Q1904" s="16"/>
+      <c r="R1904" s="16"/>
+      <c r="S1904" s="16"/>
+      <c r="T1904" s="16"/>
+      <c r="U1904" s="16"/>
+      <c r="V1904" s="16"/>
+      <c r="W1904" s="16"/>
+      <c r="X1904" s="16"/>
+    </row>
+    <row r="1905" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1905" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1905" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1905" s="16"/>
+      <c r="D1905" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1905" s="22"/>
+      <c r="F1905" s="16"/>
+      <c r="G1905" s="16"/>
+      <c r="H1905" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1905" s="16">
+        <v>1100</v>
+      </c>
+      <c r="J1905" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1905" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1905" s="16"/>
+      <c r="M1905" s="16">
+        <v>1100</v>
+      </c>
+      <c r="N1905" s="16"/>
+      <c r="O1905" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1905" s="16"/>
+      <c r="Q1905" s="16"/>
+      <c r="R1905" s="16"/>
+      <c r="S1905" s="16"/>
+      <c r="T1905" s="16"/>
+      <c r="U1905" s="16"/>
+      <c r="V1905" s="16"/>
+      <c r="W1905" s="16"/>
+      <c r="X1905" s="16"/>
+    </row>
+    <row r="1906" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1906" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1906" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1906" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1906" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1906" s="22"/>
+      <c r="F1906" s="16"/>
+      <c r="G1906" s="16">
+        <v>136.63</v>
+      </c>
+      <c r="H1906" s="16">
+        <v>4200</v>
+      </c>
+      <c r="I1906" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1906" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1906" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1906" s="16"/>
+      <c r="M1906" s="16">
+        <v>4200</v>
+      </c>
+      <c r="N1906" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="O1906" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1906" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1906" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1906" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="S1906" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1906" s="16"/>
+      <c r="U1906" s="16"/>
+      <c r="V1906" s="16"/>
+      <c r="W1906" s="16"/>
+      <c r="X1906" s="16"/>
+    </row>
+    <row r="1907" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1907" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1907" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1907" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1907" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1907" s="22"/>
+      <c r="F1907" s="16"/>
+      <c r="G1907" s="16">
+        <v>650.6</v>
+      </c>
+      <c r="H1907" s="16">
+        <v>20000</v>
+      </c>
+      <c r="I1907" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1907" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1907" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1907" s="16"/>
+      <c r="M1907" s="16">
+        <v>20000</v>
+      </c>
+      <c r="N1907" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="O1907" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1907" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q1907" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="R1907" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="S1907" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1907" s="16"/>
+      <c r="U1907" s="16"/>
+      <c r="V1907" s="16"/>
+      <c r="W1907" s="16"/>
+      <c r="X1907" s="16"/>
+    </row>
+    <row r="1908" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1908" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1908" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1908" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1908" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1908" s="22">
+        <v>4200</v>
+      </c>
+      <c r="F1908" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1908" s="16">
+        <v>78.37</v>
+      </c>
+      <c r="H1908" s="16">
+        <v>2409</v>
+      </c>
+      <c r="I1908" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1908" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1908" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1908" s="16"/>
+      <c r="M1908" s="16">
+        <v>2409</v>
+      </c>
+      <c r="N1908" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="O1908" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1908" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1908" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1908" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="S1908" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1908" s="16"/>
+      <c r="U1908" s="16"/>
+      <c r="V1908" s="16"/>
+      <c r="W1908" s="16"/>
+      <c r="X1908" s="16"/>
+    </row>
+    <row r="1909" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1909" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1909" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1909" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1909" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1909" s="22">
+        <v>320000</v>
+      </c>
+      <c r="F1909" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1909" s="16">
+        <v>11758.05</v>
+      </c>
+      <c r="H1909" s="16">
+        <v>361450.61</v>
+      </c>
+      <c r="I1909" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1909" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1909" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1909" s="16"/>
+      <c r="M1909" s="16">
+        <v>361450.61</v>
+      </c>
+      <c r="N1909" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="O1909" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1909" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1909" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="R1909" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1909" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1909" s="16"/>
+      <c r="U1909" s="16"/>
+      <c r="V1909" s="16"/>
+      <c r="W1909" s="16"/>
+      <c r="X1909" s="16"/>
+    </row>
+    <row r="1910" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1910" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1910" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1910" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1910" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1910" s="22">
+        <v>2409</v>
+      </c>
+      <c r="F1910" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1910" s="16">
+        <v>1073.5</v>
+      </c>
+      <c r="H1910" s="16">
+        <v>33000</v>
+      </c>
+      <c r="I1910" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1910" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1910" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1910" s="16"/>
+      <c r="M1910" s="16">
+        <v>33000</v>
+      </c>
+      <c r="N1910" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="O1910" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1910" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1910" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="R1910" s="16"/>
+      <c r="S1910" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1910" s="16"/>
+      <c r="U1910" s="16"/>
+      <c r="V1910" s="16"/>
+      <c r="W1910" s="16"/>
+      <c r="X1910" s="16"/>
+    </row>
+    <row r="1911" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1911" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1911" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1911" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1911" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1911" s="22">
+        <v>361450.61</v>
+      </c>
+      <c r="F1911" s="16">
+        <v>8828.5</v>
+      </c>
+      <c r="G1911" s="16">
+        <v>267.5</v>
+      </c>
+      <c r="H1911" s="16">
+        <v>8223</v>
+      </c>
+      <c r="I1911" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1911" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1911" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1911" s="16"/>
+      <c r="M1911" s="16">
+        <v>8223</v>
+      </c>
+      <c r="N1911" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="O1911" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1911" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1911" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1911" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="S1911" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1911" s="16"/>
+      <c r="U1911" s="16"/>
+      <c r="V1911" s="16"/>
+      <c r="W1911" s="16"/>
+      <c r="X1911" s="16"/>
+    </row>
+    <row r="1912" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1912" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1912" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1912" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1912" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1912" s="22">
+        <v>477000</v>
+      </c>
+      <c r="F1912" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1912" s="16">
+        <v>406.63</v>
+      </c>
+      <c r="H1912" s="16">
+        <v>12500</v>
+      </c>
+      <c r="I1912" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1912" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1912" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1912" s="16"/>
+      <c r="M1912" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N1912" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="O1912" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1912" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1912" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1912" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="S1912" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1912" s="16"/>
+      <c r="U1912" s="16"/>
+      <c r="V1912" s="16"/>
+      <c r="W1912" s="16"/>
+      <c r="X1912" s="16"/>
+    </row>
+    <row r="1913" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1913" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1913" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1913" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1913" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1913" s="22">
+        <v>8223</v>
+      </c>
+      <c r="F1913" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1913" s="16">
+        <v>3366.87</v>
+      </c>
+      <c r="H1913" s="16">
+        <v>103500</v>
+      </c>
+      <c r="I1913" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1913" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1913" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1913" s="16"/>
+      <c r="M1913" s="16">
+        <v>103500</v>
+      </c>
+      <c r="N1913" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1913" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1913" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1913" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1913" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1913" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1913" s="16"/>
+      <c r="U1913" s="16"/>
+      <c r="V1913" s="16"/>
+      <c r="W1913" s="16"/>
+      <c r="X1913" s="16"/>
+    </row>
+    <row r="1914" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1914" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1914" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1914" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1914" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1914" s="22">
+        <v>12500</v>
+      </c>
+      <c r="F1914" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1914" s="16">
+        <v>44.95</v>
+      </c>
+      <c r="H1914" s="16">
+        <v>1381.79</v>
+      </c>
+      <c r="I1914" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1914" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1914" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1914" s="16"/>
+      <c r="M1914" s="16">
+        <v>1381.79</v>
+      </c>
+      <c r="N1914" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="O1914" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1914" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1914" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1914" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="S1914" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1914" s="16"/>
+      <c r="U1914" s="16"/>
+      <c r="V1914" s="16"/>
+      <c r="W1914" s="16"/>
+      <c r="X1914" s="16"/>
+    </row>
+    <row r="1915" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1915" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1915" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1915" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1915" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1915" s="22">
+        <v>103500</v>
+      </c>
+      <c r="F1915" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1915" s="16">
+        <v>45.54</v>
+      </c>
+      <c r="H1915" s="16">
+        <v>1400</v>
+      </c>
+      <c r="I1915" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1915" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1915" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1915" s="16"/>
+      <c r="M1915" s="16">
+        <v>1400</v>
+      </c>
+      <c r="N1915" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="O1915" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1915" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1915" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1915" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1915" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1915" s="16"/>
+      <c r="U1915" s="16"/>
+      <c r="V1915" s="16"/>
+      <c r="W1915" s="16"/>
+      <c r="X1915" s="16"/>
+    </row>
+    <row r="1916" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1916" t="s">
         <v>417</v>
       </c>
-      <c r="B1900" t="s">
+      <c r="B1916" t="s">
         <v>407</v>
       </c>
-      <c r="D1900" t="s">
+      <c r="D1916" t="s">
         <v>418</v>
       </c>
-      <c r="E1900" s="22">
+      <c r="E1916" s="22">
         <v>1381.76</v>
       </c>
-      <c r="F1900" s="16">
+      <c r="F1916" s="16">
         <v>33.200000000000003</v>
       </c>
-      <c r="O1900" t="s">
+      <c r="O1916" t="s">
         <v>327</v>
       </c>
-      <c r="P1900" t="s">
+      <c r="P1916" t="s">
         <v>328</v>
       </c>
-      <c r="Q1900" t="s">
+      <c r="Q1916" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="1901" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E1901" s="22">
+    <row r="1917" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E1917" s="22">
         <v>1400</v>
       </c>
-      <c r="F1901" s="16">
+      <c r="F1917" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:X95"/>
+  <autoFilter ref="A3:X111"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>

--- a/matchCodes/Match_Modules.xlsx
+++ b/matchCodes/Match_Modules.xlsx
@@ -19,15 +19,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Match!$A$1:$I$140</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">match2.0!$A$3:$X$137</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$111</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">match2.1!$A$1:$H$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$115</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">match2.1!$A$1:$H$159</definedName>
   </definedNames>
-  <calcPr calcId="152511" refMode="R1C1"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="643">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="651">
   <si>
     <t>дата</t>
   </si>
@@ -1984,6 +1984,30 @@
   </si>
   <si>
     <t>проверки консистентности базы</t>
+  </si>
+  <si>
+    <t>ADSKPartnerCenterPass</t>
+  </si>
+  <si>
+    <t>SN_PC_pass()</t>
+  </si>
+  <si>
+    <t>получение серийных номеров (SN) из PartnerCenter.Autodesk.com</t>
+  </si>
+  <si>
+    <t>SNread(F)</t>
+  </si>
+  <si>
+    <t>функция чтения файла серийных номеров из Output.CSV</t>
+  </si>
+  <si>
+    <t>SNupdate(FrF, ToF)</t>
+  </si>
+  <si>
+    <t>перенос порции данных из листа FrF в конец листа ToF (Append)</t>
+  </si>
+  <si>
+    <t>работа с License Inquiry PartnerCenter.Autodesk.com</t>
   </si>
 </sst>
 </file>
@@ -2604,10 +2628,10 @@
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X1917"/>
+  <dimension ref="A1:X1921"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2628,7 +2652,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1">
-        <v>41531</v>
+        <v>41550</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>478</v>
@@ -2684,41 +2708,41 @@
     </row>
     <row r="6" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25">
-        <v>41511</v>
+        <v>41510</v>
       </c>
       <c r="B6"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="7" t="s">
-        <v>623</v>
+      <c r="E6" s="23" t="s">
+        <v>452</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>424</v>
+        <v>644</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>425</v>
+        <v>645</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
-        <v>41137</v>
+        <v>41531</v>
       </c>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7" s="7" t="s">
-        <v>74</v>
+        <v>452</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>426</v>
+        <v>646</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>427</v>
+        <v>647</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
-        <v>41153</v>
+        <v>41531</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
@@ -2727,49 +2751,48 @@
         <v>74</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>428</v>
+        <v>648</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
-        <v>41153</v>
-      </c>
-      <c r="B9"/>
-      <c r="C9"/>
-      <c r="D9"/>
-      <c r="E9" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>465</v>
-      </c>
+        <v>649</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <f>MAX(A6:A8)</f>
+        <v>41531</v>
+      </c>
+      <c r="B9" t="s">
+        <v>643</v>
+      </c>
+      <c r="C9" t="s">
+        <v>650</v>
+      </c>
+      <c r="D9">
+        <v>358</v>
+      </c>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
-        <v>41497</v>
+        <v>41511</v>
       </c>
       <c r="B10"/>
       <c r="C10"/>
       <c r="D10"/>
       <c r="E10" s="7" t="s">
-        <v>74</v>
+        <v>623</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>561</v>
+        <v>424</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>562</v>
+        <v>425</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
-        <v>41497</v>
+        <v>41137</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
@@ -2778,15 +2801,15 @@
         <v>74</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
-        <v>41182</v>
+        <v>41153</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
@@ -2795,15 +2818,15 @@
         <v>74</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>563</v>
+        <v>428</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>564</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
-        <v>41182</v>
+        <v>41153</v>
       </c>
       <c r="B13"/>
       <c r="C13"/>
@@ -2812,150 +2835,151 @@
         <v>74</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>565</v>
+        <v>464</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>566</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
-        <v>41224</v>
+        <v>41497</v>
       </c>
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
       <c r="E14" s="7" t="s">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>462</v>
+        <v>561</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>463</v>
+        <v>562</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25">
-        <v>41183</v>
+        <v>41497</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15"/>
       <c r="E15" s="7" t="s">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="F15" s="17" t="s">
-        <v>567</v>
+        <v>430</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>568</v>
+        <v>431</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25">
-        <v>41510</v>
+        <v>41182</v>
       </c>
       <c r="B16"/>
       <c r="C16"/>
       <c r="D16"/>
-      <c r="E16" s="23" t="s">
-        <v>452</v>
+      <c r="E16" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="F16" s="17" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>614</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25">
-        <v>41531</v>
+        <v>41182</v>
       </c>
       <c r="B17"/>
       <c r="C17"/>
       <c r="D17"/>
       <c r="E17" s="7" t="s">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="F17" s="17" t="s">
-        <v>638</v>
+        <v>565</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>639</v>
+        <v>566</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25">
-        <v>41531</v>
+        <v>41224</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
       <c r="E18" s="7" t="s">
-        <v>74</v>
+        <v>452</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>640</v>
+        <v>462</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
-        <f>MAX(A6:A16)</f>
-        <v>41511</v>
-      </c>
-      <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" t="s">
-        <v>642</v>
-      </c>
-      <c r="D19">
-        <v>445</v>
-      </c>
-      <c r="E19" s="7"/>
+        <v>463</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>41183</v>
+      </c>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19"/>
+      <c r="E19" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="20" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
-        <v>41511</v>
+        <v>41510</v>
       </c>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
-      <c r="E20" s="7" t="s">
-        <v>623</v>
+      <c r="E20" s="23" t="s">
+        <v>452</v>
       </c>
       <c r="F20" s="17" t="s">
-        <v>424</v>
+        <v>613</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>425</v>
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25">
-        <v>41137</v>
+        <v>41531</v>
       </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
       <c r="E21" s="7" t="s">
-        <v>74</v>
+        <v>452</v>
       </c>
       <c r="F21" s="17" t="s">
-        <v>426</v>
+        <v>638</v>
       </c>
       <c r="G21" s="8" t="s">
-        <v>427</v>
+        <v>639</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25">
-        <v>41153</v>
+        <v>41531</v>
       </c>
       <c r="B22"/>
       <c r="C22"/>
@@ -2964,49 +2988,48 @@
         <v>74</v>
       </c>
       <c r="F22" s="17" t="s">
-        <v>428</v>
+        <v>640</v>
       </c>
       <c r="G22" s="8" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="25">
-        <v>41153</v>
-      </c>
-      <c r="B23"/>
-      <c r="C23"/>
-      <c r="D23"/>
-      <c r="E23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>464</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <f>MAX(A10:A20)</f>
+        <v>41511</v>
+      </c>
+      <c r="B23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>642</v>
+      </c>
+      <c r="D23">
+        <v>445</v>
+      </c>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25">
-        <v>41497</v>
+        <v>41511</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24" s="7" t="s">
-        <v>74</v>
+        <v>623</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>561</v>
+        <v>424</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25">
-        <v>41497</v>
+        <v>41137</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -3015,15 +3038,15 @@
         <v>74</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25">
-        <v>41182</v>
+        <v>41153</v>
       </c>
       <c r="B26"/>
       <c r="C26"/>
@@ -3032,15 +3055,15 @@
         <v>74</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>563</v>
+        <v>428</v>
       </c>
       <c r="G26" s="8" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25">
-        <v>41182</v>
+        <v>41153</v>
       </c>
       <c r="B27"/>
       <c r="C27"/>
@@ -3049,180 +3072,180 @@
         <v>74</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>565</v>
+        <v>464</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25">
-        <v>41224</v>
+        <v>41497</v>
       </c>
       <c r="B28"/>
       <c r="C28"/>
       <c r="D28"/>
       <c r="E28" s="7" t="s">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>462</v>
+        <v>561</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25">
-        <v>41183</v>
+        <v>41497</v>
       </c>
       <c r="B29"/>
       <c r="C29"/>
       <c r="D29"/>
       <c r="E29" s="7" t="s">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>567</v>
+        <v>430</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25">
-        <v>41510</v>
+        <v>41182</v>
       </c>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
-      <c r="E30" s="23" t="s">
-        <v>452</v>
+      <c r="E30" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>613</v>
+        <v>563</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="25"/>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <v>41182</v>
+      </c>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31" s="7" t="s">
-        <v>452</v>
+        <v>74</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>638</v>
+        <v>565</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="25"/>
+        <v>566</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="25">
+        <v>41224</v>
+      </c>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32" s="7" t="s">
-        <v>74</v>
+        <v>452</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>640</v>
+        <v>462</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3">
-        <f>MAX(A20:A30)</f>
-        <v>41511</v>
-      </c>
-      <c r="B33" t="s">
-        <v>422</v>
-      </c>
-      <c r="C33" t="s">
-        <v>423</v>
-      </c>
-      <c r="D33">
-        <v>445</v>
-      </c>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="25">
+        <v>41183</v>
+      </c>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="G33" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25">
-        <v>41395</v>
+        <v>41510</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34"/>
-      <c r="E34" s="7" t="s">
-        <v>74</v>
+      <c r="E34" s="23" t="s">
+        <v>452</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>571</v>
+        <v>613</v>
       </c>
       <c r="G34" s="8" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="34" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="31">
-        <v>41520</v>
-      </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>635</v>
-      </c>
-      <c r="G35" s="34" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="34" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="31">
-        <v>41520</v>
-      </c>
-      <c r="B36" s="32"/>
-      <c r="C36" s="32"/>
-      <c r="D36" s="32"/>
-      <c r="E36" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F36" s="35" t="s">
-        <v>636</v>
-      </c>
-      <c r="G36" s="34" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25">
-        <v>41510</v>
-      </c>
-      <c r="B37"/>
-      <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37" s="7" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="25"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="F37" s="17" t="s">
-        <v>615</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="25"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F36" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <f>MAX(A24:A34)</f>
+        <v>41511</v>
+      </c>
+      <c r="B37" t="s">
+        <v>422</v>
+      </c>
+      <c r="C37" t="s">
+        <v>423</v>
+      </c>
+      <c r="D37">
+        <v>445</v>
+      </c>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25">
-        <v>41497</v>
+        <v>41395</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
@@ -3231,149 +3254,151 @@
         <v>74</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="G38" s="8" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="40" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="36">
-        <v>41279</v>
-      </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="38" t="s">
-        <v>74</v>
-      </c>
-      <c r="F39" s="39" t="s">
-        <v>576</v>
-      </c>
-      <c r="G39" s="40" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="25">
-        <v>41278</v>
-      </c>
-      <c r="B40"/>
-      <c r="C40"/>
-      <c r="D40"/>
-      <c r="E40" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>578</v>
-      </c>
-      <c r="G40" s="8" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" s="34" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="31">
+        <v>41520</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="32"/>
+      <c r="D39" s="32"/>
+      <c r="E39" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" s="35" t="s">
+        <v>635</v>
+      </c>
+      <c r="G39" s="34" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" s="34" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="31">
+        <v>41520</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="32"/>
+      <c r="D40" s="32"/>
+      <c r="E40" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" s="35" t="s">
+        <v>636</v>
+      </c>
+      <c r="G40" s="34" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25">
-        <v>41228</v>
+        <v>41510</v>
       </c>
       <c r="B41"/>
       <c r="C41"/>
       <c r="D41"/>
       <c r="E41" s="7" t="s">
-        <v>74</v>
+        <v>452</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>580</v>
+        <v>615</v>
       </c>
       <c r="G41" s="8" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" s="34" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="31">
-        <v>41520</v>
-      </c>
-      <c r="B42" s="32"/>
-      <c r="C42" s="32"/>
-      <c r="D42" s="32"/>
-      <c r="E42" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>470</v>
-      </c>
-      <c r="G42" s="34" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" s="8" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="25">
-        <v>41260</v>
-      </c>
-      <c r="B43"/>
-      <c r="C43"/>
-      <c r="D43"/>
-      <c r="E43" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>582</v>
-      </c>
-      <c r="G43" s="8" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="3">
-        <f>MAX(A34:A43)</f>
-        <v>41520</v>
-      </c>
-      <c r="B44" t="s">
-        <v>569</v>
-      </c>
-      <c r="C44" t="s">
-        <v>570</v>
-      </c>
-      <c r="D44">
-        <v>1061</v>
-      </c>
-      <c r="E44" s="7"/>
+        <v>616</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="25">
+        <v>41497</v>
+      </c>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F42" s="17" t="s">
+        <v>574</v>
+      </c>
+      <c r="G42" s="8" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" s="40" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="36">
+        <v>41279</v>
+      </c>
+      <c r="B43" s="37"/>
+      <c r="C43" s="37"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F43" s="39" t="s">
+        <v>576</v>
+      </c>
+      <c r="G43" s="40" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="25">
+        <v>41278</v>
+      </c>
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F44" s="17" t="s">
+        <v>578</v>
+      </c>
+      <c r="G44" s="8" t="s">
+        <v>579</v>
+      </c>
     </row>
     <row r="45" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25">
-        <v>41504</v>
-      </c>
-      <c r="B45" s="30"/>
+        <v>41228</v>
+      </c>
+      <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
       <c r="E45" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F45" s="8" t="s">
-        <v>433</v>
+      <c r="F45" s="17" t="s">
+        <v>580</v>
       </c>
       <c r="G45" s="8" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="25">
-        <v>41130</v>
-      </c>
-      <c r="C46"/>
-      <c r="D46"/>
-      <c r="E46" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F46" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="G46" s="8" t="s">
-        <v>448</v>
+        <v>581</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" s="34" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="31">
+        <v>41520</v>
+      </c>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F46" s="35" t="s">
+        <v>470</v>
+      </c>
+      <c r="G46" s="34" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="47" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25">
-        <v>41469</v>
+        <v>41260</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -3382,48 +3407,48 @@
         <v>74</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>487</v>
+        <v>582</v>
       </c>
       <c r="G47" s="8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25">
-        <v>41116</v>
-      </c>
-      <c r="B48"/>
-      <c r="C48"/>
-      <c r="D48"/>
-      <c r="E48" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>450</v>
-      </c>
-      <c r="G48" s="8" t="s">
-        <v>451</v>
-      </c>
+        <v>583</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3">
+        <f>MAX(A38:A47)</f>
+        <v>41520</v>
+      </c>
+      <c r="B48" t="s">
+        <v>569</v>
+      </c>
+      <c r="C48" t="s">
+        <v>570</v>
+      </c>
+      <c r="D48">
+        <v>1061</v>
+      </c>
+      <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25">
         <v>41504</v>
       </c>
+      <c r="B49" s="30"/>
       <c r="C49"/>
       <c r="D49"/>
       <c r="E49" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>626</v>
+        <v>433</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>486</v>
+        <v>446</v>
       </c>
     </row>
     <row r="50" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25">
-        <v>41511</v>
+        <v>41130</v>
       </c>
       <c r="C50"/>
       <c r="D50"/>
@@ -3431,272 +3456,270 @@
         <v>74</v>
       </c>
       <c r="F50" s="8" t="s">
-        <v>488</v>
+        <v>447</v>
       </c>
       <c r="G50" s="8" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="3">
-        <f>MAX(A45:A50)</f>
-        <v>41511</v>
-      </c>
-      <c r="B51" t="s">
-        <v>624</v>
-      </c>
-      <c r="C51" t="s">
-        <v>625</v>
-      </c>
-      <c r="D51">
-        <v>342</v>
-      </c>
-      <c r="E51"/>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="25">
+        <v>41469</v>
+      </c>
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F51" s="17" t="s">
+        <v>487</v>
+      </c>
+      <c r="G51" s="8" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="52" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A52" s="25">
-        <v>41162</v>
+        <v>41116</v>
       </c>
       <c r="B52"/>
       <c r="C52"/>
       <c r="D52"/>
       <c r="E52" s="7" t="s">
-        <v>301</v>
+        <v>74</v>
       </c>
       <c r="F52" s="17" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="G52" s="8" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="53" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25">
-        <v>41062</v>
-      </c>
-      <c r="B53"/>
+        <v>41504</v>
+      </c>
       <c r="C53"/>
       <c r="D53"/>
       <c r="E53" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>420</v>
+        <v>74</v>
+      </c>
+      <c r="F53" s="8" t="s">
+        <v>626</v>
       </c>
       <c r="G53" s="8" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="3">
-        <f>MAX(A52:A53)</f>
-        <v>41162</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="C54" t="s">
-        <v>445</v>
-      </c>
-      <c r="D54">
-        <v>99</v>
-      </c>
-      <c r="E54" s="7"/>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="25">
+        <v>41511</v>
+      </c>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54" s="7" t="s">
+        <v>74</v>
+      </c>
       <c r="F54" s="8" t="s">
-        <v>444</v>
+        <v>488</v>
       </c>
       <c r="G54" s="8" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="25">
-        <v>41302</v>
-      </c>
-      <c r="B55"/>
-      <c r="C55"/>
-      <c r="D55"/>
-      <c r="E55" s="7" t="s">
-        <v>452</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>489</v>
-      </c>
-      <c r="G55" s="8" t="s">
-        <v>490</v>
-      </c>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3">
+        <f>MAX(A49:A54)</f>
+        <v>41511</v>
+      </c>
+      <c r="B55" t="s">
+        <v>624</v>
+      </c>
+      <c r="C55" t="s">
+        <v>625</v>
+      </c>
+      <c r="D55">
+        <v>342</v>
+      </c>
+      <c r="E55"/>
     </row>
     <row r="56" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25">
-        <v>41286</v>
-      </c>
+        <v>41162</v>
+      </c>
+      <c r="B56"/>
       <c r="C56"/>
       <c r="D56"/>
       <c r="E56" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="F56" s="8" t="s">
-        <v>491</v>
+        <v>301</v>
+      </c>
+      <c r="F56" s="17" t="s">
+        <v>419</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>492</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25">
-        <v>41302</v>
-      </c>
+        <v>41062</v>
+      </c>
+      <c r="B57"/>
       <c r="C57"/>
       <c r="D57"/>
       <c r="E57" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F57" s="8" t="s">
-        <v>493</v>
+        <v>301</v>
+      </c>
+      <c r="F57" s="17" t="s">
+        <v>420</v>
       </c>
       <c r="G57" s="8" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="25">
-        <v>41071</v>
-      </c>
-      <c r="B58"/>
-      <c r="C58"/>
-      <c r="D58"/>
-      <c r="E58" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>455</v>
+        <v>421</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3">
+        <f>MAX(A56:A57)</f>
+        <v>41162</v>
+      </c>
+      <c r="B58" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="C58" t="s">
+        <v>445</v>
+      </c>
+      <c r="D58">
+        <v>99</v>
+      </c>
+      <c r="E58" s="7"/>
+      <c r="F58" s="8" t="s">
+        <v>444</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
     </row>
     <row r="59" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A59" s="25">
-        <v>41060</v>
+        <v>41302</v>
       </c>
       <c r="B59"/>
       <c r="C59"/>
       <c r="D59"/>
       <c r="E59" s="7" t="s">
-        <v>74</v>
+        <v>452</v>
       </c>
       <c r="F59" s="17" t="s">
-        <v>459</v>
+        <v>489</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>460</v>
+        <v>490</v>
       </c>
     </row>
     <row r="60" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A60" s="25">
-        <v>41472</v>
-      </c>
-      <c r="B60"/>
+        <v>41286</v>
+      </c>
       <c r="C60"/>
       <c r="D60"/>
       <c r="E60" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>83</v>
+        <v>231</v>
+      </c>
+      <c r="F60" s="8" t="s">
+        <v>491</v>
       </c>
       <c r="G60" s="8" t="s">
-        <v>84</v>
+        <v>492</v>
       </c>
     </row>
     <row r="61" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A61" s="25">
-        <v>40958</v>
-      </c>
-      <c r="B61"/>
+        <v>41302</v>
+      </c>
       <c r="C61"/>
       <c r="D61"/>
       <c r="E61" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>461</v>
+        <v>74</v>
+      </c>
+      <c r="F61" s="8" t="s">
+        <v>493</v>
       </c>
       <c r="G61" s="8" t="s">
-        <v>86</v>
+        <v>494</v>
       </c>
     </row>
     <row r="62" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A62" s="25">
-        <v>41511</v>
+        <v>41071</v>
       </c>
       <c r="B62"/>
       <c r="C62"/>
       <c r="D62"/>
-      <c r="E62" s="23" t="s">
+      <c r="E62" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F62" s="17" t="s">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>497</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A63" s="25">
-        <v>40935</v>
+        <v>41060</v>
       </c>
       <c r="B63"/>
       <c r="C63"/>
       <c r="D63"/>
-      <c r="E63" s="23" t="s">
-        <v>498</v>
+      <c r="E63" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="F63" s="17" t="s">
-        <v>499</v>
+        <v>459</v>
       </c>
       <c r="G63" s="8" t="s">
-        <v>500</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A64" s="25">
-        <v>40934</v>
+        <v>41472</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64"/>
-      <c r="E64" s="23" t="s">
+      <c r="E64" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F64" s="17" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="G64" s="8" t="s">
-        <v>501</v>
+        <v>84</v>
       </c>
     </row>
     <row r="65" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A65" s="25">
-        <v>40928</v>
+        <v>40958</v>
       </c>
       <c r="B65"/>
       <c r="C65"/>
       <c r="D65"/>
-      <c r="E65" s="23" t="s">
-        <v>502</v>
+      <c r="E65" s="7" t="s">
+        <v>43</v>
       </c>
       <c r="F65" s="17" t="s">
-        <v>95</v>
+        <v>461</v>
       </c>
       <c r="G65" s="8" t="s">
-        <v>503</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A66" s="25">
-        <v>41156</v>
+        <v>41511</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
@@ -3705,32 +3728,32 @@
         <v>74</v>
       </c>
       <c r="F66" s="17" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="G66" s="8" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
     </row>
     <row r="67" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A67" s="25">
-        <v>41171</v>
+        <v>40935</v>
       </c>
       <c r="B67"/>
       <c r="C67"/>
       <c r="D67"/>
       <c r="E67" s="23" t="s">
-        <v>74</v>
+        <v>498</v>
       </c>
       <c r="F67" s="17" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="G67" s="8" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A68" s="25">
-        <v>41267</v>
+        <v>40934</v>
       </c>
       <c r="B68"/>
       <c r="C68"/>
@@ -3739,49 +3762,49 @@
         <v>74</v>
       </c>
       <c r="F68" s="17" t="s">
-        <v>508</v>
+        <v>94</v>
       </c>
       <c r="G68" s="8" t="s">
-        <v>110</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A69" s="25">
-        <v>41267</v>
+        <v>40928</v>
       </c>
       <c r="B69"/>
       <c r="C69"/>
       <c r="D69"/>
       <c r="E69" s="23" t="s">
-        <v>74</v>
+        <v>502</v>
       </c>
       <c r="F69" s="17" t="s">
-        <v>509</v>
+        <v>95</v>
       </c>
       <c r="G69" s="8" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="70" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A70" s="25">
-        <v>41267</v>
+        <v>41156</v>
       </c>
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70" s="23" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="F70" s="17" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
     </row>
     <row r="71" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A71" s="25">
-        <v>40953</v>
+        <v>41171</v>
       </c>
       <c r="B71"/>
       <c r="C71"/>
@@ -3790,15 +3813,15 @@
         <v>74</v>
       </c>
       <c r="F71" s="17" t="s">
-        <v>98</v>
+        <v>506</v>
       </c>
       <c r="G71" s="8" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A72" s="25">
-        <v>41141</v>
+        <v>41267</v>
       </c>
       <c r="B72"/>
       <c r="C72"/>
@@ -3807,15 +3830,15 @@
         <v>74</v>
       </c>
       <c r="F72" s="17" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G72" s="8" t="s">
-        <v>515</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A73" s="25">
-        <v>41146</v>
+        <v>41267</v>
       </c>
       <c r="B73"/>
       <c r="C73"/>
@@ -3824,15 +3847,15 @@
         <v>74</v>
       </c>
       <c r="F73" s="17" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="G73" s="8" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
     </row>
     <row r="74" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A74" s="25">
-        <v>41098</v>
+        <v>41267</v>
       </c>
       <c r="B74"/>
       <c r="C74"/>
@@ -3841,15 +3864,15 @@
         <v>231</v>
       </c>
       <c r="F74" s="17" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="G74" s="8" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
     </row>
     <row r="75" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A75" s="25">
-        <v>41098</v>
+        <v>40953</v>
       </c>
       <c r="B75"/>
       <c r="C75"/>
@@ -3858,15 +3881,15 @@
         <v>74</v>
       </c>
       <c r="F75" s="17" t="s">
-        <v>518</v>
+        <v>98</v>
       </c>
       <c r="G75" s="8" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
     </row>
     <row r="76" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A76" s="25">
-        <v>41248</v>
+        <v>41141</v>
       </c>
       <c r="B76"/>
       <c r="C76"/>
@@ -3875,15 +3898,15 @@
         <v>74</v>
       </c>
       <c r="F76" s="17" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="G76" s="8" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
     </row>
     <row r="77" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A77" s="25">
-        <v>41504</v>
+        <v>41146</v>
       </c>
       <c r="B77"/>
       <c r="C77"/>
@@ -3892,32 +3915,32 @@
         <v>74</v>
       </c>
       <c r="F77" s="17" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="G77" s="8" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A78" s="25">
-        <v>41072</v>
+        <v>41098</v>
       </c>
       <c r="B78"/>
       <c r="C78"/>
       <c r="D78"/>
       <c r="E78" s="23" t="s">
-        <v>502</v>
+        <v>231</v>
       </c>
       <c r="F78" s="17" t="s">
-        <v>187</v>
+        <v>520</v>
       </c>
       <c r="G78" s="8" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A79" s="25">
-        <v>41018</v>
+        <v>41098</v>
       </c>
       <c r="B79"/>
       <c r="C79"/>
@@ -3926,15 +3949,15 @@
         <v>74</v>
       </c>
       <c r="F79" s="17" t="s">
-        <v>100</v>
+        <v>518</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="80" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A80" s="25">
-        <v>41018</v>
+        <v>41248</v>
       </c>
       <c r="B80"/>
       <c r="C80"/>
@@ -3943,15 +3966,15 @@
         <v>74</v>
       </c>
       <c r="F80" s="17" t="s">
-        <v>174</v>
+        <v>522</v>
       </c>
       <c r="G80" s="8" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
     </row>
     <row r="81" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A81" s="25">
-        <v>41236</v>
+        <v>41504</v>
       </c>
       <c r="B81"/>
       <c r="C81"/>
@@ -3960,32 +3983,32 @@
         <v>74</v>
       </c>
       <c r="F81" s="17" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G81" s="8" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
     </row>
     <row r="82" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A82" s="25">
-        <v>41511</v>
+        <v>41072</v>
       </c>
       <c r="B82"/>
       <c r="C82"/>
       <c r="D82"/>
       <c r="E82" s="23" t="s">
-        <v>74</v>
+        <v>502</v>
       </c>
       <c r="F82" s="17" t="s">
-        <v>531</v>
+        <v>187</v>
       </c>
       <c r="G82" s="8" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A83" s="25">
-        <v>41511</v>
+        <v>41018</v>
       </c>
       <c r="B83"/>
       <c r="C83"/>
@@ -3994,32 +4017,32 @@
         <v>74</v>
       </c>
       <c r="F83" s="17" t="s">
-        <v>533</v>
+        <v>100</v>
       </c>
       <c r="G83" s="8" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A84" s="25">
-        <v>40943</v>
+        <v>41018</v>
       </c>
       <c r="B84"/>
       <c r="C84"/>
       <c r="D84"/>
       <c r="E84" s="23" t="s">
-        <v>535</v>
+        <v>74</v>
       </c>
       <c r="F84" s="17" t="s">
-        <v>536</v>
+        <v>174</v>
       </c>
       <c r="G84" s="8" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A85" s="25">
-        <v>41152</v>
+        <v>41236</v>
       </c>
       <c r="B85"/>
       <c r="C85"/>
@@ -4028,14 +4051,16 @@
         <v>74</v>
       </c>
       <c r="F85" s="17" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G85" s="8" t="s">
-        <v>104</v>
+        <v>530</v>
       </c>
     </row>
     <row r="86" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="25"/>
+      <c r="A86" s="25">
+        <v>41511</v>
+      </c>
       <c r="B86"/>
       <c r="C86"/>
       <c r="D86"/>
@@ -4043,15 +4068,15 @@
         <v>74</v>
       </c>
       <c r="F86" s="17" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="G86" s="8" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="87" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A87" s="25">
-        <v>41018</v>
+        <v>41511</v>
       </c>
       <c r="B87"/>
       <c r="C87"/>
@@ -4060,50 +4085,48 @@
         <v>74</v>
       </c>
       <c r="F87" s="17" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="G87" s="8" t="s">
-        <v>195</v>
+        <v>534</v>
       </c>
     </row>
     <row r="88" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A88" s="25">
-        <v>41067</v>
+        <v>40943</v>
       </c>
       <c r="B88"/>
       <c r="C88"/>
       <c r="D88"/>
       <c r="E88" s="23" t="s">
-        <v>74</v>
+        <v>535</v>
       </c>
       <c r="F88" s="17" t="s">
-        <v>196</v>
+        <v>536</v>
       </c>
       <c r="G88" s="8" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A89" s="25">
-        <v>41053</v>
+        <v>41152</v>
       </c>
       <c r="B89"/>
       <c r="C89"/>
       <c r="D89"/>
       <c r="E89" s="23" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="F89" s="17" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="G89" s="8" t="s">
-        <v>544</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="25">
-        <v>41053</v>
-      </c>
+      <c r="A90" s="25"/>
       <c r="B90"/>
       <c r="C90"/>
       <c r="D90"/>
@@ -4111,66 +4134,66 @@
         <v>74</v>
       </c>
       <c r="F90" s="17" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="G90" s="8" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A91" s="25">
-        <v>41036</v>
+        <v>41018</v>
       </c>
       <c r="B91"/>
       <c r="C91"/>
       <c r="D91"/>
       <c r="E91" s="23" t="s">
-        <v>231</v>
+        <v>74</v>
       </c>
       <c r="F91" s="17" t="s">
-        <v>242</v>
+        <v>541</v>
       </c>
       <c r="G91" s="8" t="s">
-        <v>547</v>
+        <v>195</v>
       </c>
     </row>
     <row r="92" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A92" s="25">
-        <v>41053</v>
+        <v>41067</v>
       </c>
       <c r="B92"/>
       <c r="C92"/>
       <c r="D92"/>
       <c r="E92" s="23" t="s">
-        <v>549</v>
+        <v>74</v>
       </c>
       <c r="F92" s="17" t="s">
-        <v>548</v>
+        <v>196</v>
       </c>
       <c r="G92" s="8" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
     </row>
     <row r="93" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A93" s="25">
-        <v>41036</v>
+        <v>41053</v>
       </c>
       <c r="B93"/>
       <c r="C93"/>
       <c r="D93"/>
       <c r="E93" s="23" t="s">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="F93" s="17" t="s">
-        <v>240</v>
+        <v>543</v>
       </c>
       <c r="G93" s="8" t="s">
-        <v>245</v>
+        <v>544</v>
       </c>
     </row>
     <row r="94" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A94" s="25">
-        <v>41221</v>
+        <v>41053</v>
       </c>
       <c r="B94"/>
       <c r="C94"/>
@@ -4179,14 +4202,16 @@
         <v>74</v>
       </c>
       <c r="F94" s="17" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G94" s="8" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
     </row>
     <row r="95" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="25"/>
+      <c r="A95" s="25">
+        <v>41036</v>
+      </c>
       <c r="B95"/>
       <c r="C95"/>
       <c r="D95"/>
@@ -4194,169 +4219,168 @@
         <v>231</v>
       </c>
       <c r="F95" s="17" t="s">
-        <v>553</v>
+        <v>242</v>
       </c>
       <c r="G95" s="8" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="96" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A96" s="25">
-        <v>41272</v>
+        <v>41053</v>
       </c>
       <c r="B96"/>
       <c r="C96"/>
       <c r="D96"/>
       <c r="E96" s="23" t="s">
-        <v>74</v>
+        <v>549</v>
       </c>
       <c r="F96" s="17" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="G96" s="8" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3">
-        <f>MAX(A45:A96)</f>
-        <v>41511</v>
-      </c>
-      <c r="B97" t="s">
-        <v>6</v>
-      </c>
-      <c r="C97" t="s">
-        <v>303</v>
-      </c>
-      <c r="D97">
-        <v>981</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="F97" s="17"/>
-      <c r="G97" s="24"/>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="25">
+        <v>41036</v>
+      </c>
+      <c r="B97"/>
+      <c r="C97"/>
+      <c r="D97"/>
+      <c r="E97" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F97" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="98" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A98" s="25">
-        <v>41510</v>
+        <v>41221</v>
       </c>
       <c r="B98"/>
       <c r="C98"/>
       <c r="D98"/>
-      <c r="E98" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="F98" s="8" t="s">
-        <v>559</v>
+      <c r="E98" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F98" s="17" t="s">
+        <v>551</v>
       </c>
       <c r="G98" s="8" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
     </row>
     <row r="99" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="25">
-        <v>41165</v>
-      </c>
+      <c r="A99" s="25"/>
       <c r="B99"/>
       <c r="C99"/>
       <c r="D99"/>
-      <c r="E99" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="F99" s="8" t="s">
-        <v>584</v>
+      <c r="E99" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="F99" s="17" t="s">
+        <v>553</v>
       </c>
       <c r="G99" s="8" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="3">
-        <f>MAX(A98:A99)</f>
-        <v>41510</v>
-      </c>
-      <c r="B100" t="s">
-        <v>419</v>
-      </c>
-      <c r="C100" t="s">
-        <v>557</v>
-      </c>
-      <c r="D100">
-        <v>282</v>
-      </c>
-      <c r="E100" s="7"/>
-    </row>
-    <row r="101" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="25">
-        <v>41509</v>
-      </c>
-      <c r="B101"/>
-      <c r="C101"/>
-      <c r="D101"/>
+        <v>554</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="25">
+        <v>41272</v>
+      </c>
+      <c r="B100"/>
+      <c r="C100"/>
+      <c r="D100"/>
+      <c r="E100" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F100" s="17" t="s">
+        <v>555</v>
+      </c>
+      <c r="G100" s="8" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="3">
+        <f>MAX(A49:A100)</f>
+        <v>41511</v>
+      </c>
+      <c r="B101" t="s">
+        <v>6</v>
+      </c>
+      <c r="C101" t="s">
+        <v>303</v>
+      </c>
+      <c r="D101">
+        <v>981</v>
+      </c>
       <c r="E101" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>588</v>
-      </c>
-      <c r="G101" s="8" t="s">
-        <v>589</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="F101" s="17"/>
+      <c r="G101" s="24"/>
     </row>
     <row r="102" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A102" s="25">
-        <v>41401</v>
+        <v>41510</v>
       </c>
       <c r="B102"/>
       <c r="C102"/>
       <c r="D102"/>
       <c r="E102" s="7" t="s">
-        <v>452</v>
+        <v>558</v>
       </c>
       <c r="F102" s="8" t="s">
-        <v>590</v>
+        <v>559</v>
       </c>
       <c r="G102" s="8" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3">
-        <f>MAX(A101:A102)</f>
-        <v>41509</v>
-      </c>
-      <c r="B103" t="s">
-        <v>586</v>
-      </c>
-      <c r="C103" t="s">
-        <v>587</v>
-      </c>
-      <c r="D103">
-        <v>307</v>
-      </c>
-      <c r="E103" s="7"/>
-    </row>
-    <row r="104" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="25">
+        <v>41165</v>
+      </c>
+      <c r="B103"/>
+      <c r="C103"/>
+      <c r="D103"/>
+      <c r="E103" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="G103" s="8" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="3">
+        <f>MAX(A102:A103)</f>
         <v>41510</v>
       </c>
-      <c r="B104"/>
-      <c r="C104"/>
-      <c r="D104"/>
-      <c r="E104" s="7" t="s">
-        <v>472</v>
-      </c>
-      <c r="F104" s="8" t="s">
-        <v>617</v>
-      </c>
-      <c r="G104" s="8" t="s">
-        <v>618</v>
-      </c>
+      <c r="B104" t="s">
+        <v>419</v>
+      </c>
+      <c r="C104" t="s">
+        <v>557</v>
+      </c>
+      <c r="D104">
+        <v>282</v>
+      </c>
+      <c r="E104" s="7"/>
     </row>
     <row r="105" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A105" s="25">
-        <v>41217</v>
+        <v>41509</v>
       </c>
       <c r="B105"/>
       <c r="C105"/>
@@ -4365,49 +4389,48 @@
         <v>472</v>
       </c>
       <c r="F105" s="8" t="s">
-        <v>476</v>
+        <v>588</v>
       </c>
       <c r="G105" s="8" t="s">
-        <v>477</v>
+        <v>589</v>
       </c>
     </row>
     <row r="106" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A106" s="25">
-        <v>41166</v>
+        <v>41401</v>
       </c>
       <c r="B106"/>
       <c r="C106"/>
       <c r="D106"/>
       <c r="E106" s="7" t="s">
-        <v>74</v>
+        <v>452</v>
       </c>
       <c r="F106" s="8" t="s">
-        <v>479</v>
+        <v>590</v>
       </c>
       <c r="G106" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="25">
-        <v>41512</v>
-      </c>
-      <c r="B107"/>
-      <c r="C107"/>
-      <c r="D107"/>
-      <c r="E107" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F107" s="8" t="s">
-        <v>481</v>
-      </c>
-      <c r="G107" s="8" t="s">
-        <v>482</v>
-      </c>
+        <v>591</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3">
+        <f>MAX(A105:A106)</f>
+        <v>41509</v>
+      </c>
+      <c r="B107" t="s">
+        <v>586</v>
+      </c>
+      <c r="C107" t="s">
+        <v>587</v>
+      </c>
+      <c r="D107">
+        <v>307</v>
+      </c>
+      <c r="E107" s="7"/>
     </row>
     <row r="108" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A108" s="25">
-        <v>41152</v>
+        <v>41510</v>
       </c>
       <c r="B108"/>
       <c r="C108"/>
@@ -4416,15 +4439,15 @@
         <v>472</v>
       </c>
       <c r="F108" s="8" t="s">
-        <v>483</v>
+        <v>617</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>484</v>
+        <v>618</v>
       </c>
     </row>
     <row r="109" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A109" s="25">
-        <v>41510</v>
+        <v>41217</v>
       </c>
       <c r="B109"/>
       <c r="C109"/>
@@ -4433,84 +4456,83 @@
         <v>472</v>
       </c>
       <c r="F109" s="8" t="s">
-        <v>620</v>
+        <v>476</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>621</v>
+        <v>477</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A110" s="25">
-        <v>41047</v>
+        <v>41166</v>
       </c>
       <c r="B110"/>
       <c r="C110"/>
       <c r="D110"/>
       <c r="E110" s="7" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="F110" s="8" t="s">
-        <v>299</v>
+        <v>479</v>
       </c>
       <c r="G110" s="8" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="3">
-        <f>MAX(A104:A110)</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="25">
         <v>41512</v>
       </c>
-      <c r="B111" t="s">
-        <v>7</v>
-      </c>
-      <c r="C111" t="s">
-        <v>619</v>
-      </c>
-      <c r="D111">
-        <v>243</v>
-      </c>
+      <c r="B111"/>
+      <c r="C111"/>
+      <c r="D111"/>
       <c r="E111" s="7" t="s">
-        <v>192</v>
+        <v>74</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>481</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A112" s="25">
-        <v>41515</v>
+        <v>41152</v>
       </c>
       <c r="B112"/>
       <c r="C112"/>
       <c r="D112"/>
       <c r="E112" s="7" t="s">
-        <v>452</v>
+        <v>472</v>
       </c>
       <c r="F112" s="8" t="s">
-        <v>627</v>
+        <v>483</v>
       </c>
       <c r="G112" s="8" t="s">
-        <v>628</v>
+        <v>484</v>
       </c>
     </row>
     <row r="113" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A113" s="25">
-        <v>40952</v>
+        <v>41510</v>
       </c>
       <c r="B113"/>
       <c r="C113"/>
       <c r="D113"/>
       <c r="E113" s="7" t="s">
-        <v>192</v>
+        <v>472</v>
       </c>
       <c r="F113" s="8" t="s">
-        <v>592</v>
+        <v>620</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>593</v>
+        <v>621</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A114" s="25">
-        <v>40980</v>
+        <v>41047</v>
       </c>
       <c r="B114"/>
       <c r="C114"/>
@@ -4519,46 +4541,51 @@
         <v>192</v>
       </c>
       <c r="F114" s="8" t="s">
-        <v>594</v>
+        <v>299</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="25">
-        <v>40951</v>
-      </c>
-      <c r="B115"/>
-      <c r="C115"/>
-      <c r="D115"/>
+        <v>622</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="3">
+        <f>MAX(A108:A114)</f>
+        <v>41512</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115" t="s">
+        <v>619</v>
+      </c>
+      <c r="D115">
+        <v>243</v>
+      </c>
       <c r="E115" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F115" s="8" t="s">
-        <v>595</v>
-      </c>
-      <c r="G115" s="8" t="s">
-        <v>597</v>
-      </c>
     </row>
     <row r="116" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="25"/>
+      <c r="A116" s="25">
+        <v>41515</v>
+      </c>
       <c r="B116"/>
       <c r="C116"/>
       <c r="D116"/>
       <c r="E116" s="7" t="s">
-        <v>192</v>
+        <v>452</v>
       </c>
       <c r="F116" s="8" t="s">
-        <v>596</v>
+        <v>627</v>
       </c>
       <c r="G116" s="8" t="s">
-        <v>598</v>
+        <v>628</v>
       </c>
     </row>
     <row r="117" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="25"/>
+      <c r="A117" s="25">
+        <v>40952</v>
+      </c>
       <c r="B117"/>
       <c r="C117"/>
       <c r="D117"/>
@@ -4566,14 +4593,16 @@
         <v>192</v>
       </c>
       <c r="F117" s="8" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="G117" s="8" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="118" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="25"/>
+      <c r="A118" s="25">
+        <v>40980</v>
+      </c>
       <c r="B118"/>
       <c r="C118"/>
       <c r="D118"/>
@@ -4581,14 +4610,16 @@
         <v>192</v>
       </c>
       <c r="F118" s="8" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="G118" s="8" t="s">
-        <v>602</v>
+        <v>115</v>
       </c>
     </row>
     <row r="119" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="25"/>
+      <c r="A119" s="25">
+        <v>40951</v>
+      </c>
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
@@ -4596,10 +4627,10 @@
         <v>192</v>
       </c>
       <c r="F119" s="8" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="G119" s="8" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="120" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4611,10 +4642,10 @@
         <v>192</v>
       </c>
       <c r="F120" s="8" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>607</v>
+        <v>598</v>
       </c>
     </row>
     <row r="121" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4623,65 +4654,58 @@
       <c r="C121"/>
       <c r="D121"/>
       <c r="E121" s="7" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="F121" s="8" t="s">
-        <v>608</v>
+        <v>599</v>
       </c>
       <c r="G121" s="8" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3">
-        <f>MAX(A112:A121)</f>
-        <v>41515</v>
-      </c>
-      <c r="B122" t="s">
-        <v>40</v>
-      </c>
-      <c r="C122" t="s">
-        <v>41</v>
-      </c>
-      <c r="D122">
-        <v>304</v>
-      </c>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="25"/>
+      <c r="B122"/>
+      <c r="C122"/>
+      <c r="D122"/>
       <c r="E122" s="7" t="s">
-        <v>603</v>
+        <v>192</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="G122" s="8" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="123" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="25">
-        <v>41222</v>
-      </c>
+      <c r="A123" s="25"/>
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
       <c r="E123" s="7" t="s">
-        <v>452</v>
+        <v>192</v>
       </c>
       <c r="F123" s="8" t="s">
-        <v>629</v>
+        <v>604</v>
       </c>
       <c r="G123" s="8" t="s">
-        <v>630</v>
+        <v>605</v>
       </c>
     </row>
     <row r="124" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="25">
-        <v>41273</v>
-      </c>
+      <c r="A124" s="25"/>
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
       <c r="E124" s="7" t="s">
-        <v>452</v>
+        <v>192</v>
       </c>
       <c r="F124" s="8" t="s">
-        <v>631</v>
+        <v>606</v>
       </c>
       <c r="G124" s="8" t="s">
-        <v>632</v>
+        <v>607</v>
       </c>
     </row>
     <row r="125" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4689,107 +4713,111 @@
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
-      <c r="E125" t="s">
-        <v>76</v>
+      <c r="E125" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="F125" s="8" t="s">
-        <v>151</v>
+        <v>608</v>
       </c>
       <c r="G125" s="8" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="25"/>
-      <c r="B126"/>
-      <c r="C126"/>
-      <c r="D126"/>
-      <c r="E126" t="s">
-        <v>158</v>
-      </c>
-      <c r="F126" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="G126" s="8" t="s">
-        <v>160</v>
+        <v>609</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3">
+        <f>MAX(A116:A125)</f>
+        <v>41515</v>
+      </c>
+      <c r="B126" t="s">
+        <v>40</v>
+      </c>
+      <c r="C126" t="s">
+        <v>41</v>
+      </c>
+      <c r="D126">
+        <v>304</v>
+      </c>
+      <c r="E126" s="7" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="127" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="25"/>
+      <c r="A127" s="25">
+        <v>41222</v>
+      </c>
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
-      <c r="E127" t="s">
-        <v>76</v>
+      <c r="E127" s="7" t="s">
+        <v>452</v>
       </c>
       <c r="F127" s="8" t="s">
-        <v>161</v>
+        <v>629</v>
       </c>
       <c r="G127" s="8" t="s">
-        <v>162</v>
+        <v>630</v>
       </c>
     </row>
     <row r="128" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="25"/>
+      <c r="A128" s="25">
+        <v>41273</v>
+      </c>
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
-      <c r="E128" t="s">
+      <c r="E128" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="25"/>
+      <c r="B129"/>
+      <c r="C129"/>
+      <c r="D129"/>
+      <c r="E129" t="s">
+        <v>76</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="25"/>
+      <c r="B130"/>
+      <c r="C130"/>
+      <c r="D130"/>
+      <c r="E130" t="s">
         <v>158</v>
       </c>
-      <c r="F128" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="G128" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="3">
-        <v>40972</v>
-      </c>
-      <c r="B129" t="s">
-        <v>149</v>
-      </c>
-      <c r="C129" t="s">
-        <v>150</v>
-      </c>
-      <c r="D129">
-        <v>348</v>
-      </c>
-      <c r="E129"/>
-    </row>
-    <row r="130" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="31">
-        <v>41520</v>
-      </c>
-      <c r="B130" s="32"/>
-      <c r="C130" s="32"/>
-      <c r="D130" s="32"/>
-      <c r="E130" s="33" t="s">
-        <v>452</v>
-      </c>
-      <c r="F130" s="34" t="s">
-        <v>633</v>
-      </c>
-      <c r="G130" s="34" t="s">
-        <v>634</v>
-      </c>
-      <c r="H130" s="34"/>
+      <c r="F130" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="131" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A131" s="25"/>
       <c r="B131"/>
       <c r="C131"/>
       <c r="D131"/>
-      <c r="E131" s="7" t="s">
-        <v>610</v>
+      <c r="E131" t="s">
+        <v>76</v>
       </c>
       <c r="F131" s="8" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="G131" s="8" t="s">
-        <v>42</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4797,45 +4825,48 @@
       <c r="B132"/>
       <c r="C132"/>
       <c r="D132"/>
-      <c r="E132" s="7" t="s">
-        <v>611</v>
+      <c r="E132" t="s">
+        <v>158</v>
       </c>
       <c r="F132" s="8" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="G132" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="25"/>
-      <c r="B133"/>
-      <c r="C133"/>
-      <c r="D133"/>
-      <c r="E133" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="F133" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G133" s="8" t="s">
-        <v>157</v>
-      </c>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="3">
+        <v>40972</v>
+      </c>
+      <c r="B133" t="s">
+        <v>149</v>
+      </c>
+      <c r="C133" t="s">
+        <v>150</v>
+      </c>
+      <c r="D133">
+        <v>348</v>
+      </c>
+      <c r="E133"/>
     </row>
     <row r="134" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="25"/>
-      <c r="B134"/>
-      <c r="C134"/>
-      <c r="D134"/>
-      <c r="E134" s="7" t="s">
-        <v>611</v>
-      </c>
-      <c r="F134" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G134" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="A134" s="31">
+        <v>41520</v>
+      </c>
+      <c r="B134" s="32"/>
+      <c r="C134" s="32"/>
+      <c r="D134" s="32"/>
+      <c r="E134" s="33" t="s">
+        <v>452</v>
+      </c>
+      <c r="F134" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="G134" s="34" t="s">
+        <v>634</v>
+      </c>
+      <c r="H134" s="34"/>
     </row>
     <row r="135" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A135" s="25"/>
@@ -4843,47 +4874,43 @@
       <c r="C135"/>
       <c r="D135"/>
       <c r="E135" s="7" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F135" s="8" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="G135" s="8" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="25">
-        <v>41268</v>
-      </c>
+      <c r="A136" s="25"/>
       <c r="B136"/>
       <c r="C136"/>
       <c r="D136"/>
       <c r="E136" s="7" t="s">
-        <v>74</v>
+        <v>611</v>
       </c>
       <c r="F136" s="8" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="G136" s="8" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="137" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="25">
-        <v>41308</v>
-      </c>
+      <c r="A137" s="25"/>
       <c r="B137"/>
       <c r="C137"/>
       <c r="D137"/>
       <c r="E137" s="7" t="s">
-        <v>74</v>
+        <v>611</v>
       </c>
       <c r="F137" s="8" t="s">
-        <v>612</v>
+        <v>156</v>
       </c>
       <c r="G137" s="8" t="s">
-        <v>62</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4891,96 +4918,100 @@
       <c r="B138"/>
       <c r="C138"/>
       <c r="D138"/>
-      <c r="E138" s="7"/>
+      <c r="E138" s="7" t="s">
+        <v>611</v>
+      </c>
       <c r="F138" s="8" t="s">
-        <v>178</v>
+        <v>45</v>
       </c>
       <c r="G138" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="3">
-        <f>MAX(A130:A138)</f>
-        <v>41520</v>
-      </c>
-      <c r="B139" t="s">
-        <v>17</v>
-      </c>
-      <c r="C139" t="s">
-        <v>18</v>
-      </c>
-      <c r="D139">
-        <v>683</v>
-      </c>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="25"/>
+      <c r="B139"/>
+      <c r="C139"/>
+      <c r="D139"/>
       <c r="E139" s="7" t="s">
-        <v>603</v>
+        <v>611</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G139" s="8" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="140" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3">
-        <v>41067</v>
+      <c r="A140" s="25">
+        <v>41268</v>
       </c>
       <c r="B140"/>
       <c r="C140"/>
       <c r="D140"/>
-      <c r="E140" t="s">
-        <v>43</v>
+      <c r="E140" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="F140" s="8" t="s">
-        <v>185</v>
+        <v>61</v>
       </c>
       <c r="G140" s="8" t="s">
-        <v>186</v>
+        <v>62</v>
       </c>
     </row>
     <row r="141" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
+      <c r="A141" s="25">
+        <v>41308</v>
+      </c>
       <c r="B141"/>
       <c r="C141"/>
       <c r="D141"/>
-      <c r="E141" t="s">
+      <c r="E141" s="7" t="s">
         <v>74</v>
       </c>
       <c r="F141" s="8" t="s">
-        <v>224</v>
+        <v>612</v>
       </c>
       <c r="G141" s="8" t="s">
-        <v>223</v>
+        <v>62</v>
       </c>
     </row>
     <row r="142" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
+      <c r="A142" s="25"/>
       <c r="B142"/>
       <c r="C142"/>
       <c r="D142"/>
-      <c r="E142" t="s">
-        <v>74</v>
-      </c>
+      <c r="E142" s="7"/>
       <c r="F142" s="8" t="s">
-        <v>225</v>
+        <v>178</v>
       </c>
       <c r="G142" s="8" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143"/>
-      <c r="C143"/>
-      <c r="D143"/>
-      <c r="E143" t="s">
-        <v>192</v>
-      </c>
-      <c r="F143" s="8" t="s">
-        <v>226</v>
-      </c>
-      <c r="G143" s="8" t="s">
-        <v>229</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="3">
+        <f>MAX(A134:A142)</f>
+        <v>41520</v>
+      </c>
+      <c r="B143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143" t="s">
+        <v>18</v>
+      </c>
+      <c r="D143">
+        <v>683</v>
+      </c>
+      <c r="E143" s="7" t="s">
+        <v>603</v>
       </c>
     </row>
     <row r="144" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
+      <c r="A144" s="3">
+        <v>41067</v>
+      </c>
       <c r="B144"/>
       <c r="C144"/>
       <c r="D144"/>
@@ -4988,10 +5019,10 @@
         <v>43</v>
       </c>
       <c r="F144" s="8" t="s">
-        <v>227</v>
+        <v>185</v>
       </c>
       <c r="G144" s="8" t="s">
-        <v>228</v>
+        <v>186</v>
       </c>
     </row>
     <row r="145" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -5003,103 +5034,113 @@
         <v>74</v>
       </c>
       <c r="F145" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G145" s="8" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+      <c r="B146"/>
+      <c r="C146"/>
+      <c r="D146"/>
+      <c r="E146" t="s">
+        <v>74</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="G146" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+      <c r="B147"/>
+      <c r="C147"/>
+      <c r="D147"/>
+      <c r="E147" t="s">
+        <v>192</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="G147" s="8" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+      <c r="B148"/>
+      <c r="C148"/>
+      <c r="D148"/>
+      <c r="E148" t="s">
+        <v>43</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="G148" s="8" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+      <c r="B149"/>
+      <c r="C149"/>
+      <c r="D149"/>
+      <c r="E149" t="s">
+        <v>74</v>
+      </c>
+      <c r="F149" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="G145" s="8" t="s">
+      <c r="G149" s="8" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="146" spans="1:8" s="8" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="3">
-        <f>MAX(A140:A145)</f>
+    <row r="150" spans="1:8" s="8" customFormat="1" ht="15.75" collapsed="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="3">
+        <f>MAX(A144:A149)</f>
         <v>41067</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B150" t="s">
         <v>183</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C150" t="s">
         <v>184</v>
       </c>
-      <c r="D146">
+      <c r="D150">
         <v>473</v>
       </c>
-      <c r="E146" s="7" t="s">
+      <c r="E150" s="7" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="26"/>
-      <c r="B147" s="27"/>
-      <c r="C147" s="27"/>
-      <c r="D147" s="27">
-        <f>SUM(D4:D146)</f>
-        <v>6592</v>
-      </c>
-      <c r="E147" s="28"/>
-      <c r="F147" s="29"/>
-      <c r="G147" s="29"/>
-      <c r="H147" s="29"/>
-    </row>
-    <row r="148" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="3"/>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="E149" s="19" t="s">
+    <row r="151" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="26"/>
+      <c r="B151" s="27"/>
+      <c r="C151" s="27"/>
+      <c r="D151" s="27">
+        <f>SUM(D4:D150)</f>
+        <v>6950</v>
+      </c>
+      <c r="E151" s="28"/>
+      <c r="F151" s="29"/>
+      <c r="G151" s="29"/>
+      <c r="H151" s="29"/>
+    </row>
+    <row r="152" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="3"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
+      <c r="E153" s="19" t="s">
         <v>458</v>
       </c>
-      <c r="F149" s="11" t="s">
+      <c r="F153" s="11" t="s">
         <v>457</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
-      <c r="B150"/>
-      <c r="C150"/>
-      <c r="D150"/>
-      <c r="E150" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F150" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
-      <c r="B151"/>
-      <c r="C151"/>
-      <c r="D151" t="s">
-        <v>232</v>
-      </c>
-      <c r="E151" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="F151" s="13" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
-      <c r="B152"/>
-      <c r="C152"/>
-      <c r="D152"/>
-      <c r="E152" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F152" s="13" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
-      <c r="B153"/>
-      <c r="C153"/>
-      <c r="D153"/>
-      <c r="E153" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F153" s="13" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="154" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5108,22 +5149,24 @@
       <c r="C154"/>
       <c r="D154"/>
       <c r="E154" s="20" t="s">
-        <v>72</v>
+        <v>158</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
       <c r="B155"/>
       <c r="C155"/>
-      <c r="D155"/>
-      <c r="E155" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F155" s="15" t="s">
-        <v>234</v>
+      <c r="D155" t="s">
+        <v>232</v>
+      </c>
+      <c r="E155" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F155" s="13" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="156" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -5131,28 +5174,48 @@
       <c r="B156"/>
       <c r="C156"/>
       <c r="D156"/>
-      <c r="E156" s="7"/>
+      <c r="E156" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F156" s="13" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="157" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A157" s="3"/>
       <c r="B157"/>
       <c r="C157"/>
       <c r="D157"/>
-      <c r="E157" s="7"/>
+      <c r="E157" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F157" s="13" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="158" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
       <c r="B158"/>
       <c r="C158"/>
       <c r="D158"/>
-      <c r="E158" s="7"/>
-    </row>
-    <row r="159" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E158" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F158" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159"/>
       <c r="C159"/>
       <c r="D159"/>
-      <c r="E159" s="7"/>
+      <c r="E159" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F159" s="15" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="160" spans="1:8" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
@@ -5196,17 +5259,33 @@
       <c r="D165"/>
       <c r="E165" s="7"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A166" s="3"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B166"/>
+      <c r="C166"/>
+      <c r="D166"/>
+      <c r="E166" s="7"/>
+    </row>
+    <row r="167" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B167"/>
+      <c r="C167"/>
+      <c r="D167"/>
+      <c r="E167" s="7"/>
+    </row>
+    <row r="168" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B168"/>
+      <c r="C168"/>
+      <c r="D168"/>
+      <c r="E168" s="7"/>
+    </row>
+    <row r="169" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
+      <c r="B169"/>
+      <c r="C169"/>
+      <c r="D169"/>
+      <c r="E169" s="7"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
@@ -5286,254 +5365,30 @@
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
     </row>
-    <row r="1895" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1895" s="16"/>
-      <c r="B1895" s="16"/>
-      <c r="C1895" s="16" t="s">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" s="3"/>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3"/>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" s="3"/>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3"/>
+    </row>
+    <row r="1899" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1899" s="16"/>
+      <c r="B1899" s="16"/>
+      <c r="C1899" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D1895" s="16"/>
-      <c r="G1895" s="16">
+      <c r="D1899" s="16"/>
+      <c r="G1899" s="16">
         <v>23942.73</v>
       </c>
-      <c r="H1895" s="16">
+      <c r="H1899" s="16">
         <v>736016.15</v>
-      </c>
-      <c r="I1895" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1895" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1895" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1895" s="16"/>
-      <c r="M1895" s="16">
-        <v>736016.15</v>
-      </c>
-      <c r="N1895" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="O1895" s="16"/>
-      <c r="P1895" s="16"/>
-      <c r="Q1895" s="16"/>
-      <c r="R1895" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="S1895" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1895" s="16"/>
-      <c r="U1895" s="16"/>
-      <c r="V1895" s="16"/>
-      <c r="W1895" s="16"/>
-      <c r="X1895" s="16"/>
-    </row>
-    <row r="1896" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1896" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1896" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1896" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1896" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1896" s="16">
-        <v>2342.17</v>
-      </c>
-      <c r="H1896" s="16">
-        <v>72000</v>
-      </c>
-      <c r="I1896" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1896" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1896" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1896" s="16"/>
-      <c r="M1896" s="16">
-        <v>72000</v>
-      </c>
-      <c r="N1896" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="O1896" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1896" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q1896" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="R1896" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="S1896" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1896" s="16"/>
-      <c r="U1896" s="16"/>
-      <c r="V1896" s="16"/>
-      <c r="W1896" s="16"/>
-      <c r="X1896" s="16"/>
-    </row>
-    <row r="1897" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1897" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1897" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1897" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="D1897" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E1897" s="22">
-        <v>736016.15</v>
-      </c>
-      <c r="F1897" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1897" s="16">
-        <v>23519.38</v>
-      </c>
-      <c r="H1897" s="16">
-        <v>723002.17</v>
-      </c>
-      <c r="I1897" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1897" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1897" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1897" s="16"/>
-      <c r="M1897" s="16">
-        <v>723002.17</v>
-      </c>
-      <c r="N1897" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="O1897" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="P1897" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q1897" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="R1897" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="S1897" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1897" s="16"/>
-      <c r="U1897" s="16"/>
-      <c r="V1897" s="16"/>
-      <c r="W1897" s="16"/>
-      <c r="X1897" s="16"/>
-    </row>
-    <row r="1898" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1898" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1898" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1898" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1898" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1898" s="22">
-        <v>72000</v>
-      </c>
-      <c r="F1898" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1898" s="16">
-        <v>161.66999999999999</v>
-      </c>
-      <c r="H1898" s="16">
-        <v>4970</v>
-      </c>
-      <c r="I1898" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1898" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1898" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1898" s="16"/>
-      <c r="M1898" s="16">
-        <v>4970</v>
-      </c>
-      <c r="N1898" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="O1898" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1898" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1898" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1898" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="S1898" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1898" s="16"/>
-      <c r="U1898" s="16"/>
-      <c r="V1898" s="16"/>
-      <c r="W1898" s="16"/>
-      <c r="X1898" s="16"/>
-    </row>
-    <row r="1899" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1899" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1899" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1899" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1899" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1899" s="22">
-        <v>723002.17</v>
-      </c>
-      <c r="F1899" s="16">
-        <v>16900.55</v>
-      </c>
-      <c r="G1899" s="16">
-        <v>300.43</v>
-      </c>
-      <c r="H1899" s="16">
-        <v>9235.48</v>
       </c>
       <c r="I1899" s="16">
         <v>0</v>
@@ -5546,22 +5401,16 @@
       </c>
       <c r="L1899" s="16"/>
       <c r="M1899" s="16">
-        <v>9235.48</v>
+        <v>736016.15</v>
       </c>
       <c r="N1899" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="O1899" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1899" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1899" s="16" t="s">
-        <v>336</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O1899" s="16"/>
+      <c r="P1899" s="16"/>
+      <c r="Q1899" s="16"/>
       <c r="R1899" s="16" t="s">
-        <v>338</v>
+        <v>306</v>
       </c>
       <c r="S1899" s="16" t="s">
         <v>304</v>
@@ -5574,28 +5423,22 @@
     </row>
     <row r="1900" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1900" s="16" t="s">
-        <v>340</v>
+        <v>308</v>
       </c>
       <c r="B1900" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1900" s="16" t="s">
-        <v>342</v>
+        <v>314</v>
       </c>
       <c r="D1900" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="E1900" s="22">
-        <v>4970</v>
-      </c>
-      <c r="F1900" s="16">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="G1900" s="16">
-        <v>388.74</v>
+        <v>2342.17</v>
       </c>
       <c r="H1900" s="16">
-        <v>11950</v>
+        <v>72000</v>
       </c>
       <c r="I1900" s="16">
         <v>0</v>
@@ -5608,22 +5451,22 @@
       </c>
       <c r="L1900" s="16"/>
       <c r="M1900" s="16">
-        <v>11950</v>
+        <v>72000</v>
       </c>
       <c r="N1900" s="16" t="s">
-        <v>344</v>
+        <v>316</v>
       </c>
       <c r="O1900" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P1900" s="16" t="s">
-        <v>328</v>
+        <v>312</v>
       </c>
       <c r="Q1900" s="16" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="R1900" s="16" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="S1900" s="16" t="s">
         <v>304</v>
@@ -5636,28 +5479,28 @@
     </row>
     <row r="1901" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1901" s="16" t="s">
-        <v>345</v>
+        <v>317</v>
       </c>
       <c r="B1901" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1901" s="16" t="s">
-        <v>347</v>
+        <v>322</v>
       </c>
       <c r="D1901" s="16" t="s">
-        <v>346</v>
+        <v>318</v>
       </c>
       <c r="E1901" s="22">
-        <v>9235.48</v>
+        <v>736016.15</v>
       </c>
       <c r="F1901" s="16">
-        <v>161.84</v>
+        <v>0</v>
       </c>
       <c r="G1901" s="16">
-        <v>450.44</v>
+        <v>23519.38</v>
       </c>
       <c r="H1901" s="16">
-        <v>13846.96</v>
+        <v>723002.17</v>
       </c>
       <c r="I1901" s="16">
         <v>0</v>
@@ -5670,22 +5513,22 @@
       </c>
       <c r="L1901" s="16"/>
       <c r="M1901" s="16">
-        <v>13846.96</v>
+        <v>723002.17</v>
       </c>
       <c r="N1901" s="16" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="O1901" s="16" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P1901" s="16" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="Q1901" s="16" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="R1901" s="16" t="s">
-        <v>348</v>
+        <v>323</v>
       </c>
       <c r="S1901" s="16" t="s">
         <v>304</v>
@@ -5698,28 +5541,28 @@
     </row>
     <row r="1902" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1902" s="16" t="s">
-        <v>350</v>
+        <v>325</v>
       </c>
       <c r="B1902" s="16" t="s">
         <v>309</v>
       </c>
       <c r="C1902" s="16" t="s">
-        <v>352</v>
+        <v>330</v>
       </c>
       <c r="D1902" s="16" t="s">
-        <v>351</v>
+        <v>326</v>
       </c>
       <c r="E1902" s="22">
-        <v>11950</v>
+        <v>72000</v>
       </c>
       <c r="F1902" s="16">
         <v>0</v>
       </c>
       <c r="G1902" s="16">
-        <v>1997.29</v>
+        <v>161.66999999999999</v>
       </c>
       <c r="H1902" s="16">
-        <v>61398</v>
+        <v>4970</v>
       </c>
       <c r="I1902" s="16">
         <v>0</v>
@@ -5732,10 +5575,10 @@
       </c>
       <c r="L1902" s="16"/>
       <c r="M1902" s="16">
-        <v>61398</v>
+        <v>4970</v>
       </c>
       <c r="N1902" s="16" t="s">
-        <v>354</v>
+        <v>332</v>
       </c>
       <c r="O1902" s="16" t="s">
         <v>327</v>
@@ -5747,7 +5590,7 @@
         <v>329</v>
       </c>
       <c r="R1902" s="16" t="s">
-        <v>353</v>
+        <v>331</v>
       </c>
       <c r="S1902" s="16" t="s">
         <v>304</v>
@@ -5760,27 +5603,31 @@
     </row>
     <row r="1903" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1903" s="16" t="s">
-        <v>355</v>
+        <v>333</v>
       </c>
       <c r="B1903" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1903" s="16"/>
+        <v>309</v>
+      </c>
+      <c r="C1903" s="16" t="s">
+        <v>337</v>
+      </c>
       <c r="D1903" s="16" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="E1903" s="22">
-        <v>13846.96</v>
+        <v>723002.17</v>
       </c>
       <c r="F1903" s="16">
-        <v>323.68</v>
-      </c>
-      <c r="G1903" s="16"/>
+        <v>16900.55</v>
+      </c>
+      <c r="G1903" s="16">
+        <v>300.43</v>
+      </c>
       <c r="H1903" s="16">
-        <v>0</v>
+        <v>9235.48</v>
       </c>
       <c r="I1903" s="16">
-        <v>14000</v>
+        <v>0</v>
       </c>
       <c r="J1903" s="16">
         <v>0</v>
@@ -5790,16 +5637,26 @@
       </c>
       <c r="L1903" s="16"/>
       <c r="M1903" s="16">
-        <v>14000</v>
-      </c>
-      <c r="N1903" s="16"/>
+        <v>9235.48</v>
+      </c>
+      <c r="N1903" s="16" t="s">
+        <v>339</v>
+      </c>
       <c r="O1903" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1903" s="16"/>
-      <c r="Q1903" s="16"/>
-      <c r="R1903" s="16"/>
-      <c r="S1903" s="16"/>
+        <v>327</v>
+      </c>
+      <c r="P1903" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1903" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1903" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="S1903" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="T1903" s="16"/>
       <c r="U1903" s="16"/>
       <c r="V1903" s="16"/>
@@ -5808,27 +5665,31 @@
     </row>
     <row r="1904" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1904" s="16" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="B1904" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1904" s="16"/>
+        <v>309</v>
+      </c>
+      <c r="C1904" s="16" t="s">
+        <v>342</v>
+      </c>
       <c r="D1904" s="16" t="s">
-        <v>359</v>
+        <v>341</v>
       </c>
       <c r="E1904" s="22">
-        <v>61398</v>
+        <v>4970</v>
       </c>
       <c r="F1904" s="16">
         <v>0</v>
       </c>
-      <c r="G1904" s="16"/>
+      <c r="G1904" s="16">
+        <v>388.74</v>
+      </c>
       <c r="H1904" s="16">
-        <v>0</v>
+        <v>11950</v>
       </c>
       <c r="I1904" s="16">
-        <v>7150</v>
+        <v>0</v>
       </c>
       <c r="J1904" s="16">
         <v>0</v>
@@ -5838,16 +5699,26 @@
       </c>
       <c r="L1904" s="16"/>
       <c r="M1904" s="16">
-        <v>7150</v>
-      </c>
-      <c r="N1904" s="16"/>
+        <v>11950</v>
+      </c>
+      <c r="N1904" s="16" t="s">
+        <v>344</v>
+      </c>
       <c r="O1904" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1904" s="16"/>
-      <c r="Q1904" s="16"/>
-      <c r="R1904" s="16"/>
-      <c r="S1904" s="16"/>
+        <v>327</v>
+      </c>
+      <c r="P1904" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1904" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1904" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="S1904" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="T1904" s="16"/>
       <c r="U1904" s="16"/>
       <c r="V1904" s="16"/>
@@ -5856,23 +5727,31 @@
     </row>
     <row r="1905" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1905" s="16" t="s">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="B1905" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="C1905" s="16"/>
+        <v>309</v>
+      </c>
+      <c r="C1905" s="16" t="s">
+        <v>347</v>
+      </c>
       <c r="D1905" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="E1905" s="22"/>
-      <c r="F1905" s="16"/>
-      <c r="G1905" s="16"/>
+        <v>346</v>
+      </c>
+      <c r="E1905" s="22">
+        <v>9235.48</v>
+      </c>
+      <c r="F1905" s="16">
+        <v>161.84</v>
+      </c>
+      <c r="G1905" s="16">
+        <v>450.44</v>
+      </c>
       <c r="H1905" s="16">
-        <v>0</v>
+        <v>13846.96</v>
       </c>
       <c r="I1905" s="16">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="J1905" s="16">
         <v>0</v>
@@ -5882,16 +5761,26 @@
       </c>
       <c r="L1905" s="16"/>
       <c r="M1905" s="16">
-        <v>1100</v>
-      </c>
-      <c r="N1905" s="16"/>
+        <v>13846.96</v>
+      </c>
+      <c r="N1905" s="16" t="s">
+        <v>349</v>
+      </c>
       <c r="O1905" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1905" s="16"/>
-      <c r="Q1905" s="16"/>
-      <c r="R1905" s="16"/>
-      <c r="S1905" s="16"/>
+        <v>327</v>
+      </c>
+      <c r="P1905" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1905" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1905" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="S1905" s="16" t="s">
+        <v>304</v>
+      </c>
       <c r="T1905" s="16"/>
       <c r="U1905" s="16"/>
       <c r="V1905" s="16"/>
@@ -5900,24 +5789,28 @@
     </row>
     <row r="1906" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1906" s="16" t="s">
-        <v>363</v>
+        <v>350</v>
       </c>
       <c r="B1906" s="16" t="s">
-        <v>364</v>
+        <v>309</v>
       </c>
       <c r="C1906" s="16" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="D1906" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E1906" s="22"/>
-      <c r="F1906" s="16"/>
+        <v>351</v>
+      </c>
+      <c r="E1906" s="22">
+        <v>11950</v>
+      </c>
+      <c r="F1906" s="16">
+        <v>0</v>
+      </c>
       <c r="G1906" s="16">
-        <v>136.63</v>
+        <v>1997.29</v>
       </c>
       <c r="H1906" s="16">
-        <v>4200</v>
+        <v>61398</v>
       </c>
       <c r="I1906" s="16">
         <v>0</v>
@@ -5930,13 +5823,13 @@
       </c>
       <c r="L1906" s="16"/>
       <c r="M1906" s="16">
-        <v>4200</v>
+        <v>61398</v>
       </c>
       <c r="N1906" s="16" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="O1906" s="16" t="s">
-        <v>311</v>
+        <v>327</v>
       </c>
       <c r="P1906" s="16" t="s">
         <v>328</v>
@@ -5945,7 +5838,7 @@
         <v>329</v>
       </c>
       <c r="R1906" s="16" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="S1906" s="16" t="s">
         <v>304</v>
@@ -5958,27 +5851,27 @@
     </row>
     <row r="1907" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1907" s="16" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="B1907" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1907" s="16" t="s">
-        <v>373</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C1907" s="16"/>
       <c r="D1907" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="E1907" s="22"/>
-      <c r="F1907" s="16"/>
-      <c r="G1907" s="16">
-        <v>650.6</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="E1907" s="22">
+        <v>13846.96</v>
+      </c>
+      <c r="F1907" s="16">
+        <v>323.68</v>
+      </c>
+      <c r="G1907" s="16"/>
       <c r="H1907" s="16">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="I1907" s="16">
-        <v>0</v>
+        <v>14000</v>
       </c>
       <c r="J1907" s="16">
         <v>0</v>
@@ -5988,26 +5881,16 @@
       </c>
       <c r="L1907" s="16"/>
       <c r="M1907" s="16">
-        <v>20000</v>
-      </c>
-      <c r="N1907" s="16" t="s">
-        <v>375</v>
-      </c>
+        <v>14000</v>
+      </c>
+      <c r="N1907" s="16"/>
       <c r="O1907" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1907" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q1907" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="R1907" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="S1907" s="16" t="s">
-        <v>304</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="P1907" s="16"/>
+      <c r="Q1907" s="16"/>
+      <c r="R1907" s="16"/>
+      <c r="S1907" s="16"/>
       <c r="T1907" s="16"/>
       <c r="U1907" s="16"/>
       <c r="V1907" s="16"/>
@@ -6016,31 +5899,27 @@
     </row>
     <row r="1908" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1908" s="16" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="B1908" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1908" s="16" t="s">
-        <v>378</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="C1908" s="16"/>
       <c r="D1908" s="16" t="s">
-        <v>377</v>
+        <v>359</v>
       </c>
       <c r="E1908" s="22">
-        <v>4200</v>
+        <v>61398</v>
       </c>
       <c r="F1908" s="16">
         <v>0</v>
       </c>
-      <c r="G1908" s="16">
-        <v>78.37</v>
-      </c>
+      <c r="G1908" s="16"/>
       <c r="H1908" s="16">
-        <v>2409</v>
+        <v>0</v>
       </c>
       <c r="I1908" s="16">
-        <v>0</v>
+        <v>7150</v>
       </c>
       <c r="J1908" s="16">
         <v>0</v>
@@ -6050,26 +5929,16 @@
       </c>
       <c r="L1908" s="16"/>
       <c r="M1908" s="16">
-        <v>2409</v>
-      </c>
-      <c r="N1908" s="16" t="s">
-        <v>380</v>
-      </c>
+        <v>7150</v>
+      </c>
+      <c r="N1908" s="16"/>
       <c r="O1908" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1908" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1908" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1908" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="S1908" s="16" t="s">
-        <v>304</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="P1908" s="16"/>
+      <c r="Q1908" s="16"/>
+      <c r="R1908" s="16"/>
+      <c r="S1908" s="16"/>
       <c r="T1908" s="16"/>
       <c r="U1908" s="16"/>
       <c r="V1908" s="16"/>
@@ -6078,31 +5947,23 @@
     </row>
     <row r="1909" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1909" s="16" t="s">
-        <v>381</v>
+        <v>360</v>
       </c>
       <c r="B1909" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1909" s="16" t="s">
-        <v>384</v>
-      </c>
+        <v>361</v>
+      </c>
+      <c r="C1909" s="16"/>
       <c r="D1909" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="E1909" s="22">
-        <v>320000</v>
-      </c>
-      <c r="F1909" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1909" s="16">
-        <v>11758.05</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="E1909" s="22"/>
+      <c r="F1909" s="16"/>
+      <c r="G1909" s="16"/>
       <c r="H1909" s="16">
-        <v>361450.61</v>
+        <v>0</v>
       </c>
       <c r="I1909" s="16">
-        <v>0</v>
+        <v>1100</v>
       </c>
       <c r="J1909" s="16">
         <v>0</v>
@@ -6112,26 +5973,16 @@
       </c>
       <c r="L1909" s="16"/>
       <c r="M1909" s="16">
-        <v>361450.61</v>
-      </c>
-      <c r="N1909" s="16" t="s">
-        <v>386</v>
-      </c>
+        <v>1100</v>
+      </c>
+      <c r="N1909" s="16"/>
       <c r="O1909" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1909" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q1909" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="R1909" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="S1909" s="16" t="s">
-        <v>304</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="P1909" s="16"/>
+      <c r="Q1909" s="16"/>
+      <c r="R1909" s="16"/>
+      <c r="S1909" s="16"/>
       <c r="T1909" s="16"/>
       <c r="U1909" s="16"/>
       <c r="V1909" s="16"/>
@@ -6140,28 +5991,24 @@
     </row>
     <row r="1910" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1910" s="16" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="B1910" s="16" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C1910" s="16" t="s">
-        <v>390</v>
+        <v>366</v>
       </c>
       <c r="D1910" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1910" s="22">
-        <v>2409</v>
-      </c>
-      <c r="F1910" s="16">
-        <v>0</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="E1910" s="22"/>
+      <c r="F1910" s="16"/>
       <c r="G1910" s="16">
-        <v>1073.5</v>
+        <v>136.63</v>
       </c>
       <c r="H1910" s="16">
-        <v>33000</v>
+        <v>4200</v>
       </c>
       <c r="I1910" s="16">
         <v>0</v>
@@ -6174,21 +6021,23 @@
       </c>
       <c r="L1910" s="16"/>
       <c r="M1910" s="16">
-        <v>33000</v>
+        <v>4200</v>
       </c>
       <c r="N1910" s="16" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="O1910" s="16" t="s">
         <v>311</v>
       </c>
       <c r="P1910" s="16" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="Q1910" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="R1910" s="16"/>
+        <v>329</v>
+      </c>
+      <c r="R1910" s="16" t="s">
+        <v>367</v>
+      </c>
       <c r="S1910" s="16" t="s">
         <v>304</v>
       </c>
@@ -6200,28 +6049,24 @@
     </row>
     <row r="1911" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1911" s="16" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
       <c r="B1911" s="16" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C1911" s="16" t="s">
-        <v>393</v>
+        <v>373</v>
       </c>
       <c r="D1911" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1911" s="22">
-        <v>361450.61</v>
-      </c>
-      <c r="F1911" s="16">
-        <v>8828.5</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="E1911" s="22"/>
+      <c r="F1911" s="16"/>
       <c r="G1911" s="16">
-        <v>267.5</v>
+        <v>650.6</v>
       </c>
       <c r="H1911" s="16">
-        <v>8223</v>
+        <v>20000</v>
       </c>
       <c r="I1911" s="16">
         <v>0</v>
@@ -6234,22 +6079,22 @@
       </c>
       <c r="L1911" s="16"/>
       <c r="M1911" s="16">
-        <v>8223</v>
+        <v>20000</v>
       </c>
       <c r="N1911" s="16" t="s">
-        <v>395</v>
+        <v>375</v>
       </c>
       <c r="O1911" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P1911" s="16" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="Q1911" s="16" t="s">
-        <v>329</v>
+        <v>372</v>
       </c>
       <c r="R1911" s="16" t="s">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="S1911" s="16" t="s">
         <v>304</v>
@@ -6262,28 +6107,28 @@
     </row>
     <row r="1912" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1912" s="16" t="s">
-        <v>396</v>
+        <v>376</v>
       </c>
       <c r="B1912" s="16" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="C1912" s="16" t="s">
-        <v>398</v>
+        <v>378</v>
       </c>
       <c r="D1912" s="16" t="s">
-        <v>397</v>
+        <v>377</v>
       </c>
       <c r="E1912" s="22">
-        <v>477000</v>
+        <v>4200</v>
       </c>
       <c r="F1912" s="16">
         <v>0</v>
       </c>
       <c r="G1912" s="16">
-        <v>406.63</v>
+        <v>78.37</v>
       </c>
       <c r="H1912" s="16">
-        <v>12500</v>
+        <v>2409</v>
       </c>
       <c r="I1912" s="16">
         <v>0</v>
@@ -6296,22 +6141,22 @@
       </c>
       <c r="L1912" s="16"/>
       <c r="M1912" s="16">
-        <v>12500</v>
+        <v>2409</v>
       </c>
       <c r="N1912" s="16" t="s">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="O1912" s="16" t="s">
         <v>327</v>
       </c>
       <c r="P1912" s="16" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
       <c r="Q1912" s="16" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="R1912" s="16" t="s">
-        <v>399</v>
+        <v>379</v>
       </c>
       <c r="S1912" s="16" t="s">
         <v>304</v>
@@ -6324,28 +6169,28 @@
     </row>
     <row r="1913" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1913" s="16" t="s">
-        <v>401</v>
+        <v>381</v>
       </c>
       <c r="B1913" s="16" t="s">
         <v>356</v>
       </c>
       <c r="C1913" s="16" t="s">
-        <v>403</v>
+        <v>384</v>
       </c>
       <c r="D1913" s="16" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="E1913" s="22">
-        <v>8223</v>
+        <v>320000</v>
       </c>
       <c r="F1913" s="16">
         <v>0</v>
       </c>
       <c r="G1913" s="16">
-        <v>3366.87</v>
+        <v>11758.05</v>
       </c>
       <c r="H1913" s="16">
-        <v>103500</v>
+        <v>361450.61</v>
       </c>
       <c r="I1913" s="16">
         <v>0</v>
@@ -6358,22 +6203,22 @@
       </c>
       <c r="L1913" s="16"/>
       <c r="M1913" s="16">
-        <v>103500</v>
+        <v>361450.61</v>
       </c>
       <c r="N1913" s="16" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="O1913" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P1913" s="16" t="s">
-        <v>328</v>
+        <v>382</v>
       </c>
       <c r="Q1913" s="16" t="s">
-        <v>329</v>
+        <v>383</v>
       </c>
       <c r="R1913" s="16" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="S1913" s="16" t="s">
         <v>304</v>
@@ -6386,28 +6231,28 @@
     </row>
     <row r="1914" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1914" s="16" t="s">
-        <v>406</v>
+        <v>387</v>
       </c>
       <c r="B1914" s="16" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="C1914" s="16" t="s">
-        <v>409</v>
+        <v>390</v>
       </c>
       <c r="D1914" s="16" t="s">
-        <v>408</v>
+        <v>388</v>
       </c>
       <c r="E1914" s="22">
-        <v>12500</v>
+        <v>2409</v>
       </c>
       <c r="F1914" s="16">
         <v>0</v>
       </c>
       <c r="G1914" s="16">
-        <v>44.95</v>
+        <v>1073.5</v>
       </c>
       <c r="H1914" s="16">
-        <v>1381.79</v>
+        <v>33000</v>
       </c>
       <c r="I1914" s="16">
         <v>0</v>
@@ -6420,23 +6265,21 @@
       </c>
       <c r="L1914" s="16"/>
       <c r="M1914" s="16">
-        <v>1381.79</v>
+        <v>33000</v>
       </c>
       <c r="N1914" s="16" t="s">
-        <v>411</v>
+        <v>391</v>
       </c>
       <c r="O1914" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P1914" s="16" t="s">
-        <v>335</v>
+        <v>382</v>
       </c>
       <c r="Q1914" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="R1914" s="16" t="s">
-        <v>410</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="R1914" s="16"/>
       <c r="S1914" s="16" t="s">
         <v>304</v>
       </c>
@@ -6448,28 +6291,28 @@
     </row>
     <row r="1915" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1915" s="16" t="s">
-        <v>412</v>
+        <v>392</v>
       </c>
       <c r="B1915" s="16" t="s">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="C1915" s="16" t="s">
-        <v>414</v>
+        <v>393</v>
       </c>
       <c r="D1915" s="16" t="s">
-        <v>413</v>
+        <v>334</v>
       </c>
       <c r="E1915" s="22">
-        <v>103500</v>
+        <v>361450.61</v>
       </c>
       <c r="F1915" s="16">
-        <v>0</v>
+        <v>8828.5</v>
       </c>
       <c r="G1915" s="16">
-        <v>45.54</v>
+        <v>267.5</v>
       </c>
       <c r="H1915" s="16">
-        <v>1400</v>
+        <v>8223</v>
       </c>
       <c r="I1915" s="16">
         <v>0</v>
@@ -6482,10 +6325,10 @@
       </c>
       <c r="L1915" s="16"/>
       <c r="M1915" s="16">
-        <v>1400</v>
+        <v>8223</v>
       </c>
       <c r="N1915" s="16" t="s">
-        <v>416</v>
+        <v>395</v>
       </c>
       <c r="O1915" s="16" t="s">
         <v>327</v>
@@ -6497,7 +6340,7 @@
         <v>329</v>
       </c>
       <c r="R1915" s="16" t="s">
-        <v>415</v>
+        <v>394</v>
       </c>
       <c r="S1915" s="16" t="s">
         <v>304</v>
@@ -6509,41 +6352,289 @@
       <c r="X1915" s="16"/>
     </row>
     <row r="1916" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1916" t="s">
+      <c r="A1916" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1916" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1916" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1916" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1916" s="22">
+        <v>477000</v>
+      </c>
+      <c r="F1916" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1916" s="16">
+        <v>406.63</v>
+      </c>
+      <c r="H1916" s="16">
+        <v>12500</v>
+      </c>
+      <c r="I1916" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1916" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1916" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1916" s="16"/>
+      <c r="M1916" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N1916" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="O1916" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1916" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1916" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1916" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="S1916" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1916" s="16"/>
+      <c r="U1916" s="16"/>
+      <c r="V1916" s="16"/>
+      <c r="W1916" s="16"/>
+      <c r="X1916" s="16"/>
+    </row>
+    <row r="1917" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1917" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1917" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1917" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1917" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1917" s="22">
+        <v>8223</v>
+      </c>
+      <c r="F1917" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1917" s="16">
+        <v>3366.87</v>
+      </c>
+      <c r="H1917" s="16">
+        <v>103500</v>
+      </c>
+      <c r="I1917" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1917" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1917" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1917" s="16"/>
+      <c r="M1917" s="16">
+        <v>103500</v>
+      </c>
+      <c r="N1917" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1917" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1917" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1917" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1917" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1917" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1917" s="16"/>
+      <c r="U1917" s="16"/>
+      <c r="V1917" s="16"/>
+      <c r="W1917" s="16"/>
+      <c r="X1917" s="16"/>
+    </row>
+    <row r="1918" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1918" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1918" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1918" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1918" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1918" s="22">
+        <v>12500</v>
+      </c>
+      <c r="F1918" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1918" s="16">
+        <v>44.95</v>
+      </c>
+      <c r="H1918" s="16">
+        <v>1381.79</v>
+      </c>
+      <c r="I1918" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1918" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1918" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1918" s="16"/>
+      <c r="M1918" s="16">
+        <v>1381.79</v>
+      </c>
+      <c r="N1918" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="O1918" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1918" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1918" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1918" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="S1918" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1918" s="16"/>
+      <c r="U1918" s="16"/>
+      <c r="V1918" s="16"/>
+      <c r="W1918" s="16"/>
+      <c r="X1918" s="16"/>
+    </row>
+    <row r="1919" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1919" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1919" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1919" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1919" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1919" s="22">
+        <v>103500</v>
+      </c>
+      <c r="F1919" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1919" s="16">
+        <v>45.54</v>
+      </c>
+      <c r="H1919" s="16">
+        <v>1400</v>
+      </c>
+      <c r="I1919" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1919" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1919" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1919" s="16"/>
+      <c r="M1919" s="16">
+        <v>1400</v>
+      </c>
+      <c r="N1919" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="O1919" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1919" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1919" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1919" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1919" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1919" s="16"/>
+      <c r="U1919" s="16"/>
+      <c r="V1919" s="16"/>
+      <c r="W1919" s="16"/>
+      <c r="X1919" s="16"/>
+    </row>
+    <row r="1920" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1920" t="s">
         <v>417</v>
       </c>
-      <c r="B1916" t="s">
+      <c r="B1920" t="s">
         <v>407</v>
       </c>
-      <c r="D1916" t="s">
+      <c r="D1920" t="s">
         <v>418</v>
       </c>
-      <c r="E1916" s="22">
+      <c r="E1920" s="22">
         <v>1381.76</v>
       </c>
-      <c r="F1916" s="16">
+      <c r="F1920" s="16">
         <v>33.200000000000003</v>
       </c>
-      <c r="O1916" t="s">
+      <c r="O1920" t="s">
         <v>327</v>
       </c>
-      <c r="P1916" t="s">
+      <c r="P1920" t="s">
         <v>328</v>
       </c>
-      <c r="Q1916" t="s">
+      <c r="Q1920" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="1917" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="E1917" s="22">
+    <row r="1921" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E1921" s="22">
         <v>1400</v>
       </c>
-      <c r="F1917" s="16">
+      <c r="F1921" s="16">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:X111"/>
+  <autoFilter ref="A3:X115"/>
   <mergeCells count="1">
     <mergeCell ref="A4:D4"/>
   </mergeCells>
@@ -6563,8 +6654,8 @@
   </sheetPr>
   <dimension ref="A1:X1910"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A84" sqref="A84:XFD88"/>
+    <sheetView topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>

--- a/matchCodes/Match_Modules.xlsx
+++ b/matchCodes/Match_Modules.xlsx
@@ -1,33 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel_Khrapkin\Documents\Pavel\match\matchCodes\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
   </bookViews>
   <sheets>
-    <sheet name="match2.1" sheetId="5" r:id="rId1"/>
-    <sheet name="match2.0" sheetId="4" r:id="rId2"/>
-    <sheet name="Match" sheetId="1" r:id="rId3"/>
+    <sheet name="match 3.0" sheetId="6" r:id="rId1"/>
+    <sheet name="match2.1" sheetId="5" r:id="rId2"/>
+    <sheet name="match2.0" sheetId="4" r:id="rId3"/>
+    <sheet name="Match" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Match!$A$1:$I$140</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">match2.0!$A$3:$X$137</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">match2.1!$A$3:$X$115</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">match2.1!$A$1:$H$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Match!$A$1:$I$140</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'match 3.0'!$A$3:$X$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">match2.0!$A$3:$X$137</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">match2.1!$A$3:$X$115</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'match 3.0'!$A$1:$H$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">match2.1!$A$1:$H$159</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1614" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="660">
   <si>
     <t>дата</t>
   </si>
@@ -2009,6 +2007,47 @@
   <si>
     <t>работа с License Inquiry PartnerCenter.Autodesk.com</t>
   </si>
+  <si>
+    <r>
+      <t>Коды</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Algerian"/>
+        <family val="5"/>
+      </rPr>
+      <t xml:space="preserve"> match 3.0</t>
+    </r>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>Beginning</t>
+  </si>
+  <si>
+    <t>Начало работы</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Класс Документов</t>
+  </si>
+  <si>
+    <t>EOL</t>
+  </si>
+  <si>
+    <t>int EOL(Excel.Worksheet Sh)</t>
+  </si>
+  <si>
+    <t>возвращает число строк в листе Sh</t>
+  </si>
 </sst>
 </file>
 
@@ -2017,7 +2056,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2087,6 +2126,13 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2243,7 +2289,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2321,6 +2367,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2336,6 +2400,65 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>383276</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>45535</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="654950" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1126226" y="45535"/>
+          <a:ext cx="654950" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1600" b="1" cap="none" spc="0">
+            <a:ln w="18000">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:satMod val="140000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+            </a:ln>
+            <a:noFill/>
+            <a:effectLst>
+              <a:outerShdw blurRad="25500" dist="23000" dir="7020000" algn="tl">
+                <a:srgbClr val="000000">
+                  <a:alpha val="50000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2381,7 +2504,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2416,7 +2539,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2625,12 +2748,1992 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:X1785"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="28.42578125" style="8" customWidth="1"/>
+    <col min="8" max="8" width="36.42578125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="28.42578125" style="8" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" s="47" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="44">
+        <v>41604</v>
+      </c>
+      <c r="B1" s="48" t="s">
+        <v>652</v>
+      </c>
+      <c r="C1" s="45" t="s">
+        <v>651</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+    </row>
+    <row r="3" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="41"/>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>41603</v>
+      </c>
+      <c r="B5" t="s">
+        <v>653</v>
+      </c>
+      <c r="C5" t="s">
+        <v>654</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>41604</v>
+      </c>
+      <c r="B6" t="s">
+        <v>655</v>
+      </c>
+      <c r="C6" t="s">
+        <v>656</v>
+      </c>
+      <c r="D6">
+        <v>137</v>
+      </c>
+      <c r="E6" s="7"/>
+    </row>
+    <row r="7" spans="1:24" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
+        <v>41182</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>565</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="25">
+        <v>41224</v>
+      </c>
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="25">
+        <v>41183</v>
+      </c>
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>567</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>41510</v>
+      </c>
+      <c r="B10"/>
+      <c r="C10"/>
+      <c r="D10"/>
+      <c r="E10" s="23" t="s">
+        <v>452</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>613</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25">
+        <v>41531</v>
+      </c>
+      <c r="B11"/>
+      <c r="C11"/>
+      <c r="D11"/>
+      <c r="E11" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>41531</v>
+      </c>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12"/>
+      <c r="E12" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>640</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>41603</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D13">
+        <v>45</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:24" s="8" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
+        <v>41603</v>
+      </c>
+      <c r="B14" t="s">
+        <v>657</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14"/>
+      <c r="E14" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>658</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="26"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27">
+        <f>SUM(D4:D14)</f>
+        <v>210</v>
+      </c>
+      <c r="E15" s="28"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
+      <c r="M15"/>
+      <c r="N15"/>
+      <c r="O15"/>
+      <c r="P15"/>
+      <c r="Q15"/>
+      <c r="R15"/>
+      <c r="S15"/>
+      <c r="T15"/>
+      <c r="U15"/>
+      <c r="V15"/>
+      <c r="W15"/>
+      <c r="X15"/>
+    </row>
+    <row r="16" spans="1:24" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16"/>
+      <c r="E16" s="7"/>
+      <c r="J16"/>
+      <c r="K16"/>
+      <c r="L16"/>
+      <c r="M16"/>
+      <c r="N16"/>
+      <c r="O16"/>
+      <c r="P16"/>
+      <c r="Q16"/>
+      <c r="R16"/>
+      <c r="S16"/>
+      <c r="T16"/>
+      <c r="U16"/>
+      <c r="V16"/>
+      <c r="W16"/>
+      <c r="X16"/>
+    </row>
+    <row r="17" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="J17"/>
+      <c r="K17"/>
+      <c r="L17"/>
+      <c r="M17"/>
+      <c r="N17"/>
+      <c r="O17"/>
+      <c r="P17"/>
+      <c r="Q17"/>
+      <c r="R17"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="X17"/>
+    </row>
+    <row r="18" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18"/>
+      <c r="C18"/>
+      <c r="D18"/>
+      <c r="E18" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19"/>
+      <c r="C19"/>
+      <c r="D19" t="s">
+        <v>232</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20"/>
+      <c r="C20"/>
+      <c r="D20"/>
+      <c r="E20" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21"/>
+      <c r="E21" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22"/>
+      <c r="C22"/>
+      <c r="D22"/>
+      <c r="E22" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="3"/>
+      <c r="B23"/>
+      <c r="C23"/>
+      <c r="D23"/>
+      <c r="E23" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3"/>
+      <c r="B24"/>
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3"/>
+      <c r="B25"/>
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25" s="7"/>
+    </row>
+    <row r="26" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3"/>
+      <c r="B26"/>
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3"/>
+      <c r="B27"/>
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3"/>
+      <c r="B28"/>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3"/>
+      <c r="B29"/>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29" s="7"/>
+    </row>
+    <row r="30" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3"/>
+      <c r="B30"/>
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30" s="7"/>
+    </row>
+    <row r="31" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3"/>
+      <c r="B31"/>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="B32"/>
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="B33"/>
+      <c r="C33"/>
+      <c r="D33"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3"/>
+      <c r="B34"/>
+      <c r="C34"/>
+      <c r="D34"/>
+      <c r="E34" s="7"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
+      <c r="M34"/>
+      <c r="N34"/>
+      <c r="O34"/>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34"/>
+      <c r="S34"/>
+      <c r="T34"/>
+      <c r="U34"/>
+      <c r="V34"/>
+      <c r="W34"/>
+      <c r="X34"/>
+    </row>
+    <row r="35" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3"/>
+      <c r="B35"/>
+      <c r="C35"/>
+      <c r="D35"/>
+      <c r="E35" s="7"/>
+      <c r="J35"/>
+      <c r="K35"/>
+      <c r="L35"/>
+      <c r="M35"/>
+      <c r="N35"/>
+      <c r="O35"/>
+      <c r="P35"/>
+      <c r="Q35"/>
+      <c r="R35"/>
+      <c r="S35"/>
+      <c r="T35"/>
+      <c r="U35"/>
+      <c r="V35"/>
+      <c r="W35"/>
+      <c r="X35"/>
+    </row>
+    <row r="36" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36"/>
+      <c r="C36"/>
+      <c r="D36"/>
+      <c r="E36" s="7"/>
+      <c r="J36"/>
+      <c r="K36"/>
+      <c r="L36"/>
+      <c r="M36"/>
+      <c r="N36"/>
+      <c r="O36"/>
+      <c r="P36"/>
+      <c r="Q36"/>
+      <c r="R36"/>
+      <c r="S36"/>
+      <c r="T36"/>
+      <c r="U36"/>
+      <c r="V36"/>
+      <c r="W36"/>
+      <c r="X36"/>
+    </row>
+    <row r="37" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3"/>
+      <c r="B37"/>
+      <c r="C37"/>
+      <c r="D37"/>
+      <c r="E37" s="7"/>
+      <c r="J37"/>
+      <c r="K37"/>
+      <c r="L37"/>
+      <c r="M37"/>
+      <c r="N37"/>
+      <c r="O37"/>
+      <c r="P37"/>
+      <c r="Q37"/>
+      <c r="R37"/>
+      <c r="S37"/>
+      <c r="T37"/>
+      <c r="U37"/>
+      <c r="V37"/>
+      <c r="W37"/>
+      <c r="X37"/>
+    </row>
+    <row r="38" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38"/>
+      <c r="C38"/>
+      <c r="D38"/>
+      <c r="E38" s="7"/>
+      <c r="J38"/>
+      <c r="K38"/>
+      <c r="L38"/>
+      <c r="M38"/>
+      <c r="N38"/>
+      <c r="O38"/>
+      <c r="P38"/>
+      <c r="Q38"/>
+      <c r="R38"/>
+      <c r="S38"/>
+      <c r="T38"/>
+      <c r="U38"/>
+      <c r="V38"/>
+      <c r="W38"/>
+      <c r="X38"/>
+    </row>
+    <row r="39" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39"/>
+      <c r="C39"/>
+      <c r="D39"/>
+      <c r="E39" s="7"/>
+      <c r="J39"/>
+      <c r="K39"/>
+      <c r="L39"/>
+      <c r="M39"/>
+      <c r="N39"/>
+      <c r="O39"/>
+      <c r="P39"/>
+      <c r="Q39"/>
+      <c r="R39"/>
+      <c r="S39"/>
+      <c r="T39"/>
+      <c r="U39"/>
+      <c r="V39"/>
+      <c r="W39"/>
+      <c r="X39"/>
+    </row>
+    <row r="40" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40" s="7"/>
+      <c r="J40"/>
+      <c r="K40"/>
+      <c r="L40"/>
+      <c r="M40"/>
+      <c r="N40"/>
+      <c r="O40"/>
+      <c r="P40"/>
+      <c r="Q40"/>
+      <c r="R40"/>
+      <c r="S40"/>
+      <c r="T40"/>
+      <c r="U40"/>
+      <c r="V40"/>
+      <c r="W40"/>
+      <c r="X40"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+    </row>
+    <row r="1763" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1763" s="16"/>
+      <c r="B1763" s="16"/>
+      <c r="C1763" s="16" t="s">
+        <v>305</v>
+      </c>
+      <c r="D1763" s="16"/>
+      <c r="G1763" s="16">
+        <v>23942.73</v>
+      </c>
+      <c r="H1763" s="16">
+        <v>736016.15</v>
+      </c>
+      <c r="I1763" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1763" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1763" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1763" s="16"/>
+      <c r="M1763" s="16">
+        <v>736016.15</v>
+      </c>
+      <c r="N1763" s="16" t="s">
+        <v>307</v>
+      </c>
+      <c r="O1763" s="16"/>
+      <c r="P1763" s="16"/>
+      <c r="Q1763" s="16"/>
+      <c r="R1763" s="16" t="s">
+        <v>306</v>
+      </c>
+      <c r="S1763" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1763" s="16"/>
+      <c r="U1763" s="16"/>
+      <c r="V1763" s="16"/>
+      <c r="W1763" s="16"/>
+      <c r="X1763" s="16"/>
+    </row>
+    <row r="1764" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1764" s="16" t="s">
+        <v>308</v>
+      </c>
+      <c r="B1764" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1764" s="16" t="s">
+        <v>314</v>
+      </c>
+      <c r="D1764" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="G1764" s="16">
+        <v>2342.17</v>
+      </c>
+      <c r="H1764" s="16">
+        <v>72000</v>
+      </c>
+      <c r="I1764" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1764" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1764" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1764" s="16"/>
+      <c r="M1764" s="16">
+        <v>72000</v>
+      </c>
+      <c r="N1764" s="16" t="s">
+        <v>316</v>
+      </c>
+      <c r="O1764" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1764" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="Q1764" s="16" t="s">
+        <v>313</v>
+      </c>
+      <c r="R1764" s="16" t="s">
+        <v>315</v>
+      </c>
+      <c r="S1764" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1764" s="16"/>
+      <c r="U1764" s="16"/>
+      <c r="V1764" s="16"/>
+      <c r="W1764" s="16"/>
+      <c r="X1764" s="16"/>
+    </row>
+    <row r="1765" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1765" s="16" t="s">
+        <v>317</v>
+      </c>
+      <c r="B1765" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1765" s="16" t="s">
+        <v>322</v>
+      </c>
+      <c r="D1765" s="16" t="s">
+        <v>318</v>
+      </c>
+      <c r="E1765" s="22">
+        <v>736016.15</v>
+      </c>
+      <c r="F1765" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1765" s="16">
+        <v>23519.38</v>
+      </c>
+      <c r="H1765" s="16">
+        <v>723002.17</v>
+      </c>
+      <c r="I1765" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1765" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1765" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1765" s="16"/>
+      <c r="M1765" s="16">
+        <v>723002.17</v>
+      </c>
+      <c r="N1765" s="16" t="s">
+        <v>324</v>
+      </c>
+      <c r="O1765" s="16" t="s">
+        <v>319</v>
+      </c>
+      <c r="P1765" s="16" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q1765" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="R1765" s="16" t="s">
+        <v>323</v>
+      </c>
+      <c r="S1765" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1765" s="16"/>
+      <c r="U1765" s="16"/>
+      <c r="V1765" s="16"/>
+      <c r="W1765" s="16"/>
+      <c r="X1765" s="16"/>
+    </row>
+    <row r="1766" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1766" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1766" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1766" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1766" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1766" s="22">
+        <v>72000</v>
+      </c>
+      <c r="F1766" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1766" s="16">
+        <v>161.66999999999999</v>
+      </c>
+      <c r="H1766" s="16">
+        <v>4970</v>
+      </c>
+      <c r="I1766" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1766" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1766" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1766" s="16"/>
+      <c r="M1766" s="16">
+        <v>4970</v>
+      </c>
+      <c r="N1766" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="O1766" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1766" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1766" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1766" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="S1766" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1766" s="16"/>
+      <c r="U1766" s="16"/>
+      <c r="V1766" s="16"/>
+      <c r="W1766" s="16"/>
+      <c r="X1766" s="16"/>
+    </row>
+    <row r="1767" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1767" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1767" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1767" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1767" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1767" s="22">
+        <v>723002.17</v>
+      </c>
+      <c r="F1767" s="16">
+        <v>16900.55</v>
+      </c>
+      <c r="G1767" s="16">
+        <v>300.43</v>
+      </c>
+      <c r="H1767" s="16">
+        <v>9235.48</v>
+      </c>
+      <c r="I1767" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1767" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1767" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1767" s="16"/>
+      <c r="M1767" s="16">
+        <v>9235.48</v>
+      </c>
+      <c r="N1767" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="O1767" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1767" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1767" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1767" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="S1767" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1767" s="16"/>
+      <c r="U1767" s="16"/>
+      <c r="V1767" s="16"/>
+      <c r="W1767" s="16"/>
+      <c r="X1767" s="16"/>
+    </row>
+    <row r="1768" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1768" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1768" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1768" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1768" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1768" s="22">
+        <v>4970</v>
+      </c>
+      <c r="F1768" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1768" s="16">
+        <v>388.74</v>
+      </c>
+      <c r="H1768" s="16">
+        <v>11950</v>
+      </c>
+      <c r="I1768" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1768" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1768" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1768" s="16"/>
+      <c r="M1768" s="16">
+        <v>11950</v>
+      </c>
+      <c r="N1768" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="O1768" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1768" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1768" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1768" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="S1768" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1768" s="16"/>
+      <c r="U1768" s="16"/>
+      <c r="V1768" s="16"/>
+      <c r="W1768" s="16"/>
+      <c r="X1768" s="16"/>
+    </row>
+    <row r="1769" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1769" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1769" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1769" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1769" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1769" s="22">
+        <v>9235.48</v>
+      </c>
+      <c r="F1769" s="16">
+        <v>161.84</v>
+      </c>
+      <c r="G1769" s="16">
+        <v>450.44</v>
+      </c>
+      <c r="H1769" s="16">
+        <v>13846.96</v>
+      </c>
+      <c r="I1769" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1769" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1769" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1769" s="16"/>
+      <c r="M1769" s="16">
+        <v>13846.96</v>
+      </c>
+      <c r="N1769" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="O1769" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1769" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1769" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1769" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="S1769" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1769" s="16"/>
+      <c r="U1769" s="16"/>
+      <c r="V1769" s="16"/>
+      <c r="W1769" s="16"/>
+      <c r="X1769" s="16"/>
+    </row>
+    <row r="1770" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1770" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1770" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1770" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1770" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1770" s="22">
+        <v>11950</v>
+      </c>
+      <c r="F1770" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1770" s="16">
+        <v>1997.29</v>
+      </c>
+      <c r="H1770" s="16">
+        <v>61398</v>
+      </c>
+      <c r="I1770" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1770" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1770" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1770" s="16"/>
+      <c r="M1770" s="16">
+        <v>61398</v>
+      </c>
+      <c r="N1770" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="O1770" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1770" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1770" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1770" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="S1770" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1770" s="16"/>
+      <c r="U1770" s="16"/>
+      <c r="V1770" s="16"/>
+      <c r="W1770" s="16"/>
+      <c r="X1770" s="16"/>
+    </row>
+    <row r="1771" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1771" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1771" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1771" s="16"/>
+      <c r="D1771" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1771" s="22">
+        <v>13846.96</v>
+      </c>
+      <c r="F1771" s="16">
+        <v>323.68</v>
+      </c>
+      <c r="G1771" s="16"/>
+      <c r="H1771" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1771" s="16">
+        <v>14000</v>
+      </c>
+      <c r="J1771" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1771" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1771" s="16"/>
+      <c r="M1771" s="16">
+        <v>14000</v>
+      </c>
+      <c r="N1771" s="16"/>
+      <c r="O1771" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1771" s="16"/>
+      <c r="Q1771" s="16"/>
+      <c r="R1771" s="16"/>
+      <c r="S1771" s="16"/>
+      <c r="T1771" s="16"/>
+      <c r="U1771" s="16"/>
+      <c r="V1771" s="16"/>
+      <c r="W1771" s="16"/>
+      <c r="X1771" s="16"/>
+    </row>
+    <row r="1772" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1772" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1772" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1772" s="16"/>
+      <c r="D1772" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1772" s="22">
+        <v>61398</v>
+      </c>
+      <c r="F1772" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1772" s="16"/>
+      <c r="H1772" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1772" s="16">
+        <v>7150</v>
+      </c>
+      <c r="J1772" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1772" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1772" s="16"/>
+      <c r="M1772" s="16">
+        <v>7150</v>
+      </c>
+      <c r="N1772" s="16"/>
+      <c r="O1772" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1772" s="16"/>
+      <c r="Q1772" s="16"/>
+      <c r="R1772" s="16"/>
+      <c r="S1772" s="16"/>
+      <c r="T1772" s="16"/>
+      <c r="U1772" s="16"/>
+      <c r="V1772" s="16"/>
+      <c r="W1772" s="16"/>
+      <c r="X1772" s="16"/>
+    </row>
+    <row r="1773" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1773" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1773" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1773" s="16"/>
+      <c r="D1773" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1773" s="22"/>
+      <c r="F1773" s="16"/>
+      <c r="G1773" s="16"/>
+      <c r="H1773" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1773" s="16">
+        <v>1100</v>
+      </c>
+      <c r="J1773" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1773" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1773" s="16"/>
+      <c r="M1773" s="16">
+        <v>1100</v>
+      </c>
+      <c r="N1773" s="16"/>
+      <c r="O1773" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1773" s="16"/>
+      <c r="Q1773" s="16"/>
+      <c r="R1773" s="16"/>
+      <c r="S1773" s="16"/>
+      <c r="T1773" s="16"/>
+      <c r="U1773" s="16"/>
+      <c r="V1773" s="16"/>
+      <c r="W1773" s="16"/>
+      <c r="X1773" s="16"/>
+    </row>
+    <row r="1774" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1774" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1774" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1774" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1774" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1774" s="22"/>
+      <c r="F1774" s="16"/>
+      <c r="G1774" s="16">
+        <v>136.63</v>
+      </c>
+      <c r="H1774" s="16">
+        <v>4200</v>
+      </c>
+      <c r="I1774" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1774" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1774" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1774" s="16"/>
+      <c r="M1774" s="16">
+        <v>4200</v>
+      </c>
+      <c r="N1774" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="O1774" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1774" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1774" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1774" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="S1774" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1774" s="16"/>
+      <c r="U1774" s="16"/>
+      <c r="V1774" s="16"/>
+      <c r="W1774" s="16"/>
+      <c r="X1774" s="16"/>
+    </row>
+    <row r="1775" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1775" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1775" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1775" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1775" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1775" s="22"/>
+      <c r="F1775" s="16"/>
+      <c r="G1775" s="16">
+        <v>650.6</v>
+      </c>
+      <c r="H1775" s="16">
+        <v>20000</v>
+      </c>
+      <c r="I1775" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1775" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1775" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1775" s="16"/>
+      <c r="M1775" s="16">
+        <v>20000</v>
+      </c>
+      <c r="N1775" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="O1775" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1775" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q1775" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="R1775" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="S1775" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1775" s="16"/>
+      <c r="U1775" s="16"/>
+      <c r="V1775" s="16"/>
+      <c r="W1775" s="16"/>
+      <c r="X1775" s="16"/>
+    </row>
+    <row r="1776" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1776" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1776" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1776" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1776" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1776" s="22">
+        <v>4200</v>
+      </c>
+      <c r="F1776" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1776" s="16">
+        <v>78.37</v>
+      </c>
+      <c r="H1776" s="16">
+        <v>2409</v>
+      </c>
+      <c r="I1776" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1776" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1776" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1776" s="16"/>
+      <c r="M1776" s="16">
+        <v>2409</v>
+      </c>
+      <c r="N1776" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="O1776" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1776" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1776" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1776" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="S1776" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1776" s="16"/>
+      <c r="U1776" s="16"/>
+      <c r="V1776" s="16"/>
+      <c r="W1776" s="16"/>
+      <c r="X1776" s="16"/>
+    </row>
+    <row r="1777" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1777" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1777" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1777" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1777" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1777" s="22">
+        <v>320000</v>
+      </c>
+      <c r="F1777" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1777" s="16">
+        <v>11758.05</v>
+      </c>
+      <c r="H1777" s="16">
+        <v>361450.61</v>
+      </c>
+      <c r="I1777" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1777" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1777" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1777" s="16"/>
+      <c r="M1777" s="16">
+        <v>361450.61</v>
+      </c>
+      <c r="N1777" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="O1777" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1777" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1777" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="R1777" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1777" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1777" s="16"/>
+      <c r="U1777" s="16"/>
+      <c r="V1777" s="16"/>
+      <c r="W1777" s="16"/>
+      <c r="X1777" s="16"/>
+    </row>
+    <row r="1778" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1778" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1778" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1778" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1778" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1778" s="22">
+        <v>2409</v>
+      </c>
+      <c r="F1778" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1778" s="16">
+        <v>1073.5</v>
+      </c>
+      <c r="H1778" s="16">
+        <v>33000</v>
+      </c>
+      <c r="I1778" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1778" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1778" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1778" s="16"/>
+      <c r="M1778" s="16">
+        <v>33000</v>
+      </c>
+      <c r="N1778" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="O1778" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1778" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1778" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="R1778" s="16"/>
+      <c r="S1778" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1778" s="16"/>
+      <c r="U1778" s="16"/>
+      <c r="V1778" s="16"/>
+      <c r="W1778" s="16"/>
+      <c r="X1778" s="16"/>
+    </row>
+    <row r="1779" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1779" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1779" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1779" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1779" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1779" s="22">
+        <v>361450.61</v>
+      </c>
+      <c r="F1779" s="16">
+        <v>8828.5</v>
+      </c>
+      <c r="G1779" s="16">
+        <v>267.5</v>
+      </c>
+      <c r="H1779" s="16">
+        <v>8223</v>
+      </c>
+      <c r="I1779" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1779" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1779" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1779" s="16"/>
+      <c r="M1779" s="16">
+        <v>8223</v>
+      </c>
+      <c r="N1779" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="O1779" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1779" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1779" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1779" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="S1779" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1779" s="16"/>
+      <c r="U1779" s="16"/>
+      <c r="V1779" s="16"/>
+      <c r="W1779" s="16"/>
+      <c r="X1779" s="16"/>
+    </row>
+    <row r="1780" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1780" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1780" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1780" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1780" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1780" s="22">
+        <v>477000</v>
+      </c>
+      <c r="F1780" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1780" s="16">
+        <v>406.63</v>
+      </c>
+      <c r="H1780" s="16">
+        <v>12500</v>
+      </c>
+      <c r="I1780" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1780" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1780" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1780" s="16"/>
+      <c r="M1780" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N1780" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="O1780" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1780" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1780" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1780" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="S1780" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1780" s="16"/>
+      <c r="U1780" s="16"/>
+      <c r="V1780" s="16"/>
+      <c r="W1780" s="16"/>
+      <c r="X1780" s="16"/>
+    </row>
+    <row r="1781" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1781" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1781" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1781" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1781" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1781" s="22">
+        <v>8223</v>
+      </c>
+      <c r="F1781" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1781" s="16">
+        <v>3366.87</v>
+      </c>
+      <c r="H1781" s="16">
+        <v>103500</v>
+      </c>
+      <c r="I1781" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1781" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1781" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1781" s="16"/>
+      <c r="M1781" s="16">
+        <v>103500</v>
+      </c>
+      <c r="N1781" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1781" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1781" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1781" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1781" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1781" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1781" s="16"/>
+      <c r="U1781" s="16"/>
+      <c r="V1781" s="16"/>
+      <c r="W1781" s="16"/>
+      <c r="X1781" s="16"/>
+    </row>
+    <row r="1782" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1782" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1782" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1782" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1782" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1782" s="22">
+        <v>12500</v>
+      </c>
+      <c r="F1782" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1782" s="16">
+        <v>44.95</v>
+      </c>
+      <c r="H1782" s="16">
+        <v>1381.79</v>
+      </c>
+      <c r="I1782" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1782" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1782" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1782" s="16"/>
+      <c r="M1782" s="16">
+        <v>1381.79</v>
+      </c>
+      <c r="N1782" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="O1782" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1782" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1782" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1782" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="S1782" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1782" s="16"/>
+      <c r="U1782" s="16"/>
+      <c r="V1782" s="16"/>
+      <c r="W1782" s="16"/>
+      <c r="X1782" s="16"/>
+    </row>
+    <row r="1783" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1783" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1783" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1783" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1783" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1783" s="22">
+        <v>103500</v>
+      </c>
+      <c r="F1783" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1783" s="16">
+        <v>45.54</v>
+      </c>
+      <c r="H1783" s="16">
+        <v>1400</v>
+      </c>
+      <c r="I1783" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1783" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1783" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1783" s="16"/>
+      <c r="M1783" s="16">
+        <v>1400</v>
+      </c>
+      <c r="N1783" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="O1783" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1783" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1783" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1783" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1783" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1783" s="16"/>
+      <c r="U1783" s="16"/>
+      <c r="V1783" s="16"/>
+      <c r="W1783" s="16"/>
+      <c r="X1783" s="16"/>
+    </row>
+    <row r="1784" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1784" t="s">
+        <v>417</v>
+      </c>
+      <c r="B1784" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>418</v>
+      </c>
+      <c r="E1784" s="22">
+        <v>1381.76</v>
+      </c>
+      <c r="F1784" s="16">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="O1784" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1784" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1784" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1785"/>
+      <c r="B1785"/>
+      <c r="C1785"/>
+      <c r="D1785"/>
+      <c r="E1785" s="22">
+        <v>1400</v>
+      </c>
+      <c r="F1785" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1785"/>
+      <c r="K1785"/>
+      <c r="L1785"/>
+      <c r="M1785"/>
+      <c r="N1785"/>
+      <c r="O1785"/>
+      <c r="P1785"/>
+      <c r="Q1785"/>
+      <c r="R1785"/>
+      <c r="S1785"/>
+      <c r="T1785"/>
+      <c r="U1785"/>
+      <c r="V1785"/>
+      <c r="W1785"/>
+      <c r="X1785"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:X14"/>
+  <mergeCells count="1">
+    <mergeCell ref="A4:D4"/>
+  </mergeCells>
+  <pageMargins left="0.13541666666666666" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;LPavel Khrapkin &amp; Alexander Pass&amp;Cmstch 2.1&amp;R&amp;D &amp;T</oddHeader>
+    <oddFooter>&amp;C&amp;P</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet5">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:X1921"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D152" sqref="D152"/>
     </sheetView>
   </sheetViews>
@@ -6647,7 +8750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
     <pageSetUpPr fitToPage="1"/>
@@ -10176,7 +12279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>

--- a/matchCodes/Match_Modules.xlsx
+++ b/matchCodes/Match_Modules.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pavel_Khrapkin\Documents\Pavel\match\matchCodes\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="465" windowWidth="14805" windowHeight="7650"/>
   </bookViews>
@@ -14,18 +19,18 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Match!$A$1:$I$140</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'match 3.0'!$A$3:$X$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'match 3.0'!$A$3:$X$28</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">match2.0!$A$3:$X$137</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">match2.1!$A$3:$X$115</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'match 3.0'!$A$1:$H$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'match 3.0'!$A$1:$H$41</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">match2.1!$A$1:$H$159</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1857" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1908" uniqueCount="721">
   <si>
     <t>дата</t>
   </si>
@@ -2028,25 +2033,208 @@
     <t>C#</t>
   </si>
   <si>
-    <t>Beginning</t>
-  </si>
-  <si>
-    <t>Начало работы</t>
-  </si>
-  <si>
     <t>Document</t>
   </si>
   <si>
-    <t>Класс Документов</t>
-  </si>
-  <si>
-    <t>EOL</t>
-  </si>
-  <si>
-    <t>int EOL(Excel.Worksheet Sh)</t>
-  </si>
-  <si>
-    <t>возвращает число строк в листе Sh</t>
+    <t>namespace</t>
+  </si>
+  <si>
+    <t>класс</t>
+  </si>
+  <si>
+    <t>метод</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>match</t>
+  </si>
+  <si>
+    <t>отладка и головная программа</t>
+  </si>
+  <si>
+    <t>match.Declaration</t>
+  </si>
+  <si>
+    <t>Declaration</t>
+  </si>
+  <si>
+    <t>все глобальные константы</t>
+  </si>
+  <si>
+    <t>match.Lib</t>
+  </si>
+  <si>
+    <t>EOL(Excel.Worksheet Sh)</t>
+  </si>
+  <si>
+    <t>возвращает число непустых строк листа Sh</t>
+  </si>
+  <si>
+    <t>ToStrList(Excel.Range rng)</t>
+  </si>
+  <si>
+    <t>возвращает лист строк, содержащийся в ячеках</t>
+  </si>
+  <si>
+    <t>ToStrList(string s, [char Separator=',')</t>
+  </si>
+  <si>
+    <t>возвращает лист подстрок из строки s с разделителем separator</t>
+  </si>
+  <si>
+    <t>ToIntList(string s, [char Separator=',')</t>
+  </si>
+  <si>
+    <t>возвращает лист целых из строки s с разделителем separator</t>
+  </si>
+  <si>
+    <t>isCellEmpty(sh,row,col)</t>
+  </si>
+  <si>
+    <t>возвращает true, если ячейка листа sh[rw,col] пуста или строка с пробелами</t>
+  </si>
+  <si>
+    <t>Log</t>
+  </si>
+  <si>
+    <t>Log(string msg)</t>
+  </si>
+  <si>
+    <t>запись сообщения msg в Log-файл</t>
+  </si>
+  <si>
+    <t>записывает имя sub в стек подпрограмм</t>
+  </si>
+  <si>
+    <t>выход из подпрограммы -- удаляет верхушку стека подпрограмм</t>
+  </si>
+  <si>
+    <t>Log.set(string sub)</t>
+  </si>
+  <si>
+    <t>Log.exit()</t>
+  </si>
+  <si>
+    <t>Log.FATAL(string msg)</t>
+  </si>
+  <si>
+    <t>сообщение msg и остановка по фатальной ошибке</t>
+  </si>
+  <si>
+    <t>Log.Warning(string msg)</t>
+  </si>
+  <si>
+    <t>сообщение - предупреждение</t>
+  </si>
+  <si>
+    <t>match.MyFile</t>
+  </si>
+  <si>
+    <t>FileOpenEvent</t>
+  </si>
+  <si>
+    <t>библиотека общих подпрограмм</t>
+  </si>
+  <si>
+    <t>fileOpen(string name)</t>
+  </si>
+  <si>
+    <t>открывает файл по имени name в приложении Excel или в DirDBs</t>
+  </si>
+  <si>
+    <t>match.Document</t>
+  </si>
+  <si>
+    <t>Document()</t>
+  </si>
+  <si>
+    <t>статическая таблица параметров всех Документов из TOCmatch</t>
+  </si>
+  <si>
+    <t>loadDoc(string name, workbook)</t>
+  </si>
+  <si>
+    <t>обновление содержимого Документа name из файла wb</t>
+  </si>
+  <si>
+    <t>getDoc(string name)</t>
+  </si>
+  <si>
+    <t>загрузка Документа name, если надо - с диска</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>таблица и диспетчер всех известных системе Процессов</t>
+  </si>
+  <si>
+    <t>Process()</t>
+  </si>
+  <si>
+    <t>статический конструктор таблицы Процессов -- строится из match.xlsm\Process</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt; Run(string name)</t>
+  </si>
+  <si>
+    <t>выполнение Процесса name. Возвращает List&lt;int&gt; результаты</t>
+  </si>
+  <si>
+    <t>List&lt;int&gt; Reset(string name)</t>
+  </si>
+  <si>
+    <t>сброс и затем выполнение (Run) Процесса name</t>
+  </si>
+  <si>
+    <t>Step</t>
+  </si>
+  <si>
+    <t>Step()</t>
+  </si>
+  <si>
+    <t>статический конструктор таблицы Шагов Процесса -- строится из строки Process</t>
+  </si>
+  <si>
+    <t>Reset()</t>
+  </si>
+  <si>
+    <t>сброс статуса "done" для Шага</t>
+  </si>
+  <si>
+    <t>Exec()</t>
+  </si>
+  <si>
+    <t>запуск исполнения Шага в Handler.cs через Invoke</t>
+  </si>
+  <si>
+    <t>match.Process</t>
+  </si>
+  <si>
+    <t>match.Handler</t>
+  </si>
+  <si>
+    <t>Handler</t>
+  </si>
+  <si>
+    <t>Handler(List&lt;str&gt;params,List&lt;str&gt;docs&gt;)</t>
+  </si>
+  <si>
+    <t>динамический конструктор Шага -- получает параметры и Документы от Step.Exec</t>
+  </si>
+  <si>
+    <t>InsMyCol()</t>
+  </si>
+  <si>
+    <t>вставляет колонки слева в Документ</t>
+  </si>
+  <si>
+    <t>статический конструктор таблицы Документов -- строится из match.xlsm\TOCmatch</t>
   </si>
 </sst>
 </file>
@@ -2056,7 +2244,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2133,6 +2321,13 @@
       <name val="Arial Black"/>
       <family val="2"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -2289,7 +2484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2361,12 +2556,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2383,6 +2572,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2504,7 +2701,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2539,7 +2736,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2751,10 +2948,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X1785"/>
+  <dimension ref="A1:X1803"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2765,7 +2962,7 @@
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" style="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.42578125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="28.42578125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="67.140625" style="8" customWidth="1"/>
     <col min="8" max="8" width="36.42578125" style="8" customWidth="1"/>
     <col min="9" max="9" width="28.42578125" style="8" customWidth="1"/>
     <col min="10" max="10" width="20.140625" customWidth="1"/>
@@ -2773,447 +2970,563 @@
     <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="47" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="44">
-        <v>41604</v>
-      </c>
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="1:9" s="45" customFormat="1" ht="20.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42">
+        <f>MAX(A2:A28)</f>
+        <v>41646</v>
+      </c>
+      <c r="B1" s="46" t="s">
         <v>652</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="43" t="s">
         <v>651</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-    </row>
-    <row r="3" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D1" s="43"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="3" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>1</v>
+        <v>654</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>10</v>
+        <v>655</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="G3" s="9"/>
+        <v>656</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>657</v>
+      </c>
       <c r="H3" s="9"/>
       <c r="I3" s="9"/>
     </row>
-    <row r="4" spans="1:24" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>41646</v>
+      </c>
+      <c r="B4" t="s">
+        <v>659</v>
+      </c>
+      <c r="C4" t="s">
+        <v>658</v>
+      </c>
+      <c r="D4">
+        <v>31</v>
+      </c>
+      <c r="E4"/>
+      <c r="G4" s="47" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
-        <v>41603</v>
+        <v>41646</v>
       </c>
       <c r="B5" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="C5" t="s">
-        <v>654</v>
+        <v>662</v>
       </c>
       <c r="D5">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="E5"/>
-    </row>
-    <row r="6" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="47" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="8" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
-        <v>41604</v>
+        <f>MAX(A7:A21)</f>
+        <v>41646</v>
       </c>
       <c r="B6" t="s">
-        <v>655</v>
+        <v>713</v>
       </c>
       <c r="C6" t="s">
-        <v>656</v>
+        <v>698</v>
       </c>
       <c r="D6">
-        <v>137</v>
-      </c>
-      <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:24" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>227</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G6" s="47" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
-        <v>41182</v>
+        <v>41640</v>
       </c>
       <c r="B7"/>
-      <c r="C7"/>
+      <c r="C7" t="s">
+        <v>698</v>
+      </c>
       <c r="D7"/>
-      <c r="E7" s="7" t="s">
-        <v>74</v>
-      </c>
+      <c r="E7" s="7"/>
       <c r="F7" s="17" t="s">
-        <v>565</v>
+        <v>700</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25">
-        <v>41224</v>
+        <v>41639</v>
       </c>
       <c r="B8"/>
       <c r="C8"/>
       <c r="D8"/>
       <c r="E8" s="7" t="s">
-        <v>452</v>
+        <v>192</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>462</v>
+        <v>702</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25">
-        <v>41183</v>
+        <v>41640</v>
       </c>
       <c r="B9"/>
       <c r="C9"/>
       <c r="D9"/>
-      <c r="E9" s="7" t="s">
-        <v>452</v>
-      </c>
+      <c r="E9" s="7"/>
       <c r="F9" s="17" t="s">
-        <v>567</v>
+        <v>704</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="25">
-        <v>41510</v>
-      </c>
+        <v>705</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
       <c r="B10"/>
-      <c r="C10"/>
+      <c r="C10" t="s">
+        <v>706</v>
+      </c>
       <c r="D10"/>
-      <c r="E10" s="23" t="s">
-        <v>452</v>
-      </c>
+      <c r="E10" s="7"/>
       <c r="F10" s="17" t="s">
-        <v>613</v>
+        <v>707</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="25">
-        <v>41531</v>
-      </c>
+        <v>708</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11"/>
-      <c r="E11" s="7" t="s">
-        <v>452</v>
-      </c>
+      <c r="E11" s="7"/>
       <c r="F11" s="17" t="s">
-        <v>638</v>
+        <v>709</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
-        <v>41531</v>
+        <v>41646</v>
       </c>
       <c r="B12"/>
       <c r="C12"/>
       <c r="D12"/>
       <c r="E12" s="7" t="s">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>640</v>
+        <v>711</v>
       </c>
       <c r="G12" s="8" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="8" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="8" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
-        <v>41603</v>
+        <f>MAX(A14:A28)</f>
+        <v>41646</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>714</v>
       </c>
       <c r="C13" t="s">
-        <v>303</v>
+        <v>715</v>
       </c>
       <c r="D13">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="24"/>
-    </row>
-    <row r="14" spans="1:24" s="8" customFormat="1" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G13" s="47" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
-        <v>41603</v>
-      </c>
-      <c r="B14" t="s">
-        <v>657</v>
-      </c>
-      <c r="C14"/>
+        <v>41640</v>
+      </c>
+      <c r="B14"/>
+      <c r="C14" t="s">
+        <v>715</v>
+      </c>
       <c r="D14"/>
-      <c r="E14" s="7" t="s">
-        <v>558</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>658</v>
+      <c r="E14" s="7"/>
+      <c r="F14" s="17" t="s">
+        <v>716</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" s="8" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="26"/>
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27">
-        <f>SUM(D4:D14)</f>
-        <v>210</v>
-      </c>
-      <c r="E15" s="28"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
-      <c r="M15"/>
-      <c r="N15"/>
-      <c r="O15"/>
-      <c r="P15"/>
-      <c r="Q15"/>
-      <c r="R15"/>
-      <c r="S15"/>
-      <c r="T15"/>
-      <c r="U15"/>
-      <c r="V15"/>
-      <c r="W15"/>
-      <c r="X15"/>
-    </row>
-    <row r="16" spans="1:24" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16"/>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16" s="7"/>
-      <c r="J16"/>
-      <c r="K16"/>
-      <c r="L16"/>
-      <c r="M16"/>
-      <c r="N16"/>
-      <c r="O16"/>
-      <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16"/>
-      <c r="S16"/>
-      <c r="T16"/>
-      <c r="U16"/>
-      <c r="V16"/>
-      <c r="W16"/>
-      <c r="X16"/>
-    </row>
-    <row r="17" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
+        <v>717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="25">
+        <v>41646</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="17" t="s">
+        <v>718</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="8" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>41646</v>
+      </c>
+      <c r="B16" t="s">
+        <v>664</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <f>393-D22</f>
+        <v>366</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="47" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="25">
+        <v>41636</v>
+      </c>
       <c r="B17"/>
-      <c r="C17"/>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
       <c r="D17"/>
-      <c r="E17" s="19" t="s">
-        <v>458</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="J17"/>
-      <c r="K17"/>
-      <c r="L17"/>
-      <c r="M17"/>
-      <c r="N17"/>
-      <c r="O17"/>
-      <c r="P17"/>
-      <c r="Q17"/>
-      <c r="R17"/>
-      <c r="S17"/>
-      <c r="T17"/>
-      <c r="U17"/>
-      <c r="V17"/>
-      <c r="W17"/>
-      <c r="X17"/>
-    </row>
-    <row r="18" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="17" t="s">
+        <v>665</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="25">
+        <v>37256</v>
+      </c>
       <c r="B18"/>
       <c r="C18"/>
       <c r="D18"/>
-      <c r="E18" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="17" t="s">
+        <v>667</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="25">
+        <v>41640</v>
+      </c>
       <c r="B19"/>
       <c r="C19"/>
-      <c r="D19" t="s">
-        <v>232</v>
-      </c>
-      <c r="E19" s="20" t="s">
-        <v>301</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="D19"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="17" t="s">
+        <v>669</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="25">
+        <v>41620</v>
+      </c>
       <c r="B20"/>
       <c r="C20"/>
       <c r="D20"/>
-      <c r="E20" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="25">
+        <v>41621</v>
+      </c>
       <c r="B21"/>
       <c r="C21"/>
       <c r="D21"/>
-      <c r="E21" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="17" t="s">
+        <v>673</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="25">
+        <v>41638</v>
+      </c>
       <c r="B22"/>
-      <c r="C22"/>
-      <c r="D22"/>
-      <c r="E22" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
+      <c r="C22" t="s">
+        <v>675</v>
+      </c>
+      <c r="D22">
+        <v>27</v>
+      </c>
+      <c r="E22" s="7"/>
+      <c r="F22" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="25">
+        <v>41638</v>
+      </c>
       <c r="B23"/>
       <c r="C23"/>
       <c r="D23"/>
-      <c r="E23" s="21" t="s">
-        <v>233</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="17" t="s">
+        <v>680</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="25">
+        <v>41638</v>
+      </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24"/>
       <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="F24" s="17" t="s">
+        <v>681</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="25">
+        <v>41638</v>
+      </c>
       <c r="B25"/>
       <c r="C25"/>
       <c r="D25"/>
       <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="F25" s="17" t="s">
+        <v>682</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25">
+        <v>41638</v>
+      </c>
       <c r="B26"/>
       <c r="C26"/>
       <c r="D26"/>
       <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="F26" s="17" t="s">
+        <v>684</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" s="8" customFormat="1" ht="15.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>41646</v>
+      </c>
+      <c r="B27" t="s">
+        <v>686</v>
+      </c>
+      <c r="C27" t="s">
+        <v>687</v>
+      </c>
+      <c r="D27">
+        <v>85</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" s="17" t="s">
+        <v>689</v>
+      </c>
+      <c r="G27" s="48" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="8" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <f>MAX(A29:A32)</f>
+        <v>41646</v>
+      </c>
+      <c r="B28" t="s">
+        <v>691</v>
+      </c>
+      <c r="C28" t="s">
+        <v>653</v>
+      </c>
+      <c r="D28">
+        <v>437</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="G28" s="47" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25">
+        <v>41646</v>
+      </c>
       <c r="B29"/>
-      <c r="C29"/>
+      <c r="C29" t="s">
+        <v>653</v>
+      </c>
       <c r="D29"/>
       <c r="E29" s="7"/>
-    </row>
-    <row r="30" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="F29" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="G29" s="8" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="25"/>
       <c r="B30"/>
       <c r="C30"/>
       <c r="D30"/>
       <c r="E30" s="7"/>
-    </row>
-    <row r="31" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="F30" s="17" t="s">
+        <v>694</v>
+      </c>
+      <c r="G30" s="8" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" s="8" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="25">
+        <v>41640</v>
+      </c>
       <c r="B31"/>
       <c r="C31"/>
       <c r="D31"/>
       <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="3"/>
+      <c r="F31" s="17" t="s">
+        <v>696</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="8" customFormat="1" ht="15.75" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="25">
+        <v>41620</v>
+      </c>
       <c r="B32"/>
       <c r="C32"/>
       <c r="D32"/>
       <c r="E32" s="7"/>
-    </row>
-    <row r="33" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-      <c r="B33"/>
-      <c r="C33"/>
-      <c r="D33"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="17" t="s">
+        <v>671</v>
+      </c>
+      <c r="G32" s="8" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" s="8" customFormat="1" ht="15.75" collapsed="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27">
+        <f>SUM(D4:D28)</f>
+        <v>1321</v>
+      </c>
+      <c r="E33" s="28"/>
+      <c r="F33" s="29"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="29"/>
+      <c r="J33"/>
+      <c r="K33"/>
+      <c r="L33"/>
+      <c r="M33"/>
+      <c r="N33"/>
+      <c r="O33"/>
+      <c r="P33"/>
+      <c r="Q33"/>
+      <c r="R33"/>
+      <c r="S33"/>
+      <c r="T33"/>
+      <c r="U33"/>
+      <c r="V33"/>
+      <c r="W33"/>
+      <c r="X33"/>
+    </row>
+    <row r="34" spans="1:24" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34"/>
       <c r="C34"/>
@@ -3240,7 +3553,12 @@
       <c r="B35"/>
       <c r="C35"/>
       <c r="D35"/>
-      <c r="E35" s="7"/>
+      <c r="E35" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="F35" s="11" t="s">
+        <v>457</v>
+      </c>
       <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
@@ -3262,1240 +3580,380 @@
       <c r="B36"/>
       <c r="C36"/>
       <c r="D36"/>
-      <c r="E36" s="7"/>
-      <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36"/>
-      <c r="M36"/>
-      <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36"/>
-      <c r="Q36"/>
-      <c r="R36"/>
-      <c r="S36"/>
-      <c r="T36"/>
-      <c r="U36"/>
-      <c r="V36"/>
-      <c r="W36"/>
-      <c r="X36"/>
+      <c r="E36" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="37" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37"/>
       <c r="C37"/>
-      <c r="D37"/>
-      <c r="E37" s="7"/>
-      <c r="J37"/>
-      <c r="K37"/>
-      <c r="L37"/>
-      <c r="M37"/>
-      <c r="N37"/>
-      <c r="O37"/>
-      <c r="P37"/>
-      <c r="Q37"/>
-      <c r="R37"/>
-      <c r="S37"/>
-      <c r="T37"/>
-      <c r="U37"/>
-      <c r="V37"/>
-      <c r="W37"/>
-      <c r="X37"/>
+      <c r="D37" t="s">
+        <v>232</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>485</v>
+      </c>
     </row>
     <row r="38" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38"/>
-      <c r="E38" s="7"/>
-      <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38"/>
-      <c r="M38"/>
-      <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38"/>
-      <c r="Q38"/>
-      <c r="R38"/>
-      <c r="S38"/>
-      <c r="T38"/>
-      <c r="U38"/>
-      <c r="V38"/>
-      <c r="W38"/>
-      <c r="X38"/>
+      <c r="E38" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="39" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39"/>
       <c r="C39"/>
       <c r="D39"/>
-      <c r="E39" s="7"/>
-      <c r="J39"/>
-      <c r="K39"/>
-      <c r="L39"/>
-      <c r="M39"/>
-      <c r="N39"/>
-      <c r="O39"/>
-      <c r="P39"/>
-      <c r="Q39"/>
-      <c r="R39"/>
-      <c r="S39"/>
-      <c r="T39"/>
-      <c r="U39"/>
-      <c r="V39"/>
-      <c r="W39"/>
-      <c r="X39"/>
+      <c r="E39" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="40" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40"/>
       <c r="C40"/>
       <c r="D40"/>
-      <c r="E40" s="7"/>
-      <c r="J40"/>
-      <c r="K40"/>
-      <c r="L40"/>
-      <c r="M40"/>
-      <c r="N40"/>
-      <c r="O40"/>
-      <c r="P40"/>
-      <c r="Q40"/>
-      <c r="R40"/>
-      <c r="S40"/>
-      <c r="T40"/>
-      <c r="U40"/>
-      <c r="V40"/>
-      <c r="W40"/>
-      <c r="X40"/>
-    </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="E40" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" s="8" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
-    </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
-    </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43" s="7"/>
+    </row>
+    <row r="44" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
-    </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
-    </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B46"/>
+      <c r="C46"/>
+      <c r="D46"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
-    </row>
-    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B47"/>
+      <c r="C47"/>
+      <c r="D47"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B48"/>
+      <c r="C48"/>
+      <c r="D48"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49"/>
+      <c r="C49"/>
+      <c r="D49"/>
+      <c r="E49" s="7"/>
+    </row>
+    <row r="50" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B50"/>
+      <c r="C50"/>
+      <c r="D50"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B51"/>
+      <c r="C51"/>
+      <c r="D51"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B52"/>
+      <c r="C52"/>
+      <c r="D52"/>
+      <c r="E52" s="7"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
+      <c r="M52"/>
+      <c r="N52"/>
+      <c r="O52"/>
+      <c r="P52"/>
+      <c r="Q52"/>
+      <c r="R52"/>
+      <c r="S52"/>
+      <c r="T52"/>
+      <c r="U52"/>
+      <c r="V52"/>
+      <c r="W52"/>
+      <c r="X52"/>
+    </row>
+    <row r="53" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B53"/>
+      <c r="C53"/>
+      <c r="D53"/>
+      <c r="E53" s="7"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="M53"/>
+      <c r="N53"/>
+      <c r="O53"/>
+      <c r="P53"/>
+      <c r="Q53"/>
+      <c r="R53"/>
+      <c r="S53"/>
+      <c r="T53"/>
+      <c r="U53"/>
+      <c r="V53"/>
+      <c r="W53"/>
+      <c r="X53"/>
+    </row>
+    <row r="54" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B54"/>
+      <c r="C54"/>
+      <c r="D54"/>
+      <c r="E54" s="7"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
+      <c r="M54"/>
+      <c r="N54"/>
+      <c r="O54"/>
+      <c r="P54"/>
+      <c r="Q54"/>
+      <c r="R54"/>
+      <c r="S54"/>
+      <c r="T54"/>
+      <c r="U54"/>
+      <c r="V54"/>
+      <c r="W54"/>
+      <c r="X54"/>
+    </row>
+    <row r="55" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="3"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B55"/>
+      <c r="C55"/>
+      <c r="D55"/>
+      <c r="E55" s="7"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
+      <c r="M55"/>
+      <c r="N55"/>
+      <c r="O55"/>
+      <c r="P55"/>
+      <c r="Q55"/>
+      <c r="R55"/>
+      <c r="S55"/>
+      <c r="T55"/>
+      <c r="U55"/>
+      <c r="V55"/>
+      <c r="W55"/>
+      <c r="X55"/>
+    </row>
+    <row r="56" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="3"/>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B56"/>
+      <c r="C56"/>
+      <c r="D56"/>
+      <c r="E56" s="7"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
+      <c r="M56"/>
+      <c r="N56"/>
+      <c r="O56"/>
+      <c r="P56"/>
+      <c r="Q56"/>
+      <c r="R56"/>
+      <c r="S56"/>
+      <c r="T56"/>
+      <c r="U56"/>
+      <c r="V56"/>
+      <c r="W56"/>
+      <c r="X56"/>
+    </row>
+    <row r="57" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A57" s="3"/>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B57"/>
+      <c r="C57"/>
+      <c r="D57"/>
+      <c r="E57" s="7"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+    </row>
+    <row r="58" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A58" s="3"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B58"/>
+      <c r="C58"/>
+      <c r="D58"/>
+      <c r="E58" s="7"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
+      <c r="M58"/>
+      <c r="N58"/>
+      <c r="O58"/>
+      <c r="P58"/>
+      <c r="Q58"/>
+      <c r="R58"/>
+      <c r="S58"/>
+      <c r="T58"/>
+      <c r="U58"/>
+      <c r="V58"/>
+      <c r="W58"/>
+      <c r="X58"/>
+    </row>
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
     </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
     </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
     </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="3"/>
     </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="3"/>
     </row>
-    <row r="1763" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1763" s="16"/>
-      <c r="B1763" s="16"/>
-      <c r="C1763" s="16" t="s">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+    </row>
+    <row r="1781" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1781" s="16"/>
+      <c r="B1781" s="16"/>
+      <c r="C1781" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="D1763" s="16"/>
-      <c r="G1763" s="16">
+      <c r="D1781" s="16"/>
+      <c r="G1781" s="16">
         <v>23942.73</v>
       </c>
-      <c r="H1763" s="16">
+      <c r="H1781" s="16">
         <v>736016.15</v>
-      </c>
-      <c r="I1763" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1763" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1763" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1763" s="16"/>
-      <c r="M1763" s="16">
-        <v>736016.15</v>
-      </c>
-      <c r="N1763" s="16" t="s">
-        <v>307</v>
-      </c>
-      <c r="O1763" s="16"/>
-      <c r="P1763" s="16"/>
-      <c r="Q1763" s="16"/>
-      <c r="R1763" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="S1763" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1763" s="16"/>
-      <c r="U1763" s="16"/>
-      <c r="V1763" s="16"/>
-      <c r="W1763" s="16"/>
-      <c r="X1763" s="16"/>
-    </row>
-    <row r="1764" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1764" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="B1764" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1764" s="16" t="s">
-        <v>314</v>
-      </c>
-      <c r="D1764" s="16" t="s">
-        <v>310</v>
-      </c>
-      <c r="G1764" s="16">
-        <v>2342.17</v>
-      </c>
-      <c r="H1764" s="16">
-        <v>72000</v>
-      </c>
-      <c r="I1764" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1764" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1764" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1764" s="16"/>
-      <c r="M1764" s="16">
-        <v>72000</v>
-      </c>
-      <c r="N1764" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="O1764" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1764" s="16" t="s">
-        <v>312</v>
-      </c>
-      <c r="Q1764" s="16" t="s">
-        <v>313</v>
-      </c>
-      <c r="R1764" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="S1764" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1764" s="16"/>
-      <c r="U1764" s="16"/>
-      <c r="V1764" s="16"/>
-      <c r="W1764" s="16"/>
-      <c r="X1764" s="16"/>
-    </row>
-    <row r="1765" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1765" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="B1765" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1765" s="16" t="s">
-        <v>322</v>
-      </c>
-      <c r="D1765" s="16" t="s">
-        <v>318</v>
-      </c>
-      <c r="E1765" s="22">
-        <v>736016.15</v>
-      </c>
-      <c r="F1765" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1765" s="16">
-        <v>23519.38</v>
-      </c>
-      <c r="H1765" s="16">
-        <v>723002.17</v>
-      </c>
-      <c r="I1765" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1765" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1765" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1765" s="16"/>
-      <c r="M1765" s="16">
-        <v>723002.17</v>
-      </c>
-      <c r="N1765" s="16" t="s">
-        <v>324</v>
-      </c>
-      <c r="O1765" s="16" t="s">
-        <v>319</v>
-      </c>
-      <c r="P1765" s="16" t="s">
-        <v>320</v>
-      </c>
-      <c r="Q1765" s="16" t="s">
-        <v>321</v>
-      </c>
-      <c r="R1765" s="16" t="s">
-        <v>323</v>
-      </c>
-      <c r="S1765" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1765" s="16"/>
-      <c r="U1765" s="16"/>
-      <c r="V1765" s="16"/>
-      <c r="W1765" s="16"/>
-      <c r="X1765" s="16"/>
-    </row>
-    <row r="1766" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1766" s="16" t="s">
-        <v>325</v>
-      </c>
-      <c r="B1766" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1766" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="D1766" s="16" t="s">
-        <v>326</v>
-      </c>
-      <c r="E1766" s="22">
-        <v>72000</v>
-      </c>
-      <c r="F1766" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1766" s="16">
-        <v>161.66999999999999</v>
-      </c>
-      <c r="H1766" s="16">
-        <v>4970</v>
-      </c>
-      <c r="I1766" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1766" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1766" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1766" s="16"/>
-      <c r="M1766" s="16">
-        <v>4970</v>
-      </c>
-      <c r="N1766" s="16" t="s">
-        <v>332</v>
-      </c>
-      <c r="O1766" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1766" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1766" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1766" s="16" t="s">
-        <v>331</v>
-      </c>
-      <c r="S1766" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1766" s="16"/>
-      <c r="U1766" s="16"/>
-      <c r="V1766" s="16"/>
-      <c r="W1766" s="16"/>
-      <c r="X1766" s="16"/>
-    </row>
-    <row r="1767" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1767" s="16" t="s">
-        <v>333</v>
-      </c>
-      <c r="B1767" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1767" s="16" t="s">
-        <v>337</v>
-      </c>
-      <c r="D1767" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1767" s="22">
-        <v>723002.17</v>
-      </c>
-      <c r="F1767" s="16">
-        <v>16900.55</v>
-      </c>
-      <c r="G1767" s="16">
-        <v>300.43</v>
-      </c>
-      <c r="H1767" s="16">
-        <v>9235.48</v>
-      </c>
-      <c r="I1767" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1767" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1767" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1767" s="16"/>
-      <c r="M1767" s="16">
-        <v>9235.48</v>
-      </c>
-      <c r="N1767" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="O1767" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1767" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1767" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="R1767" s="16" t="s">
-        <v>338</v>
-      </c>
-      <c r="S1767" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1767" s="16"/>
-      <c r="U1767" s="16"/>
-      <c r="V1767" s="16"/>
-      <c r="W1767" s="16"/>
-      <c r="X1767" s="16"/>
-    </row>
-    <row r="1768" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1768" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="B1768" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1768" s="16" t="s">
-        <v>342</v>
-      </c>
-      <c r="D1768" s="16" t="s">
-        <v>341</v>
-      </c>
-      <c r="E1768" s="22">
-        <v>4970</v>
-      </c>
-      <c r="F1768" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1768" s="16">
-        <v>388.74</v>
-      </c>
-      <c r="H1768" s="16">
-        <v>11950</v>
-      </c>
-      <c r="I1768" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1768" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1768" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1768" s="16"/>
-      <c r="M1768" s="16">
-        <v>11950</v>
-      </c>
-      <c r="N1768" s="16" t="s">
-        <v>344</v>
-      </c>
-      <c r="O1768" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1768" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1768" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1768" s="16" t="s">
-        <v>343</v>
-      </c>
-      <c r="S1768" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1768" s="16"/>
-      <c r="U1768" s="16"/>
-      <c r="V1768" s="16"/>
-      <c r="W1768" s="16"/>
-      <c r="X1768" s="16"/>
-    </row>
-    <row r="1769" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1769" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="B1769" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1769" s="16" t="s">
-        <v>347</v>
-      </c>
-      <c r="D1769" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="E1769" s="22">
-        <v>9235.48</v>
-      </c>
-      <c r="F1769" s="16">
-        <v>161.84</v>
-      </c>
-      <c r="G1769" s="16">
-        <v>450.44</v>
-      </c>
-      <c r="H1769" s="16">
-        <v>13846.96</v>
-      </c>
-      <c r="I1769" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1769" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1769" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1769" s="16"/>
-      <c r="M1769" s="16">
-        <v>13846.96</v>
-      </c>
-      <c r="N1769" s="16" t="s">
-        <v>349</v>
-      </c>
-      <c r="O1769" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1769" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1769" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="R1769" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="S1769" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1769" s="16"/>
-      <c r="U1769" s="16"/>
-      <c r="V1769" s="16"/>
-      <c r="W1769" s="16"/>
-      <c r="X1769" s="16"/>
-    </row>
-    <row r="1770" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1770" s="16" t="s">
-        <v>350</v>
-      </c>
-      <c r="B1770" s="16" t="s">
-        <v>309</v>
-      </c>
-      <c r="C1770" s="16" t="s">
-        <v>352</v>
-      </c>
-      <c r="D1770" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="E1770" s="22">
-        <v>11950</v>
-      </c>
-      <c r="F1770" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1770" s="16">
-        <v>1997.29</v>
-      </c>
-      <c r="H1770" s="16">
-        <v>61398</v>
-      </c>
-      <c r="I1770" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1770" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1770" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1770" s="16"/>
-      <c r="M1770" s="16">
-        <v>61398</v>
-      </c>
-      <c r="N1770" s="16" t="s">
-        <v>354</v>
-      </c>
-      <c r="O1770" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1770" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1770" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1770" s="16" t="s">
-        <v>353</v>
-      </c>
-      <c r="S1770" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1770" s="16"/>
-      <c r="U1770" s="16"/>
-      <c r="V1770" s="16"/>
-      <c r="W1770" s="16"/>
-      <c r="X1770" s="16"/>
-    </row>
-    <row r="1771" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1771" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B1771" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1771" s="16"/>
-      <c r="D1771" s="16" t="s">
-        <v>357</v>
-      </c>
-      <c r="E1771" s="22">
-        <v>13846.96</v>
-      </c>
-      <c r="F1771" s="16">
-        <v>323.68</v>
-      </c>
-      <c r="G1771" s="16"/>
-      <c r="H1771" s="16">
-        <v>0</v>
-      </c>
-      <c r="I1771" s="16">
-        <v>14000</v>
-      </c>
-      <c r="J1771" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1771" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1771" s="16"/>
-      <c r="M1771" s="16">
-        <v>14000</v>
-      </c>
-      <c r="N1771" s="16"/>
-      <c r="O1771" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1771" s="16"/>
-      <c r="Q1771" s="16"/>
-      <c r="R1771" s="16"/>
-      <c r="S1771" s="16"/>
-      <c r="T1771" s="16"/>
-      <c r="U1771" s="16"/>
-      <c r="V1771" s="16"/>
-      <c r="W1771" s="16"/>
-      <c r="X1771" s="16"/>
-    </row>
-    <row r="1772" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1772" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="B1772" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1772" s="16"/>
-      <c r="D1772" s="16" t="s">
-        <v>359</v>
-      </c>
-      <c r="E1772" s="22">
-        <v>61398</v>
-      </c>
-      <c r="F1772" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1772" s="16"/>
-      <c r="H1772" s="16">
-        <v>0</v>
-      </c>
-      <c r="I1772" s="16">
-        <v>7150</v>
-      </c>
-      <c r="J1772" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1772" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1772" s="16"/>
-      <c r="M1772" s="16">
-        <v>7150</v>
-      </c>
-      <c r="N1772" s="16"/>
-      <c r="O1772" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1772" s="16"/>
-      <c r="Q1772" s="16"/>
-      <c r="R1772" s="16"/>
-      <c r="S1772" s="16"/>
-      <c r="T1772" s="16"/>
-      <c r="U1772" s="16"/>
-      <c r="V1772" s="16"/>
-      <c r="W1772" s="16"/>
-      <c r="X1772" s="16"/>
-    </row>
-    <row r="1773" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1773" s="16" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1773" s="16" t="s">
-        <v>361</v>
-      </c>
-      <c r="C1773" s="16"/>
-      <c r="D1773" s="16" t="s">
-        <v>362</v>
-      </c>
-      <c r="E1773" s="22"/>
-      <c r="F1773" s="16"/>
-      <c r="G1773" s="16"/>
-      <c r="H1773" s="16">
-        <v>0</v>
-      </c>
-      <c r="I1773" s="16">
-        <v>1100</v>
-      </c>
-      <c r="J1773" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1773" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1773" s="16"/>
-      <c r="M1773" s="16">
-        <v>1100</v>
-      </c>
-      <c r="N1773" s="16"/>
-      <c r="O1773" s="16" t="s">
-        <v>358</v>
-      </c>
-      <c r="P1773" s="16"/>
-      <c r="Q1773" s="16"/>
-      <c r="R1773" s="16"/>
-      <c r="S1773" s="16"/>
-      <c r="T1773" s="16"/>
-      <c r="U1773" s="16"/>
-      <c r="V1773" s="16"/>
-      <c r="W1773" s="16"/>
-      <c r="X1773" s="16"/>
-    </row>
-    <row r="1774" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1774" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="B1774" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1774" s="16" t="s">
-        <v>366</v>
-      </c>
-      <c r="D1774" s="16" t="s">
-        <v>365</v>
-      </c>
-      <c r="E1774" s="22"/>
-      <c r="F1774" s="16"/>
-      <c r="G1774" s="16">
-        <v>136.63</v>
-      </c>
-      <c r="H1774" s="16">
-        <v>4200</v>
-      </c>
-      <c r="I1774" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1774" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1774" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1774" s="16"/>
-      <c r="M1774" s="16">
-        <v>4200</v>
-      </c>
-      <c r="N1774" s="16" t="s">
-        <v>368</v>
-      </c>
-      <c r="O1774" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1774" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1774" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1774" s="16" t="s">
-        <v>367</v>
-      </c>
-      <c r="S1774" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1774" s="16"/>
-      <c r="U1774" s="16"/>
-      <c r="V1774" s="16"/>
-      <c r="W1774" s="16"/>
-      <c r="X1774" s="16"/>
-    </row>
-    <row r="1775" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1775" s="16" t="s">
-        <v>369</v>
-      </c>
-      <c r="B1775" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1775" s="16" t="s">
-        <v>373</v>
-      </c>
-      <c r="D1775" s="16" t="s">
-        <v>370</v>
-      </c>
-      <c r="E1775" s="22"/>
-      <c r="F1775" s="16"/>
-      <c r="G1775" s="16">
-        <v>650.6</v>
-      </c>
-      <c r="H1775" s="16">
-        <v>20000</v>
-      </c>
-      <c r="I1775" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1775" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1775" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1775" s="16"/>
-      <c r="M1775" s="16">
-        <v>20000</v>
-      </c>
-      <c r="N1775" s="16" t="s">
-        <v>375</v>
-      </c>
-      <c r="O1775" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1775" s="16" t="s">
-        <v>371</v>
-      </c>
-      <c r="Q1775" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="R1775" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="S1775" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1775" s="16"/>
-      <c r="U1775" s="16"/>
-      <c r="V1775" s="16"/>
-      <c r="W1775" s="16"/>
-      <c r="X1775" s="16"/>
-    </row>
-    <row r="1776" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1776" s="16" t="s">
-        <v>376</v>
-      </c>
-      <c r="B1776" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="C1776" s="16" t="s">
-        <v>378</v>
-      </c>
-      <c r="D1776" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="E1776" s="22">
-        <v>4200</v>
-      </c>
-      <c r="F1776" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1776" s="16">
-        <v>78.37</v>
-      </c>
-      <c r="H1776" s="16">
-        <v>2409</v>
-      </c>
-      <c r="I1776" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1776" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1776" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1776" s="16"/>
-      <c r="M1776" s="16">
-        <v>2409</v>
-      </c>
-      <c r="N1776" s="16" t="s">
-        <v>380</v>
-      </c>
-      <c r="O1776" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1776" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1776" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1776" s="16" t="s">
-        <v>379</v>
-      </c>
-      <c r="S1776" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1776" s="16"/>
-      <c r="U1776" s="16"/>
-      <c r="V1776" s="16"/>
-      <c r="W1776" s="16"/>
-      <c r="X1776" s="16"/>
-    </row>
-    <row r="1777" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1777" s="16" t="s">
-        <v>381</v>
-      </c>
-      <c r="B1777" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1777" s="16" t="s">
-        <v>384</v>
-      </c>
-      <c r="D1777" s="16" t="s">
-        <v>377</v>
-      </c>
-      <c r="E1777" s="22">
-        <v>320000</v>
-      </c>
-      <c r="F1777" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1777" s="16">
-        <v>11758.05</v>
-      </c>
-      <c r="H1777" s="16">
-        <v>361450.61</v>
-      </c>
-      <c r="I1777" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1777" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1777" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1777" s="16"/>
-      <c r="M1777" s="16">
-        <v>361450.61</v>
-      </c>
-      <c r="N1777" s="16" t="s">
-        <v>386</v>
-      </c>
-      <c r="O1777" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1777" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q1777" s="16" t="s">
-        <v>383</v>
-      </c>
-      <c r="R1777" s="16" t="s">
-        <v>385</v>
-      </c>
-      <c r="S1777" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1777" s="16"/>
-      <c r="U1777" s="16"/>
-      <c r="V1777" s="16"/>
-      <c r="W1777" s="16"/>
-      <c r="X1777" s="16"/>
-    </row>
-    <row r="1778" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1778" s="16" t="s">
-        <v>387</v>
-      </c>
-      <c r="B1778" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1778" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="D1778" s="16" t="s">
-        <v>388</v>
-      </c>
-      <c r="E1778" s="22">
-        <v>2409</v>
-      </c>
-      <c r="F1778" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1778" s="16">
-        <v>1073.5</v>
-      </c>
-      <c r="H1778" s="16">
-        <v>33000</v>
-      </c>
-      <c r="I1778" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1778" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1778" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1778" s="16"/>
-      <c r="M1778" s="16">
-        <v>33000</v>
-      </c>
-      <c r="N1778" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="O1778" s="16" t="s">
-        <v>311</v>
-      </c>
-      <c r="P1778" s="16" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q1778" s="16" t="s">
-        <v>389</v>
-      </c>
-      <c r="R1778" s="16"/>
-      <c r="S1778" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1778" s="16"/>
-      <c r="U1778" s="16"/>
-      <c r="V1778" s="16"/>
-      <c r="W1778" s="16"/>
-      <c r="X1778" s="16"/>
-    </row>
-    <row r="1779" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1779" s="16" t="s">
-        <v>392</v>
-      </c>
-      <c r="B1779" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1779" s="16" t="s">
-        <v>393</v>
-      </c>
-      <c r="D1779" s="16" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1779" s="22">
-        <v>361450.61</v>
-      </c>
-      <c r="F1779" s="16">
-        <v>8828.5</v>
-      </c>
-      <c r="G1779" s="16">
-        <v>267.5</v>
-      </c>
-      <c r="H1779" s="16">
-        <v>8223</v>
-      </c>
-      <c r="I1779" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1779" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1779" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1779" s="16"/>
-      <c r="M1779" s="16">
-        <v>8223</v>
-      </c>
-      <c r="N1779" s="16" t="s">
-        <v>395</v>
-      </c>
-      <c r="O1779" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1779" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1779" s="16" t="s">
-        <v>329</v>
-      </c>
-      <c r="R1779" s="16" t="s">
-        <v>394</v>
-      </c>
-      <c r="S1779" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1779" s="16"/>
-      <c r="U1779" s="16"/>
-      <c r="V1779" s="16"/>
-      <c r="W1779" s="16"/>
-      <c r="X1779" s="16"/>
-    </row>
-    <row r="1780" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1780" s="16" t="s">
-        <v>396</v>
-      </c>
-      <c r="B1780" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1780" s="16" t="s">
-        <v>398</v>
-      </c>
-      <c r="D1780" s="16" t="s">
-        <v>397</v>
-      </c>
-      <c r="E1780" s="22">
-        <v>477000</v>
-      </c>
-      <c r="F1780" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1780" s="16">
-        <v>406.63</v>
-      </c>
-      <c r="H1780" s="16">
-        <v>12500</v>
-      </c>
-      <c r="I1780" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1780" s="16">
-        <v>0</v>
-      </c>
-      <c r="K1780" s="16">
-        <v>0</v>
-      </c>
-      <c r="L1780" s="16"/>
-      <c r="M1780" s="16">
-        <v>12500</v>
-      </c>
-      <c r="N1780" s="16" t="s">
-        <v>400</v>
-      </c>
-      <c r="O1780" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1780" s="16" t="s">
-        <v>335</v>
-      </c>
-      <c r="Q1780" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="R1780" s="16" t="s">
-        <v>399</v>
-      </c>
-      <c r="S1780" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="T1780" s="16"/>
-      <c r="U1780" s="16"/>
-      <c r="V1780" s="16"/>
-      <c r="W1780" s="16"/>
-      <c r="X1780" s="16"/>
-    </row>
-    <row r="1781" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1781" s="16" t="s">
-        <v>401</v>
-      </c>
-      <c r="B1781" s="16" t="s">
-        <v>356</v>
-      </c>
-      <c r="C1781" s="16" t="s">
-        <v>403</v>
-      </c>
-      <c r="D1781" s="16" t="s">
-        <v>402</v>
-      </c>
-      <c r="E1781" s="22">
-        <v>8223</v>
-      </c>
-      <c r="F1781" s="16">
-        <v>0</v>
-      </c>
-      <c r="G1781" s="16">
-        <v>3366.87</v>
-      </c>
-      <c r="H1781" s="16">
-        <v>103500</v>
       </c>
       <c r="I1781" s="16">
         <v>0</v>
@@ -4508,22 +3966,16 @@
       </c>
       <c r="L1781" s="16"/>
       <c r="M1781" s="16">
-        <v>103500</v>
+        <v>736016.15</v>
       </c>
       <c r="N1781" s="16" t="s">
-        <v>405</v>
-      </c>
-      <c r="O1781" s="16" t="s">
-        <v>327</v>
-      </c>
-      <c r="P1781" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q1781" s="16" t="s">
-        <v>329</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="O1781" s="16"/>
+      <c r="P1781" s="16"/>
+      <c r="Q1781" s="16"/>
       <c r="R1781" s="16" t="s">
-        <v>404</v>
+        <v>306</v>
       </c>
       <c r="S1781" s="16" t="s">
         <v>304</v>
@@ -4536,28 +3988,22 @@
     </row>
     <row r="1782" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1782" s="16" t="s">
-        <v>406</v>
+        <v>308</v>
       </c>
       <c r="B1782" s="16" t="s">
-        <v>407</v>
+        <v>309</v>
       </c>
       <c r="C1782" s="16" t="s">
-        <v>409</v>
+        <v>314</v>
       </c>
       <c r="D1782" s="16" t="s">
-        <v>408</v>
-      </c>
-      <c r="E1782" s="22">
-        <v>12500</v>
-      </c>
-      <c r="F1782" s="16">
-        <v>0</v>
+        <v>310</v>
       </c>
       <c r="G1782" s="16">
-        <v>44.95</v>
+        <v>2342.17</v>
       </c>
       <c r="H1782" s="16">
-        <v>1381.79</v>
+        <v>72000</v>
       </c>
       <c r="I1782" s="16">
         <v>0</v>
@@ -4570,22 +4016,22 @@
       </c>
       <c r="L1782" s="16"/>
       <c r="M1782" s="16">
-        <v>1381.79</v>
+        <v>72000</v>
       </c>
       <c r="N1782" s="16" t="s">
-        <v>411</v>
+        <v>316</v>
       </c>
       <c r="O1782" s="16" t="s">
-        <v>327</v>
+        <v>311</v>
       </c>
       <c r="P1782" s="16" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="Q1782" s="16" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="R1782" s="16" t="s">
-        <v>410</v>
+        <v>315</v>
       </c>
       <c r="S1782" s="16" t="s">
         <v>304</v>
@@ -4598,28 +4044,28 @@
     </row>
     <row r="1783" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1783" s="16" t="s">
-        <v>412</v>
+        <v>317</v>
       </c>
       <c r="B1783" s="16" t="s">
-        <v>407</v>
+        <v>309</v>
       </c>
       <c r="C1783" s="16" t="s">
-        <v>414</v>
+        <v>322</v>
       </c>
       <c r="D1783" s="16" t="s">
-        <v>413</v>
+        <v>318</v>
       </c>
       <c r="E1783" s="22">
-        <v>103500</v>
+        <v>736016.15</v>
       </c>
       <c r="F1783" s="16">
         <v>0</v>
       </c>
       <c r="G1783" s="16">
-        <v>45.54</v>
+        <v>23519.38</v>
       </c>
       <c r="H1783" s="16">
-        <v>1400</v>
+        <v>723002.17</v>
       </c>
       <c r="I1783" s="16">
         <v>0</v>
@@ -4632,22 +4078,22 @@
       </c>
       <c r="L1783" s="16"/>
       <c r="M1783" s="16">
-        <v>1400</v>
+        <v>723002.17</v>
       </c>
       <c r="N1783" s="16" t="s">
-        <v>416</v>
+        <v>324</v>
       </c>
       <c r="O1783" s="16" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="P1783" s="16" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="Q1783" s="16" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="R1783" s="16" t="s">
-        <v>415</v>
+        <v>323</v>
       </c>
       <c r="S1783" s="16" t="s">
         <v>304</v>
@@ -4659,63 +4105,1120 @@
       <c r="X1783" s="16"/>
     </row>
     <row r="1784" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1784" t="s">
+      <c r="A1784" s="16" t="s">
+        <v>325</v>
+      </c>
+      <c r="B1784" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1784" s="16" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1784" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="E1784" s="22">
+        <v>72000</v>
+      </c>
+      <c r="F1784" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1784" s="16">
+        <v>161.66999999999999</v>
+      </c>
+      <c r="H1784" s="16">
+        <v>4970</v>
+      </c>
+      <c r="I1784" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1784" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1784" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1784" s="16"/>
+      <c r="M1784" s="16">
+        <v>4970</v>
+      </c>
+      <c r="N1784" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="O1784" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1784" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1784" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1784" s="16" t="s">
+        <v>331</v>
+      </c>
+      <c r="S1784" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1784" s="16"/>
+      <c r="U1784" s="16"/>
+      <c r="V1784" s="16"/>
+      <c r="W1784" s="16"/>
+      <c r="X1784" s="16"/>
+    </row>
+    <row r="1785" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1785" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1785" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1785" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1785" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1785" s="22">
+        <v>723002.17</v>
+      </c>
+      <c r="F1785" s="16">
+        <v>16900.55</v>
+      </c>
+      <c r="G1785" s="16">
+        <v>300.43</v>
+      </c>
+      <c r="H1785" s="16">
+        <v>9235.48</v>
+      </c>
+      <c r="I1785" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1785" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1785" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1785" s="16"/>
+      <c r="M1785" s="16">
+        <v>9235.48</v>
+      </c>
+      <c r="N1785" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="O1785" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1785" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1785" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1785" s="16" t="s">
+        <v>338</v>
+      </c>
+      <c r="S1785" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1785" s="16"/>
+      <c r="U1785" s="16"/>
+      <c r="V1785" s="16"/>
+      <c r="W1785" s="16"/>
+      <c r="X1785" s="16"/>
+    </row>
+    <row r="1786" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1786" s="16" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1786" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1786" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="D1786" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="E1786" s="22">
+        <v>4970</v>
+      </c>
+      <c r="F1786" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1786" s="16">
+        <v>388.74</v>
+      </c>
+      <c r="H1786" s="16">
+        <v>11950</v>
+      </c>
+      <c r="I1786" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1786" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1786" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1786" s="16"/>
+      <c r="M1786" s="16">
+        <v>11950</v>
+      </c>
+      <c r="N1786" s="16" t="s">
+        <v>344</v>
+      </c>
+      <c r="O1786" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1786" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1786" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1786" s="16" t="s">
+        <v>343</v>
+      </c>
+      <c r="S1786" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1786" s="16"/>
+      <c r="U1786" s="16"/>
+      <c r="V1786" s="16"/>
+      <c r="W1786" s="16"/>
+      <c r="X1786" s="16"/>
+    </row>
+    <row r="1787" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1787" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1787" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1787" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="D1787" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1787" s="22">
+        <v>9235.48</v>
+      </c>
+      <c r="F1787" s="16">
+        <v>161.84</v>
+      </c>
+      <c r="G1787" s="16">
+        <v>450.44</v>
+      </c>
+      <c r="H1787" s="16">
+        <v>13846.96</v>
+      </c>
+      <c r="I1787" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1787" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1787" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1787" s="16"/>
+      <c r="M1787" s="16">
+        <v>13846.96</v>
+      </c>
+      <c r="N1787" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="O1787" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1787" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1787" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1787" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="S1787" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1787" s="16"/>
+      <c r="U1787" s="16"/>
+      <c r="V1787" s="16"/>
+      <c r="W1787" s="16"/>
+      <c r="X1787" s="16"/>
+    </row>
+    <row r="1788" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1788" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="B1788" s="16" t="s">
+        <v>309</v>
+      </c>
+      <c r="C1788" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="D1788" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="E1788" s="22">
+        <v>11950</v>
+      </c>
+      <c r="F1788" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1788" s="16">
+        <v>1997.29</v>
+      </c>
+      <c r="H1788" s="16">
+        <v>61398</v>
+      </c>
+      <c r="I1788" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1788" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1788" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1788" s="16"/>
+      <c r="M1788" s="16">
+        <v>61398</v>
+      </c>
+      <c r="N1788" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="O1788" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1788" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1788" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1788" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="S1788" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1788" s="16"/>
+      <c r="U1788" s="16"/>
+      <c r="V1788" s="16"/>
+      <c r="W1788" s="16"/>
+      <c r="X1788" s="16"/>
+    </row>
+    <row r="1789" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1789" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1789" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1789" s="16"/>
+      <c r="D1789" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="E1789" s="22">
+        <v>13846.96</v>
+      </c>
+      <c r="F1789" s="16">
+        <v>323.68</v>
+      </c>
+      <c r="G1789" s="16"/>
+      <c r="H1789" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1789" s="16">
+        <v>14000</v>
+      </c>
+      <c r="J1789" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1789" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1789" s="16"/>
+      <c r="M1789" s="16">
+        <v>14000</v>
+      </c>
+      <c r="N1789" s="16"/>
+      <c r="O1789" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1789" s="16"/>
+      <c r="Q1789" s="16"/>
+      <c r="R1789" s="16"/>
+      <c r="S1789" s="16"/>
+      <c r="T1789" s="16"/>
+      <c r="U1789" s="16"/>
+      <c r="V1789" s="16"/>
+      <c r="W1789" s="16"/>
+      <c r="X1789" s="16"/>
+    </row>
+    <row r="1790" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1790" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1790" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1790" s="16"/>
+      <c r="D1790" s="16" t="s">
+        <v>359</v>
+      </c>
+      <c r="E1790" s="22">
+        <v>61398</v>
+      </c>
+      <c r="F1790" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1790" s="16"/>
+      <c r="H1790" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1790" s="16">
+        <v>7150</v>
+      </c>
+      <c r="J1790" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1790" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1790" s="16"/>
+      <c r="M1790" s="16">
+        <v>7150</v>
+      </c>
+      <c r="N1790" s="16"/>
+      <c r="O1790" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1790" s="16"/>
+      <c r="Q1790" s="16"/>
+      <c r="R1790" s="16"/>
+      <c r="S1790" s="16"/>
+      <c r="T1790" s="16"/>
+      <c r="U1790" s="16"/>
+      <c r="V1790" s="16"/>
+      <c r="W1790" s="16"/>
+      <c r="X1790" s="16"/>
+    </row>
+    <row r="1791" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1791" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1791" s="16" t="s">
+        <v>361</v>
+      </c>
+      <c r="C1791" s="16"/>
+      <c r="D1791" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="E1791" s="22"/>
+      <c r="F1791" s="16"/>
+      <c r="G1791" s="16"/>
+      <c r="H1791" s="16">
+        <v>0</v>
+      </c>
+      <c r="I1791" s="16">
+        <v>1100</v>
+      </c>
+      <c r="J1791" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1791" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1791" s="16"/>
+      <c r="M1791" s="16">
+        <v>1100</v>
+      </c>
+      <c r="N1791" s="16"/>
+      <c r="O1791" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="P1791" s="16"/>
+      <c r="Q1791" s="16"/>
+      <c r="R1791" s="16"/>
+      <c r="S1791" s="16"/>
+      <c r="T1791" s="16"/>
+      <c r="U1791" s="16"/>
+      <c r="V1791" s="16"/>
+      <c r="W1791" s="16"/>
+      <c r="X1791" s="16"/>
+    </row>
+    <row r="1792" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1792" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B1792" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1792" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1792" s="16" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1792" s="22"/>
+      <c r="F1792" s="16"/>
+      <c r="G1792" s="16">
+        <v>136.63</v>
+      </c>
+      <c r="H1792" s="16">
+        <v>4200</v>
+      </c>
+      <c r="I1792" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1792" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1792" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1792" s="16"/>
+      <c r="M1792" s="16">
+        <v>4200</v>
+      </c>
+      <c r="N1792" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="O1792" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1792" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1792" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1792" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="S1792" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1792" s="16"/>
+      <c r="U1792" s="16"/>
+      <c r="V1792" s="16"/>
+      <c r="W1792" s="16"/>
+      <c r="X1792" s="16"/>
+    </row>
+    <row r="1793" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1793" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B1793" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1793" s="16" t="s">
+        <v>373</v>
+      </c>
+      <c r="D1793" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="E1793" s="22"/>
+      <c r="F1793" s="16"/>
+      <c r="G1793" s="16">
+        <v>650.6</v>
+      </c>
+      <c r="H1793" s="16">
+        <v>20000</v>
+      </c>
+      <c r="I1793" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1793" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1793" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1793" s="16"/>
+      <c r="M1793" s="16">
+        <v>20000</v>
+      </c>
+      <c r="N1793" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="O1793" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1793" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q1793" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="R1793" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="S1793" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1793" s="16"/>
+      <c r="U1793" s="16"/>
+      <c r="V1793" s="16"/>
+      <c r="W1793" s="16"/>
+      <c r="X1793" s="16"/>
+    </row>
+    <row r="1794" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1794" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B1794" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1794" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="D1794" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1794" s="22">
+        <v>4200</v>
+      </c>
+      <c r="F1794" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1794" s="16">
+        <v>78.37</v>
+      </c>
+      <c r="H1794" s="16">
+        <v>2409</v>
+      </c>
+      <c r="I1794" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1794" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1794" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1794" s="16"/>
+      <c r="M1794" s="16">
+        <v>2409</v>
+      </c>
+      <c r="N1794" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="O1794" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1794" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1794" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1794" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="S1794" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1794" s="16"/>
+      <c r="U1794" s="16"/>
+      <c r="V1794" s="16"/>
+      <c r="W1794" s="16"/>
+      <c r="X1794" s="16"/>
+    </row>
+    <row r="1795" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1795" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1795" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1795" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="D1795" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="E1795" s="22">
+        <v>320000</v>
+      </c>
+      <c r="F1795" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1795" s="16">
+        <v>11758.05</v>
+      </c>
+      <c r="H1795" s="16">
+        <v>361450.61</v>
+      </c>
+      <c r="I1795" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1795" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1795" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1795" s="16"/>
+      <c r="M1795" s="16">
+        <v>361450.61</v>
+      </c>
+      <c r="N1795" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="O1795" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1795" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1795" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="R1795" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="S1795" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1795" s="16"/>
+      <c r="U1795" s="16"/>
+      <c r="V1795" s="16"/>
+      <c r="W1795" s="16"/>
+      <c r="X1795" s="16"/>
+    </row>
+    <row r="1796" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1796" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1796" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1796" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="D1796" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1796" s="22">
+        <v>2409</v>
+      </c>
+      <c r="F1796" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1796" s="16">
+        <v>1073.5</v>
+      </c>
+      <c r="H1796" s="16">
+        <v>33000</v>
+      </c>
+      <c r="I1796" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1796" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1796" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1796" s="16"/>
+      <c r="M1796" s="16">
+        <v>33000</v>
+      </c>
+      <c r="N1796" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="O1796" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="P1796" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q1796" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="R1796" s="16"/>
+      <c r="S1796" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1796" s="16"/>
+      <c r="U1796" s="16"/>
+      <c r="V1796" s="16"/>
+      <c r="W1796" s="16"/>
+      <c r="X1796" s="16"/>
+    </row>
+    <row r="1797" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1797" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="B1797" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1797" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="D1797" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="E1797" s="22">
+        <v>361450.61</v>
+      </c>
+      <c r="F1797" s="16">
+        <v>8828.5</v>
+      </c>
+      <c r="G1797" s="16">
+        <v>267.5</v>
+      </c>
+      <c r="H1797" s="16">
+        <v>8223</v>
+      </c>
+      <c r="I1797" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1797" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1797" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1797" s="16"/>
+      <c r="M1797" s="16">
+        <v>8223</v>
+      </c>
+      <c r="N1797" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="O1797" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1797" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1797" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1797" s="16" t="s">
+        <v>394</v>
+      </c>
+      <c r="S1797" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1797" s="16"/>
+      <c r="U1797" s="16"/>
+      <c r="V1797" s="16"/>
+      <c r="W1797" s="16"/>
+      <c r="X1797" s="16"/>
+    </row>
+    <row r="1798" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1798" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1798" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1798" s="16" t="s">
+        <v>398</v>
+      </c>
+      <c r="D1798" s="16" t="s">
+        <v>397</v>
+      </c>
+      <c r="E1798" s="22">
+        <v>477000</v>
+      </c>
+      <c r="F1798" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1798" s="16">
+        <v>406.63</v>
+      </c>
+      <c r="H1798" s="16">
+        <v>12500</v>
+      </c>
+      <c r="I1798" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1798" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1798" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1798" s="16"/>
+      <c r="M1798" s="16">
+        <v>12500</v>
+      </c>
+      <c r="N1798" s="16" t="s">
+        <v>400</v>
+      </c>
+      <c r="O1798" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1798" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1798" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1798" s="16" t="s">
+        <v>399</v>
+      </c>
+      <c r="S1798" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1798" s="16"/>
+      <c r="U1798" s="16"/>
+      <c r="V1798" s="16"/>
+      <c r="W1798" s="16"/>
+      <c r="X1798" s="16"/>
+    </row>
+    <row r="1799" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1799" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B1799" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="C1799" s="16" t="s">
+        <v>403</v>
+      </c>
+      <c r="D1799" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="E1799" s="22">
+        <v>8223</v>
+      </c>
+      <c r="F1799" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1799" s="16">
+        <v>3366.87</v>
+      </c>
+      <c r="H1799" s="16">
+        <v>103500</v>
+      </c>
+      <c r="I1799" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1799" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1799" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1799" s="16"/>
+      <c r="M1799" s="16">
+        <v>103500</v>
+      </c>
+      <c r="N1799" s="16" t="s">
+        <v>405</v>
+      </c>
+      <c r="O1799" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1799" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1799" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1799" s="16" t="s">
+        <v>404</v>
+      </c>
+      <c r="S1799" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1799" s="16"/>
+      <c r="U1799" s="16"/>
+      <c r="V1799" s="16"/>
+      <c r="W1799" s="16"/>
+      <c r="X1799" s="16"/>
+    </row>
+    <row r="1800" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1800" s="16" t="s">
+        <v>406</v>
+      </c>
+      <c r="B1800" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1800" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="D1800" s="16" t="s">
+        <v>408</v>
+      </c>
+      <c r="E1800" s="22">
+        <v>12500</v>
+      </c>
+      <c r="F1800" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1800" s="16">
+        <v>44.95</v>
+      </c>
+      <c r="H1800" s="16">
+        <v>1381.79</v>
+      </c>
+      <c r="I1800" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1800" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1800" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1800" s="16"/>
+      <c r="M1800" s="16">
+        <v>1381.79</v>
+      </c>
+      <c r="N1800" s="16" t="s">
+        <v>411</v>
+      </c>
+      <c r="O1800" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1800" s="16" t="s">
+        <v>335</v>
+      </c>
+      <c r="Q1800" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="R1800" s="16" t="s">
+        <v>410</v>
+      </c>
+      <c r="S1800" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1800" s="16"/>
+      <c r="U1800" s="16"/>
+      <c r="V1800" s="16"/>
+      <c r="W1800" s="16"/>
+      <c r="X1800" s="16"/>
+    </row>
+    <row r="1801" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1801" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="B1801" s="16" t="s">
+        <v>407</v>
+      </c>
+      <c r="C1801" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1801" s="16" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1801" s="22">
+        <v>103500</v>
+      </c>
+      <c r="F1801" s="16">
+        <v>0</v>
+      </c>
+      <c r="G1801" s="16">
+        <v>45.54</v>
+      </c>
+      <c r="H1801" s="16">
+        <v>1400</v>
+      </c>
+      <c r="I1801" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1801" s="16">
+        <v>0</v>
+      </c>
+      <c r="K1801" s="16">
+        <v>0</v>
+      </c>
+      <c r="L1801" s="16"/>
+      <c r="M1801" s="16">
+        <v>1400</v>
+      </c>
+      <c r="N1801" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="O1801" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="P1801" s="16" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q1801" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="R1801" s="16" t="s">
+        <v>415</v>
+      </c>
+      <c r="S1801" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="T1801" s="16"/>
+      <c r="U1801" s="16"/>
+      <c r="V1801" s="16"/>
+      <c r="W1801" s="16"/>
+      <c r="X1801" s="16"/>
+    </row>
+    <row r="1802" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1802" t="s">
         <v>417</v>
       </c>
-      <c r="B1784" t="s">
+      <c r="B1802" t="s">
         <v>407</v>
       </c>
-      <c r="D1784" t="s">
+      <c r="D1802" t="s">
         <v>418</v>
       </c>
-      <c r="E1784" s="22">
+      <c r="E1802" s="22">
         <v>1381.76</v>
       </c>
-      <c r="F1784" s="16">
+      <c r="F1802" s="16">
         <v>33.200000000000003</v>
       </c>
-      <c r="O1784" t="s">
+      <c r="O1802" t="s">
         <v>327</v>
       </c>
-      <c r="P1784" t="s">
+      <c r="P1802" t="s">
         <v>328</v>
       </c>
-      <c r="Q1784" t="s">
+      <c r="Q1802" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="1785" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1785"/>
-      <c r="B1785"/>
-      <c r="C1785"/>
-      <c r="D1785"/>
-      <c r="E1785" s="22">
+    <row r="1803" spans="1:24" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1803"/>
+      <c r="B1803"/>
+      <c r="C1803"/>
+      <c r="D1803"/>
+      <c r="E1803" s="22">
         <v>1400</v>
       </c>
-      <c r="F1785" s="16">
-        <v>0</v>
-      </c>
-      <c r="J1785"/>
-      <c r="K1785"/>
-      <c r="L1785"/>
-      <c r="M1785"/>
-      <c r="N1785"/>
-      <c r="O1785"/>
-      <c r="P1785"/>
-      <c r="Q1785"/>
-      <c r="R1785"/>
-      <c r="S1785"/>
-      <c r="T1785"/>
-      <c r="U1785"/>
-      <c r="V1785"/>
-      <c r="W1785"/>
-      <c r="X1785"/>
+      <c r="F1803" s="16">
+        <v>0</v>
+      </c>
+      <c r="J1803"/>
+      <c r="K1803"/>
+      <c r="L1803"/>
+      <c r="M1803"/>
+      <c r="N1803"/>
+      <c r="O1803"/>
+      <c r="P1803"/>
+      <c r="Q1803"/>
+      <c r="R1803"/>
+      <c r="S1803"/>
+      <c r="T1803"/>
+      <c r="U1803"/>
+      <c r="V1803"/>
+      <c r="W1803"/>
+      <c r="X1803"/>
     </row>
   </sheetData>
-  <autoFilter ref="A3:X14"/>
-  <mergeCells count="1">
-    <mergeCell ref="A4:D4"/>
-  </mergeCells>
+  <autoFilter ref="A3:X28"/>
   <pageMargins left="0.13541666666666666" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="57" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -4783,12 +5286,12 @@
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -8802,12 +9305,12 @@
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -9493,12 +9996,12 @@
       <c r="E49"/>
     </row>
     <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="50" t="s">
         <v>289</v>
       </c>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="50"/>
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
@@ -10624,12 +11127,12 @@
       </c>
     </row>
     <row r="129" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="41" t="s">
+      <c r="A129" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B129" s="41"/>
-      <c r="C129" s="41"/>
-      <c r="D129" s="41"/>
+      <c r="B129" s="49"/>
+      <c r="C129" s="49"/>
+      <c r="D129" s="49"/>
       <c r="F129" s="9"/>
       <c r="G129" s="9"/>
       <c r="H129" s="9"/>
@@ -12330,12 +12833,12 @@
       <c r="I3" s="9"/>
     </row>
     <row r="4" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="41"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
@@ -13890,12 +14393,12 @@
       </c>
     </row>
     <row r="132" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="41" t="s">
+      <c r="A132" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="B132" s="41"/>
-      <c r="C132" s="41"/>
-      <c r="D132" s="41"/>
+      <c r="B132" s="49"/>
+      <c r="C132" s="49"/>
+      <c r="D132" s="49"/>
       <c r="F132" s="9"/>
       <c r="G132" s="9"/>
       <c r="H132" s="9"/>
